--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -8,27 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D2B159F-B2A3-45B5-9FAD-DCAE08AAA0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364AB4EB-3F95-40A8-8D4F-387BEEBA8CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -88,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,60 +98,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -172,12 +110,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,10 +417,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -564,34 +493,34 @@
         <v>84.721614820575866</v>
       </c>
       <c r="D3">
-        <v>61.349533416317087</v>
+        <v>61.349533416317101</v>
       </c>
       <c r="E3">
         <v>67.429226163433867</v>
       </c>
-      <c r="F3" s="3">
-        <v>93.340488069916375</v>
-      </c>
-      <c r="G3" s="4">
-        <v>96.128684453167693</v>
-      </c>
-      <c r="H3" s="4">
-        <v>94.802300236028529</v>
-      </c>
-      <c r="I3" s="7">
-        <v>94.682514543198366</v>
+      <c r="F3">
+        <v>92.959434388947741</v>
+      </c>
+      <c r="G3">
+        <v>94.283366492308602</v>
+      </c>
+      <c r="H3">
+        <v>84.843113063040803</v>
+      </c>
+      <c r="I3">
+        <v>86.69281613541115</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K3">
-        <v>97.72476565985616</v>
+        <v>96.130078165039038</v>
       </c>
       <c r="L3">
-        <v>98.687572227283241</v>
+        <v>88.233450394718076</v>
       </c>
       <c r="M3">
-        <v>98.811191792545927</v>
+        <v>90.406730999340084</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -610,29 +539,29 @@
       <c r="E4">
         <v>63.696276451797537</v>
       </c>
-      <c r="F4" s="5">
-        <v>90.058188530533741</v>
-      </c>
-      <c r="G4" s="6">
-        <v>96.467256222341121</v>
-      </c>
-      <c r="H4" s="6">
-        <v>92.726687196550699</v>
-      </c>
-      <c r="I4" s="8">
-        <v>92.60102356643884</v>
+      <c r="F4">
+        <v>87.910321139586515</v>
+      </c>
+      <c r="G4">
+        <v>96.137981373224648</v>
+      </c>
+      <c r="H4">
+        <v>83.009261876302361</v>
+      </c>
+      <c r="I4">
+        <v>84.64985212502431</v>
       </c>
       <c r="J4">
-        <v>99.31327336295233</v>
+        <v>97.303624112584046</v>
       </c>
       <c r="K4">
-        <v>98.721954783027101</v>
+        <v>96.937069853877432</v>
       </c>
       <c r="L4">
-        <v>97.092126842087893</v>
+        <v>86.319310443738772</v>
       </c>
       <c r="M4">
-        <v>97.531099149042447</v>
+        <v>88.670478801360261</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
@@ -643,7 +572,7 @@
         <v>96.739278320575423</v>
       </c>
       <c r="C5">
-        <v>84.96378763102517</v>
+        <v>84.963787631025156</v>
       </c>
       <c r="D5">
         <v>58.990231260181083</v>
@@ -651,29 +580,29 @@
       <c r="E5">
         <v>66.329034183522253</v>
       </c>
-      <c r="F5" s="5">
-        <v>97.890982987922584</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="F5">
+        <v>94.236898410864441</v>
+      </c>
+      <c r="G5">
         <v>97.188386269449566</v>
       </c>
-      <c r="H5" s="6">
-        <v>94.574198811846003</v>
-      </c>
-      <c r="I5" s="8">
-        <v>95.242422949036367</v>
+      <c r="H5">
+        <v>86.30966620070086</v>
+      </c>
+      <c r="I5">
+        <v>88.233183085239318</v>
       </c>
       <c r="J5">
-        <v>99.31327336295233</v>
+        <v>95.176896675910797</v>
       </c>
       <c r="K5">
-        <v>98.31131204741348</v>
+        <v>97.782314905025117</v>
       </c>
       <c r="L5">
-        <v>96.854177699222333</v>
+        <v>85.552323152806821</v>
       </c>
       <c r="M5">
-        <v>97.315694453896072</v>
+        <v>87.818749321367207</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
@@ -692,29 +621,29 @@
       <c r="E6">
         <v>68.149993701727411</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>96.084499544409809</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>98.052272854512822</v>
       </c>
-      <c r="H6" s="6">
-        <v>90.605472723129182</v>
-      </c>
-      <c r="I6" s="8">
-        <v>91.929851486437357</v>
+      <c r="H6">
+        <v>84.307479706643861</v>
+      </c>
+      <c r="I6">
+        <v>86.994745716487245</v>
       </c>
       <c r="J6">
-        <v>99.055751008438847</v>
+        <v>96.859414639316256</v>
       </c>
       <c r="K6">
-        <v>98.424371977733614</v>
+        <v>98.229050024731706</v>
       </c>
       <c r="L6">
-        <v>96.110159091621171</v>
+        <v>84.547368874445382</v>
       </c>
       <c r="M6">
-        <v>96.703077544258832</v>
+        <v>87.308249555532996</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
@@ -733,29 +662,29 @@
       <c r="E7">
         <v>66.896798870717674</v>
       </c>
-      <c r="F7" s="5">
-        <v>93.972026632930721</v>
-      </c>
-      <c r="G7" s="6">
-        <v>93.967834476876632</v>
-      </c>
-      <c r="H7" s="6">
-        <v>89.897496084594025</v>
-      </c>
-      <c r="I7" s="8">
-        <v>90.778929981656546</v>
+      <c r="F7">
+        <v>90.317942055872606</v>
+      </c>
+      <c r="G7">
+        <v>92.50371599825678</v>
+      </c>
+      <c r="H7">
+        <v>83.531321679950267</v>
+      </c>
+      <c r="I7">
+        <v>85.154031725465018</v>
       </c>
       <c r="J7">
-        <v>99.055751008438847</v>
+        <v>96.34166469642706</v>
       </c>
       <c r="K7">
-        <v>98.785254877672145</v>
+        <v>98.374612142058496</v>
       </c>
       <c r="L7">
-        <v>96.334491690989495</v>
+        <v>83.014824622927961</v>
       </c>
       <c r="M7">
-        <v>96.904304554685879</v>
+        <v>86.042066493751392</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
@@ -774,29 +703,29 @@
       <c r="E8">
         <v>69.28215283268014</v>
       </c>
-      <c r="F8" s="5">
-        <v>96.859414639316256</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8">
+        <v>96.50197802019477</v>
+      </c>
+      <c r="G8">
         <v>97.3503216142838</v>
       </c>
-      <c r="H8" s="6">
-        <v>88.537953389957934</v>
-      </c>
-      <c r="I8" s="8">
-        <v>90.373325607046141</v>
+      <c r="H8">
+        <v>80.078994207517184</v>
+      </c>
+      <c r="I8">
+        <v>83.692735010459955</v>
       </c>
       <c r="J8">
-        <v>97.303624112584046</v>
+        <v>96.084499544409809</v>
       </c>
       <c r="K8">
-        <v>98.438902670686943</v>
+        <v>98.199067387033949</v>
       </c>
       <c r="L8">
-        <v>94.999302093889327</v>
+        <v>80.620842246514044</v>
       </c>
       <c r="M8">
-        <v>95.577988155515612</v>
+        <v>84.116245632873614</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
@@ -807,7 +736,7 @@
         <v>92.801362359739571</v>
       </c>
       <c r="C9">
-        <v>85.777695128772422</v>
+        <v>85.777695128772436</v>
       </c>
       <c r="D9">
         <v>58.681022875551712</v>
@@ -815,29 +744,29 @@
       <c r="E9">
         <v>65.569547123095717</v>
       </c>
-      <c r="F9" s="5">
-        <v>95.15825559342926</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9">
+        <v>94.777201912460612</v>
+      </c>
+      <c r="G9">
         <v>97.108588107217102</v>
       </c>
-      <c r="H9" s="6">
-        <v>87.453369954547128</v>
-      </c>
-      <c r="I9" s="8">
-        <v>89.258195646881845</v>
+      <c r="H9">
+        <v>78.539054779731899</v>
+      </c>
+      <c r="I9">
+        <v>82.217342327939704</v>
       </c>
       <c r="J9">
-        <v>97.303624112584046</v>
+        <v>96.084499544409809</v>
       </c>
       <c r="K9">
-        <v>98.438902670686943</v>
+        <v>97.672502099296779</v>
       </c>
       <c r="L9">
-        <v>94.288824729831262</v>
+        <v>79.164336074553361</v>
       </c>
       <c r="M9">
-        <v>95.021258268771703</v>
+        <v>82.937808118979248</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
@@ -845,7 +774,7 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>89.448897837918864</v>
+        <v>89.44889783791885</v>
       </c>
       <c r="C10">
         <v>80.593130693107724</v>
@@ -856,29 +785,29 @@
       <c r="E10">
         <v>65.405036761221467</v>
       </c>
-      <c r="F10" s="5">
-        <v>92.869006384095769</v>
-      </c>
-      <c r="G10" s="6">
-        <v>96.58369381221992</v>
-      </c>
-      <c r="H10" s="6">
-        <v>87.458804887428855</v>
-      </c>
-      <c r="I10" s="8">
-        <v>88.891436612878209</v>
+      <c r="F10">
+        <v>92.330575202665031</v>
+      </c>
+      <c r="G10">
+        <v>95.367943181089743</v>
+      </c>
+      <c r="H10">
+        <v>76.870936670300154</v>
+      </c>
+      <c r="I10">
+        <v>80.430522170156365</v>
       </c>
       <c r="J10">
-        <v>99.055751008438847</v>
+        <v>96.084499544409809</v>
       </c>
       <c r="K10">
-        <v>98.29524444157866</v>
+        <v>97.625978651260198</v>
       </c>
       <c r="L10">
-        <v>93.815396475921773</v>
+        <v>78.874556263895798</v>
       </c>
       <c r="M10">
-        <v>94.895799423289972</v>
+        <v>82.707457111988802</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
@@ -889,7 +818,7 @@
         <v>88.576446031632713</v>
       </c>
       <c r="C11">
-        <v>85.507750065935809</v>
+        <v>85.507750065935781</v>
       </c>
       <c r="D11">
         <v>59.135340081133997</v>
@@ -897,29 +826,29 @@
       <c r="E11">
         <v>65.290078361450469</v>
       </c>
-      <c r="F11" s="5">
-        <v>92.316611657160649</v>
-      </c>
-      <c r="G11" s="6">
-        <v>97.010890052074899</v>
-      </c>
-      <c r="H11" s="6">
-        <v>87.743885126888216</v>
-      </c>
-      <c r="I11" s="8">
-        <v>89.064342244661589</v>
+      <c r="F11">
+        <v>89.019963699224036</v>
+      </c>
+      <c r="G11">
+        <v>96.444308765165445</v>
+      </c>
+      <c r="H11">
+        <v>79.437744561910392</v>
+      </c>
+      <c r="I11">
+        <v>82.034710150602649</v>
       </c>
       <c r="J11">
-        <v>99.055751008438847</v>
+        <v>90.7659662824382</v>
       </c>
       <c r="K11">
-        <v>98.251419141025607</v>
+        <v>96.034472026053422</v>
       </c>
       <c r="L11">
-        <v>93.475675092734804</v>
+        <v>77.810400476701986</v>
       </c>
       <c r="M11">
-        <v>94.626504415342069</v>
+        <v>80.985385609223897</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
@@ -938,29 +867,29 @@
       <c r="E12">
         <v>66.4462655223534</v>
       </c>
-      <c r="F12" s="5">
-        <v>91.960602839872053</v>
-      </c>
-      <c r="G12" s="6">
-        <v>95.139520975866915</v>
-      </c>
-      <c r="H12" s="6">
-        <v>87.23497563949347</v>
-      </c>
-      <c r="I12" s="8">
-        <v>88.481696853983706</v>
+      <c r="F12">
+        <v>88.865462846891617</v>
+      </c>
+      <c r="G12">
+        <v>93.998804481553108</v>
+      </c>
+      <c r="H12">
+        <v>78.868029450385635</v>
+      </c>
+      <c r="I12">
+        <v>81.393345753448159</v>
       </c>
       <c r="J12">
-        <v>97.414919385372528</v>
+        <v>90.408529663316685</v>
       </c>
       <c r="K12">
-        <v>98.252126792088418</v>
+        <v>95.51240892132968</v>
       </c>
       <c r="L12">
-        <v>92.459661949941037</v>
+        <v>76.368909532945963</v>
       </c>
       <c r="M12">
-        <v>93.590998895162883</v>
+        <v>79.766879127356475</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
@@ -979,29 +908,29 @@
       <c r="E13">
         <v>66.38702261418311</v>
       </c>
-      <c r="F13" s="5">
-        <v>90.537652956494071</v>
-      </c>
-      <c r="G13" s="6">
-        <v>96.136980693920563</v>
-      </c>
-      <c r="H13" s="6">
-        <v>83.931940400283807</v>
-      </c>
-      <c r="I13" s="8">
-        <v>85.756136649719508</v>
+      <c r="F13">
+        <v>87.308879137951564</v>
+      </c>
+      <c r="G13">
+        <v>94.391050438914903</v>
+      </c>
+      <c r="H13">
+        <v>76.003365071403806</v>
+      </c>
+      <c r="I13">
+        <v>78.949130947763678</v>
       </c>
       <c r="J13">
-        <v>95.401666431380704</v>
+        <v>88.919692232119772</v>
       </c>
       <c r="K13">
-        <v>98.271610945115995</v>
+        <v>95.096082394529518</v>
       </c>
       <c r="L13">
-        <v>91.769144682039752</v>
+        <v>73.856585632210027</v>
       </c>
       <c r="M13">
-        <v>92.757536852644208</v>
+        <v>77.551643422249256</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
@@ -1020,29 +949,29 @@
       <c r="E14">
         <v>63.362206470137131</v>
       </c>
-      <c r="F14" s="5">
-        <v>94.943502037084443</v>
-      </c>
-      <c r="G14" s="6">
-        <v>91.368194568412349</v>
-      </c>
-      <c r="H14" s="6">
-        <v>79.958745503739138</v>
-      </c>
-      <c r="I14" s="8">
-        <v>82.949413176692303</v>
+      <c r="F14">
+        <v>92.22941572507267</v>
+      </c>
+      <c r="G14">
+        <v>83.677852946414049</v>
+      </c>
+      <c r="H14">
+        <v>70.648145352434184</v>
+      </c>
+      <c r="I14">
+        <v>74.715504635344942</v>
       </c>
       <c r="J14">
-        <v>94.957456958112928</v>
+        <v>88.47548275885201</v>
       </c>
       <c r="K14">
-        <v>98.30018407510866</v>
+        <v>96.441697229246998</v>
       </c>
       <c r="L14">
-        <v>90.986783348367368</v>
+        <v>71.618786881387393</v>
       </c>
       <c r="M14">
-        <v>92.081679952124816</v>
+        <v>75.82814952053451</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
@@ -1050,10 +979,10 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>87.342575670737929</v>
+        <v>87.342575670737943</v>
       </c>
       <c r="C15">
-        <v>82.154115339325884</v>
+        <v>82.154115339325898</v>
       </c>
       <c r="D15">
         <v>53.209359081013773</v>
@@ -1061,29 +990,29 @@
       <c r="E15">
         <v>60.230040818812228</v>
       </c>
-      <c r="F15" s="5">
-        <v>88.515942926224284</v>
-      </c>
-      <c r="G15" s="6">
-        <v>95.576517065572446</v>
-      </c>
-      <c r="H15" s="6">
-        <v>77.474769913023977</v>
-      </c>
-      <c r="I15" s="8">
-        <v>80.361809852025544</v>
+      <c r="F15">
+        <v>88.134889245255636</v>
+      </c>
+      <c r="G15">
+        <v>94.371873231404805</v>
+      </c>
+      <c r="H15">
+        <v>65.548298319419743</v>
+      </c>
+      <c r="I15">
+        <v>70.875711473088217</v>
       </c>
       <c r="J15">
-        <v>93.316625335046609</v>
+        <v>90.438938615726812</v>
       </c>
       <c r="K15">
-        <v>98.367881097105013</v>
+        <v>96.148423960703823</v>
       </c>
       <c r="L15">
-        <v>88.271998805018399</v>
+        <v>68.008630056791191</v>
       </c>
       <c r="M15">
-        <v>89.719739924293094</v>
+        <v>73.265038234085154</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
@@ -1091,7 +1020,7 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>88.581619189183982</v>
+        <v>88.581619189183996</v>
       </c>
       <c r="C16">
         <v>77.991055434469231</v>
@@ -1100,31 +1029,31 @@
         <v>52.954136927272202</v>
       </c>
       <c r="E16">
-        <v>59.917362817715961</v>
-      </c>
-      <c r="F16" s="5">
-        <v>90.250491111865941</v>
-      </c>
-      <c r="G16" s="6">
+        <v>59.917362817715969</v>
+      </c>
+      <c r="F16">
+        <v>84.935756141343987</v>
+      </c>
+      <c r="G16">
         <v>95.434968920245055</v>
       </c>
-      <c r="H16" s="6">
-        <v>77.007422444966124</v>
-      </c>
-      <c r="I16" s="8">
-        <v>80.238699811360263</v>
+      <c r="H16">
+        <v>64.215896549995023</v>
+      </c>
+      <c r="I16">
+        <v>69.439809687702123</v>
       </c>
       <c r="J16">
-        <v>93.153024927738585</v>
+        <v>90.438938615726812</v>
       </c>
       <c r="K16">
-        <v>98.329290833685931</v>
+        <v>96.401915400877868</v>
       </c>
       <c r="L16">
-        <v>87.833776239667586</v>
+        <v>65.826701016691047</v>
       </c>
       <c r="M16">
-        <v>89.349758113754518</v>
+        <v>71.573148776770822</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
@@ -1143,29 +1072,29 @@
       <c r="E17">
         <v>59.834445174400003</v>
       </c>
-      <c r="F17" s="5">
-        <v>94.721726576973936</v>
-      </c>
-      <c r="G17" s="6">
-        <v>96.964180638033554</v>
-      </c>
-      <c r="H17" s="6">
-        <v>76.348671670764787</v>
-      </c>
-      <c r="I17" s="8">
-        <v>80.482684616765255</v>
+      <c r="F17">
+        <v>92.007640264962163</v>
+      </c>
+      <c r="G17">
+        <v>92.062417788275084</v>
+      </c>
+      <c r="H17">
+        <v>60.698947127152223</v>
+      </c>
+      <c r="I17">
+        <v>67.478017547122292</v>
       </c>
       <c r="J17">
-        <v>93.316625335046609</v>
+        <v>87.477846261160622</v>
       </c>
       <c r="K17">
-        <v>98.480747827536874</v>
+        <v>96.929574485515744</v>
       </c>
       <c r="L17">
-        <v>87.448721662690758</v>
+        <v>62.733049047078403</v>
       </c>
       <c r="M17">
-        <v>89.082576574576933</v>
+        <v>68.754118416283802</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
@@ -1184,29 +1113,29 @@
       <c r="E18">
         <v>60.401168806067901</v>
       </c>
-      <c r="F18" s="5">
-        <v>91.322868683487854</v>
-      </c>
-      <c r="G18" s="6">
-        <v>94.840311480750657</v>
-      </c>
-      <c r="H18" s="6">
-        <v>79.828397698185427</v>
-      </c>
-      <c r="I18" s="8">
-        <v>82.563762303695654</v>
+      <c r="F18">
+        <v>90.360909267330882</v>
+      </c>
+      <c r="G18">
+        <v>94.465611648090785</v>
+      </c>
+      <c r="H18">
+        <v>63.881261495183701</v>
+      </c>
+      <c r="I18">
+        <v>69.900820278934646</v>
       </c>
       <c r="J18">
-        <v>94.003351972094265</v>
+        <v>91.06565557687918</v>
       </c>
       <c r="K18">
-        <v>98.619512973635153</v>
+        <v>96.88713620578298</v>
       </c>
       <c r="L18">
-        <v>86.591849445417608</v>
+        <v>57.864144326001743</v>
       </c>
       <c r="M18">
-        <v>88.521111591684246</v>
+        <v>65.459338413740767</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
@@ -1225,29 +1154,29 @@
       <c r="E19">
         <v>56.877894891541281</v>
       </c>
-      <c r="F19" s="5">
-        <v>88.855729150936213</v>
-      </c>
-      <c r="G19" s="6">
-        <v>93.943721094595972</v>
-      </c>
-      <c r="H19" s="6">
-        <v>78.184639565836051</v>
-      </c>
-      <c r="I19" s="8">
-        <v>80.852538358405013</v>
+      <c r="F19">
+        <v>85.884477686907175</v>
+      </c>
+      <c r="G19">
+        <v>91.168264751529051</v>
+      </c>
+      <c r="H19">
+        <v>55.154395752268563</v>
+      </c>
+      <c r="I19">
+        <v>62.176867811326197</v>
       </c>
       <c r="J19">
-        <v>95.92479266112035</v>
+        <v>90.36198303955473</v>
       </c>
       <c r="K19">
-        <v>98.336493779722687</v>
+        <v>97.019716152865968</v>
       </c>
       <c r="L19">
-        <v>86.344598690739446</v>
+        <v>55.940913695248277</v>
       </c>
       <c r="M19">
-        <v>88.587765239576186</v>
+        <v>63.858971150406347</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
@@ -1266,29 +1195,29 @@
       <c r="E20">
         <v>55.554481378093982</v>
       </c>
-      <c r="F20" s="5">
-        <v>93.652599349035</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20">
+        <v>93.271545668066381</v>
+      </c>
+      <c r="G20">
         <v>97.183641676501225</v>
       </c>
-      <c r="H20" s="6">
-        <v>76.504651860870808</v>
-      </c>
-      <c r="I20" s="8">
-        <v>80.464388863797581</v>
+      <c r="H20">
+        <v>52.665123484060068</v>
+      </c>
+      <c r="I20">
+        <v>61.728142171426597</v>
       </c>
       <c r="J20">
-        <v>96.088393068428374</v>
+        <v>93.702899936284226</v>
       </c>
       <c r="K20">
-        <v>99.063336892488877</v>
+        <v>96.919503935318403</v>
       </c>
       <c r="L20">
-        <v>85.397257185132872</v>
+        <v>54.458933799282732</v>
       </c>
       <c r="M20">
-        <v>87.920537010524683</v>
+        <v>63.178088720796318</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
@@ -1296,40 +1225,40 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>90.081967472232691</v>
+        <v>90.081967472232705</v>
       </c>
       <c r="C21">
         <v>66.545827201580963</v>
       </c>
       <c r="D21">
-        <v>49.470913188806868</v>
+        <v>49.470913188806882</v>
       </c>
       <c r="E21">
         <v>56.600001193132648</v>
       </c>
-      <c r="F21" s="5">
-        <v>92.301887483223268</v>
-      </c>
-      <c r="G21" s="6">
-        <v>92.792199803933102</v>
-      </c>
-      <c r="H21" s="6">
-        <v>78.482334623218193</v>
-      </c>
-      <c r="I21" s="8">
-        <v>81.507453305273231</v>
+      <c r="F21">
+        <v>91.259686251905819</v>
+      </c>
+      <c r="G21">
+        <v>91.620815867011373</v>
+      </c>
+      <c r="H21">
+        <v>53.728248048451754</v>
+      </c>
+      <c r="I21">
+        <v>61.875517991799619</v>
       </c>
       <c r="J21">
-        <v>95.644183595160584</v>
+        <v>92.338596380436826</v>
       </c>
       <c r="K21">
-        <v>98.422015066109438</v>
+        <v>97.295803802067297</v>
       </c>
       <c r="L21">
-        <v>83.281806803171008</v>
+        <v>52.194502222430827</v>
       </c>
       <c r="M21">
-        <v>86.152848357164075</v>
+        <v>61.231146984244667</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
@@ -1343,34 +1272,34 @@
         <v>67.125974512002259</v>
       </c>
       <c r="D22">
-        <v>44.99122607662499</v>
+        <v>44.991226076624997</v>
       </c>
       <c r="E22">
-        <v>52.649748471122081</v>
-      </c>
-      <c r="F22" s="5">
-        <v>89.749568271238203</v>
-      </c>
-      <c r="G22" s="6">
+        <v>52.649748471122088</v>
+      </c>
+      <c r="F22">
+        <v>86.588258229292606</v>
+      </c>
+      <c r="G22">
         <v>94.538560093825453</v>
       </c>
-      <c r="H22" s="6">
-        <v>75.506131241043562</v>
-      </c>
-      <c r="I22" s="8">
-        <v>78.926009221359053</v>
+      <c r="H22">
+        <v>48.265033907251791</v>
+      </c>
+      <c r="I22">
+        <v>57.118636869854292</v>
       </c>
       <c r="J22">
-        <v>96.182315015633861</v>
+        <v>91.119471812262589</v>
       </c>
       <c r="K22">
-        <v>98.485487111279127</v>
+        <v>96.495167296965391</v>
       </c>
       <c r="L22">
-        <v>82.206748548621789</v>
+        <v>51.164488985641441</v>
       </c>
       <c r="M22">
-        <v>85.393424159409705</v>
+        <v>60.189710861905873</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
@@ -1381,7 +1310,7 @@
         <v>75.538780450611739</v>
       </c>
       <c r="C23">
-        <v>67.92153663628936</v>
+        <v>67.921536636289375</v>
       </c>
       <c r="D23">
         <v>39.951852587547762</v>
@@ -1389,29 +1318,29 @@
       <c r="E23">
         <v>47.115903398029559</v>
       </c>
-      <c r="F23" s="5">
-        <v>86.604142404347414</v>
-      </c>
-      <c r="G23" s="6">
-        <v>93.321444290580786</v>
-      </c>
-      <c r="H23" s="6">
-        <v>74.211057438358623</v>
-      </c>
-      <c r="I23" s="8">
-        <v>77.366452860359061</v>
+      <c r="F23">
+        <v>84.662561327130049</v>
+      </c>
+      <c r="G23">
+        <v>86.070736132990135</v>
+      </c>
+      <c r="H23">
+        <v>49.665998123028757</v>
+      </c>
+      <c r="I23">
+        <v>57.338530782670468</v>
       </c>
       <c r="J23">
-        <v>94.586149909702982</v>
+        <v>89.922849662464046</v>
       </c>
       <c r="K23">
-        <v>97.518128994789663</v>
+        <v>89.667847512230296</v>
       </c>
       <c r="L23">
-        <v>82.146267803908756</v>
+        <v>51.205962060919099</v>
       </c>
       <c r="M23">
-        <v>85.044947992616997</v>
+        <v>59.566330019607328</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
@@ -1430,29 +1359,29 @@
       <c r="E24">
         <v>49.342191749604453</v>
       </c>
-      <c r="F24" s="5">
-        <v>90.706879933777302</v>
-      </c>
-      <c r="G24" s="6">
-        <v>86.302865640412875</v>
-      </c>
-      <c r="H24" s="6">
-        <v>75.066474659034967</v>
-      </c>
-      <c r="I24" s="8">
-        <v>78.14060611038505</v>
+      <c r="F24">
+        <v>88.015059224716865</v>
+      </c>
+      <c r="G24">
+        <v>74.047229920429899</v>
+      </c>
+      <c r="H24">
+        <v>48.409618985559312</v>
+      </c>
+      <c r="I24">
+        <v>55.995599365093348</v>
       </c>
       <c r="J24">
-        <v>90.832288131347241</v>
+        <v>85.702263674351912</v>
       </c>
       <c r="K24">
-        <v>97.718705961095637</v>
+        <v>83.771948988124606</v>
       </c>
       <c r="L24">
-        <v>81.174731910571111</v>
+        <v>47.997931311826207</v>
       </c>
       <c r="M24">
-        <v>83.750079876960484</v>
+        <v>56.021082761294963</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
@@ -1471,29 +1400,29 @@
       <c r="E25">
         <v>54.949312651668599</v>
       </c>
-      <c r="F25" s="5">
-        <v>92.359537546718613</v>
-      </c>
-      <c r="G25" s="6">
-        <v>86.215446631454171</v>
-      </c>
-      <c r="H25" s="6">
-        <v>75.651417344941535</v>
-      </c>
-      <c r="I25" s="8">
-        <v>78.833937792912948</v>
+      <c r="F25">
+        <v>89.758213422489192</v>
+      </c>
+      <c r="G25">
+        <v>76.936031876990484</v>
+      </c>
+      <c r="H25">
+        <v>51.188561492579353</v>
+      </c>
+      <c r="I25">
+        <v>58.631158197956672</v>
       </c>
       <c r="J25">
-        <v>91.345140037493792</v>
+        <v>82.148516615275398</v>
       </c>
       <c r="K25">
-        <v>94.971403055899117</v>
+        <v>79.010870249558096</v>
       </c>
       <c r="L25">
-        <v>80.403866987681241</v>
+        <v>47.600652338365173</v>
       </c>
       <c r="M25">
-        <v>83.027190584302431</v>
+        <v>54.855633801420879</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
@@ -1512,29 +1441,29 @@
       <c r="E26">
         <v>46.277965861729292</v>
       </c>
-      <c r="F26" s="5">
-        <v>68.638011627383307</v>
-      </c>
-      <c r="G26" s="6">
-        <v>85.548612862104179</v>
-      </c>
-      <c r="H26" s="6">
-        <v>72.267335089965087</v>
-      </c>
-      <c r="I26" s="8">
-        <v>72.674042733132168</v>
+      <c r="F26">
+        <v>65.413361740824399</v>
+      </c>
+      <c r="G26">
+        <v>72.043247324408412</v>
+      </c>
+      <c r="H26">
+        <v>43.167394327440427</v>
+      </c>
+      <c r="I26">
+        <v>48.448793632493569</v>
       </c>
       <c r="J26">
-        <v>91.087617682980294</v>
+        <v>81.314270120553928</v>
       </c>
       <c r="K26">
-        <v>89.746925733498472</v>
+        <v>77.936001018462392</v>
       </c>
       <c r="L26">
-        <v>80.17135449097951</v>
+        <v>44.886463067017232</v>
       </c>
       <c r="M26">
-        <v>82.439125949047863</v>
+        <v>52.531302178151563</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
@@ -1545,7 +1474,7 @@
         <v>76.36914018046798</v>
       </c>
       <c r="C27">
-        <v>71.832454003143042</v>
+        <v>71.83245400314307</v>
       </c>
       <c r="D27">
         <v>43.288438768366952</v>
@@ -1553,29 +1482,29 @@
       <c r="E27">
         <v>50.127302059804258</v>
       </c>
-      <c r="F27" s="5">
-        <v>83.851052225287887</v>
-      </c>
-      <c r="G27" s="6">
-        <v>89.865203353960268</v>
-      </c>
-      <c r="H27" s="6">
-        <v>70.347544782389704</v>
-      </c>
-      <c r="I27" s="8">
-        <v>73.693668067778447</v>
+      <c r="F27">
+        <v>79.814951539488391</v>
+      </c>
+      <c r="G27">
+        <v>82.436372588495558</v>
+      </c>
+      <c r="H27">
+        <v>44.264835192464723</v>
+      </c>
+      <c r="I27">
+        <v>52.142683341732557</v>
       </c>
       <c r="J27">
-        <v>89.583925994888276</v>
+        <v>78.783465375401974</v>
       </c>
       <c r="K27">
-        <v>92.39709023553641</v>
+        <v>78.123611623080265</v>
       </c>
       <c r="L27">
-        <v>78.453653780759808</v>
+        <v>42.647586887806384</v>
       </c>
       <c r="M27">
-        <v>81.060558343887678</v>
+        <v>50.420884269743347</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
@@ -1594,29 +1523,29 @@
       <c r="E28">
         <v>41.167015309165492</v>
       </c>
-      <c r="F28" s="5">
-        <v>78.389844784034594</v>
-      </c>
-      <c r="G28" s="6">
-        <v>84.429269558321991</v>
-      </c>
-      <c r="H28" s="6">
-        <v>65.055506844205624</v>
-      </c>
-      <c r="I28" s="8">
-        <v>68.366803444993025</v>
+      <c r="F28">
+        <v>77.638344701828004</v>
+      </c>
+      <c r="G28">
+        <v>73.137490556339188</v>
+      </c>
+      <c r="H28">
+        <v>39.820250732606013</v>
+      </c>
+      <c r="I28">
+        <v>47.686812884637078</v>
       </c>
       <c r="J28">
-        <v>88.815473963035217</v>
+        <v>78.665375146150936</v>
       </c>
       <c r="K28">
-        <v>90.792358724678792</v>
+        <v>75.978572943604078</v>
       </c>
       <c r="L28">
-        <v>77.124026179184696</v>
+        <v>41.246595364314608</v>
       </c>
       <c r="M28">
-        <v>79.79341667709808</v>
+        <v>49.154625413580838</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
@@ -1635,29 +1564,29 @@
       <c r="E29">
         <v>42.125433994271667</v>
       </c>
-      <c r="F29" s="5">
-        <v>75.203258268690391</v>
-      </c>
-      <c r="G29" s="6">
-        <v>91.803400149564411</v>
-      </c>
-      <c r="H29" s="6">
-        <v>64.972222641957345</v>
-      </c>
-      <c r="I29" s="8">
-        <v>68.356429931407874</v>
+      <c r="F29">
+        <v>73.935840374266206</v>
+      </c>
+      <c r="G29">
+        <v>91.298119060752555</v>
+      </c>
+      <c r="H29">
+        <v>39.77416580608444</v>
+      </c>
+      <c r="I29">
+        <v>48.390695273067813</v>
       </c>
       <c r="J29">
-        <v>87.048660253056624</v>
+        <v>80.707353599186078</v>
       </c>
       <c r="K29">
-        <v>89.159851864109783</v>
+        <v>76.211422023279667</v>
       </c>
       <c r="L29">
-        <v>75.566000935733413</v>
+        <v>40.659350688368697</v>
       </c>
       <c r="M29">
-        <v>78.199677370711086</v>
+        <v>49.008812698015007</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
@@ -1665,7 +1594,7 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>86.317671964077832</v>
+        <v>86.317671964077817</v>
       </c>
       <c r="C30">
         <v>66.741180394983971</v>
@@ -1676,29 +1605,29 @@
       <c r="E30">
         <v>44.084231207678037</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30">
         <v>90.69882274988143</v>
       </c>
-      <c r="G30" s="6">
-        <v>82.006345928308917</v>
-      </c>
-      <c r="H30" s="6">
-        <v>66.165043779036935</v>
-      </c>
-      <c r="I30" s="8">
-        <v>70.861393073218721</v>
+      <c r="G30">
+        <v>73.486550173460273</v>
+      </c>
+      <c r="H30">
+        <v>39.582029683073237</v>
+      </c>
+      <c r="I30">
+        <v>49.430356220265033</v>
       </c>
       <c r="J30">
-        <v>89.751010183444961</v>
+        <v>82.068055805126676</v>
       </c>
       <c r="K30">
-        <v>87.424735841748486</v>
+        <v>73.156063358579402</v>
       </c>
       <c r="L30">
-        <v>72.909472685596754</v>
+        <v>41.04972493785445</v>
       </c>
       <c r="M30">
-        <v>76.389997427921543</v>
+        <v>49.297860828478029</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
@@ -1717,29 +1646,29 @@
       <c r="E31">
         <v>45.048136437545622</v>
       </c>
-      <c r="F31" s="5">
-        <v>84.016042305906694</v>
-      </c>
-      <c r="G31" s="6">
-        <v>82.013074010867598</v>
-      </c>
-      <c r="H31" s="6">
-        <v>65.518263646185176</v>
-      </c>
-      <c r="I31" s="8">
-        <v>69.379990487920992</v>
+      <c r="F31">
+        <v>79.263275739469705</v>
+      </c>
+      <c r="G31">
+        <v>72.421368869951081</v>
+      </c>
+      <c r="H31">
+        <v>39.9313909158369</v>
+      </c>
+      <c r="I31">
+        <v>47.960507859609997</v>
       </c>
       <c r="J31">
-        <v>91.157179072869695</v>
+        <v>84.73143267979674</v>
       </c>
       <c r="K31">
-        <v>88.693224844807418</v>
+        <v>73.29696141435889</v>
       </c>
       <c r="L31">
-        <v>72.235053021810046</v>
+        <v>40.16131133999631</v>
       </c>
       <c r="M31">
-        <v>76.156112050295548</v>
+        <v>49.000236211830881</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
@@ -1758,29 +1687,29 @@
       <c r="E32">
         <v>48.388272655386018</v>
       </c>
-      <c r="F32" s="5">
-        <v>89.711722912233853</v>
-      </c>
-      <c r="G32" s="6">
-        <v>81.056746915802293</v>
-      </c>
-      <c r="H32" s="6">
-        <v>59.281119079590709</v>
-      </c>
-      <c r="I32" s="8">
-        <v>65.256186311615636</v>
+      <c r="F32">
+        <v>83.611415936900627</v>
+      </c>
+      <c r="G32">
+        <v>72.881067426755081</v>
+      </c>
+      <c r="H32">
+        <v>40.002042820108912</v>
+      </c>
+      <c r="I32">
+        <v>48.682697894025686</v>
       </c>
       <c r="J32">
-        <v>91.157179072869695</v>
+        <v>84.358712476617498</v>
       </c>
       <c r="K32">
-        <v>86.78228241197246</v>
+        <v>72.035180129710696</v>
       </c>
       <c r="L32">
-        <v>70.604302804496157</v>
+        <v>39.423285796051417</v>
       </c>
       <c r="M32">
-        <v>74.743546809245061</v>
+        <v>48.278589455966213</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
@@ -1799,29 +1728,29 @@
       <c r="E33">
         <v>43.52274725575262</v>
       </c>
-      <c r="F33" s="5">
-        <v>82.500012976013139</v>
-      </c>
-      <c r="G33" s="6">
-        <v>82.772846379722523</v>
-      </c>
-      <c r="H33" s="6">
-        <v>61.976874894765459</v>
-      </c>
-      <c r="I33" s="8">
-        <v>66.437320140970385</v>
+      <c r="F33">
+        <v>78.478458682936832</v>
+      </c>
+      <c r="G33">
+        <v>77.616886730661577</v>
+      </c>
+      <c r="H33">
+        <v>37.449920117771931</v>
+      </c>
+      <c r="I33">
+        <v>46.267770449170897</v>
       </c>
       <c r="J33">
-        <v>91.157179072869695</v>
+        <v>81.512498277563623</v>
       </c>
       <c r="K33">
-        <v>91.951232816721955</v>
+        <v>74.284198477075776</v>
       </c>
       <c r="L33">
-        <v>71.575116692482311</v>
+        <v>37.87238966516766</v>
       </c>
       <c r="M33">
-        <v>75.868655775884008</v>
+        <v>46.806568959956778</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -1832,7 +1761,7 @@
         <v>79.938097834841372</v>
       </c>
       <c r="C34">
-        <v>55.779064075588323</v>
+        <v>55.779064075588309</v>
       </c>
       <c r="D34">
         <v>30.267319962392829</v>
@@ -1840,29 +1769,29 @@
       <c r="E34">
         <v>39.313024204421552</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34">
         <v>84.86123655150125</v>
       </c>
-      <c r="G34" s="6">
-        <v>85.154781884209797</v>
-      </c>
-      <c r="H34" s="6">
-        <v>61.283403534838357</v>
-      </c>
-      <c r="I34" s="8">
-        <v>66.406345585162427</v>
+      <c r="G34">
+        <v>71.651724425132315</v>
+      </c>
+      <c r="H34">
+        <v>35.934139633240576</v>
+      </c>
+      <c r="I34">
+        <v>45.590785554867267</v>
       </c>
       <c r="J34">
-        <v>92.570614125566792</v>
+        <v>82.9980102706769</v>
       </c>
       <c r="K34">
-        <v>93.942111673774164</v>
+        <v>78.642359797289799</v>
       </c>
       <c r="L34">
-        <v>70.792280688928457</v>
+        <v>36.916524386032918</v>
       </c>
       <c r="M34">
-        <v>75.601799634718759</v>
+        <v>46.58152256478953</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
@@ -1881,16 +1810,16 @@
       <c r="E35">
         <v>46.294525294630802</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35">
         <v>75.900090415374137</v>
       </c>
-      <c r="G35" s="6">
+      <c r="G35">
         <v>69.870433267781223</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35">
         <v>38.661039474613247</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35">
         <v>46.294525294630802</v>
       </c>
       <c r="J35">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -478,28 +478,28 @@
         <v>67.42922616343387</v>
       </c>
       <c r="F4">
-        <v>92.95943438894774</v>
+        <v>93.34048806991638</v>
       </c>
       <c r="G4">
-        <v>94.2833664923086</v>
+        <v>96.12868445316769</v>
       </c>
       <c r="H4">
-        <v>84.8431130630408</v>
+        <v>94.80230023602853</v>
       </c>
       <c r="I4">
-        <v>86.69281613541115</v>
+        <v>94.68251454319837</v>
       </c>
       <c r="J4">
-        <v>99.31327336295233</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>96.13007816503904</v>
+        <v>97.72476565985616</v>
       </c>
       <c r="L4">
-        <v>88.23345039471808</v>
+        <v>98.68757222728324</v>
       </c>
       <c r="M4">
-        <v>90.40673099934008</v>
+        <v>98.81119179254593</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -519,28 +519,28 @@
         <v>63.69627645179754</v>
       </c>
       <c r="F5">
-        <v>87.91032113958651</v>
+        <v>90.05818853053374</v>
       </c>
       <c r="G5">
-        <v>96.13798137322465</v>
+        <v>96.46725622234112</v>
       </c>
       <c r="H5">
-        <v>83.00926187630236</v>
+        <v>92.72668719655073</v>
       </c>
       <c r="I5">
-        <v>84.64985212502431</v>
+        <v>92.60102356643887</v>
       </c>
       <c r="J5">
-        <v>97.30362411258405</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K5">
-        <v>96.93706985387743</v>
+        <v>98.7219547830271</v>
       </c>
       <c r="L5">
-        <v>86.31931044373877</v>
+        <v>97.09212684208789</v>
       </c>
       <c r="M5">
-        <v>88.67047880136026</v>
+        <v>97.53109914904245</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -560,28 +560,28 @@
         <v>66.32903418352225</v>
       </c>
       <c r="F6">
-        <v>94.23689841086444</v>
+        <v>97.89098298792258</v>
       </c>
       <c r="G6">
         <v>97.18838626944957</v>
       </c>
       <c r="H6">
-        <v>86.30966620070086</v>
+        <v>94.574198811846</v>
       </c>
       <c r="I6">
-        <v>88.23318308523932</v>
+        <v>95.24242294903637</v>
       </c>
       <c r="J6">
-        <v>95.1768966759108</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K6">
-        <v>97.78231490502512</v>
+        <v>98.31131204741348</v>
       </c>
       <c r="L6">
-        <v>85.55232315280682</v>
+        <v>96.85417769922233</v>
       </c>
       <c r="M6">
-        <v>87.81874932136721</v>
+        <v>97.31569445389607</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -607,22 +607,22 @@
         <v>98.05227285451282</v>
       </c>
       <c r="H7">
-        <v>84.30747970664386</v>
+        <v>90.60547272312915</v>
       </c>
       <c r="I7">
-        <v>86.99474571648724</v>
+        <v>91.92985148643731</v>
       </c>
       <c r="J7">
-        <v>96.85941463931626</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K7">
-        <v>98.22905002473171</v>
+        <v>98.42437197773361</v>
       </c>
       <c r="L7">
-        <v>84.54736887444538</v>
+        <v>96.11015909162117</v>
       </c>
       <c r="M7">
-        <v>87.308249555533</v>
+        <v>96.70307754425883</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -642,28 +642,28 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>90.31794205587261</v>
+        <v>93.97202663293073</v>
       </c>
       <c r="G8">
-        <v>92.50371599825678</v>
+        <v>93.96783447687663</v>
       </c>
       <c r="H8">
-        <v>83.53132167995027</v>
+        <v>89.897496084594</v>
       </c>
       <c r="I8">
-        <v>85.15403172546502</v>
+        <v>90.77892998165652</v>
       </c>
       <c r="J8">
-        <v>96.34166469642706</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K8">
-        <v>98.3746121420585</v>
+        <v>98.78525487767214</v>
       </c>
       <c r="L8">
-        <v>83.01482462292796</v>
+        <v>96.33449169098949</v>
       </c>
       <c r="M8">
-        <v>86.04206649375139</v>
+        <v>96.90430455468588</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -683,28 +683,28 @@
         <v>69.28215283268014</v>
       </c>
       <c r="F9">
-        <v>96.50197802019477</v>
+        <v>96.85941463931626</v>
       </c>
       <c r="G9">
         <v>97.3503216142838</v>
       </c>
       <c r="H9">
-        <v>80.07899420751718</v>
+        <v>88.53795338995793</v>
       </c>
       <c r="I9">
-        <v>83.69273501045996</v>
+        <v>90.37332560704614</v>
       </c>
       <c r="J9">
-        <v>96.08449954440981</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K9">
-        <v>98.19906738703395</v>
+        <v>98.43890267068694</v>
       </c>
       <c r="L9">
-        <v>80.62084224651404</v>
+        <v>94.99930209388931</v>
       </c>
       <c r="M9">
-        <v>84.11624563287361</v>
+        <v>95.57798815551561</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -724,28 +724,28 @@
         <v>65.56954712309572</v>
       </c>
       <c r="F10">
-        <v>94.77720191246061</v>
+        <v>95.15825559342926</v>
       </c>
       <c r="G10">
         <v>97.1085881072171</v>
       </c>
       <c r="H10">
-        <v>78.5390547797319</v>
+        <v>87.45336995454713</v>
       </c>
       <c r="I10">
-        <v>82.2173423279397</v>
+        <v>89.25819564688184</v>
       </c>
       <c r="J10">
-        <v>96.08449954440981</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K10">
-        <v>97.67250209929678</v>
+        <v>98.43890267068694</v>
       </c>
       <c r="L10">
-        <v>79.16433607455336</v>
+        <v>94.28882472983126</v>
       </c>
       <c r="M10">
-        <v>82.93780811897925</v>
+        <v>95.0212582687717</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -765,28 +765,28 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.33057520266503</v>
+        <v>92.86900638409577</v>
       </c>
       <c r="G11">
-        <v>95.36794318108974</v>
+        <v>96.58369381221992</v>
       </c>
       <c r="H11">
-        <v>76.87093667030015</v>
+        <v>87.45880488742885</v>
       </c>
       <c r="I11">
-        <v>80.43052217015637</v>
+        <v>88.89143661287821</v>
       </c>
       <c r="J11">
-        <v>96.08449954440981</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K11">
-        <v>97.6259786512602</v>
+        <v>98.29524444157866</v>
       </c>
       <c r="L11">
-        <v>78.8745562638958</v>
+        <v>93.81539647592177</v>
       </c>
       <c r="M11">
-        <v>82.7074571119888</v>
+        <v>94.89579942328997</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -806,28 +806,28 @@
         <v>65.29007836145047</v>
       </c>
       <c r="F12">
-        <v>89.01996369922404</v>
+        <v>92.31661165716065</v>
       </c>
       <c r="G12">
-        <v>96.44430876516545</v>
+        <v>97.0108900520749</v>
       </c>
       <c r="H12">
-        <v>79.43774456191039</v>
+        <v>87.7438851268882</v>
       </c>
       <c r="I12">
-        <v>82.03471015060265</v>
+        <v>89.06434224466159</v>
       </c>
       <c r="J12">
-        <v>90.7659662824382</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K12">
-        <v>96.03447202605342</v>
+        <v>98.25141914102561</v>
       </c>
       <c r="L12">
-        <v>77.81040047670199</v>
+        <v>93.4756750927348</v>
       </c>
       <c r="M12">
-        <v>80.9853856092239</v>
+        <v>94.62650441534207</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -847,28 +847,28 @@
         <v>66.4462655223534</v>
       </c>
       <c r="F13">
-        <v>88.86546284689162</v>
+        <v>91.96060283987205</v>
       </c>
       <c r="G13">
-        <v>93.99880448155311</v>
+        <v>95.13952097586692</v>
       </c>
       <c r="H13">
-        <v>78.86802945038563</v>
+        <v>87.23497563949347</v>
       </c>
       <c r="I13">
-        <v>81.39334575344816</v>
+        <v>88.48169685398371</v>
       </c>
       <c r="J13">
-        <v>90.40852966331668</v>
+        <v>97.41491938537253</v>
       </c>
       <c r="K13">
-        <v>95.51240892132968</v>
+        <v>98.25212679208842</v>
       </c>
       <c r="L13">
-        <v>76.36890953294596</v>
+        <v>92.45966194994104</v>
       </c>
       <c r="M13">
-        <v>79.76687912735648</v>
+        <v>93.59099889516288</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -888,28 +888,28 @@
         <v>66.38702261418311</v>
       </c>
       <c r="F14">
-        <v>87.30887913795156</v>
+        <v>90.53765295649407</v>
       </c>
       <c r="G14">
-        <v>94.3910504389149</v>
+        <v>96.13698069392056</v>
       </c>
       <c r="H14">
-        <v>76.00336507140381</v>
+        <v>83.93194040028381</v>
       </c>
       <c r="I14">
-        <v>78.94913094776368</v>
+        <v>85.75613664971951</v>
       </c>
       <c r="J14">
-        <v>88.91969223211977</v>
+        <v>95.4016664313807</v>
       </c>
       <c r="K14">
-        <v>95.09608239452952</v>
+        <v>98.271610945116</v>
       </c>
       <c r="L14">
-        <v>73.85658563221003</v>
+        <v>91.76914468203975</v>
       </c>
       <c r="M14">
-        <v>77.55164342224926</v>
+        <v>92.75753685264421</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -929,28 +929,28 @@
         <v>63.36220647013713</v>
       </c>
       <c r="F15">
-        <v>92.22941572507267</v>
+        <v>94.94350203708444</v>
       </c>
       <c r="G15">
-        <v>83.67785294641405</v>
+        <v>91.36819456841235</v>
       </c>
       <c r="H15">
-        <v>70.64814535243418</v>
+        <v>79.95874550373914</v>
       </c>
       <c r="I15">
-        <v>74.71550463534494</v>
+        <v>82.9494131766923</v>
       </c>
       <c r="J15">
-        <v>88.47548275885201</v>
+        <v>94.95745695811293</v>
       </c>
       <c r="K15">
-        <v>96.441697229247</v>
+        <v>98.30018407510866</v>
       </c>
       <c r="L15">
-        <v>71.61878688138739</v>
+        <v>90.98678334836737</v>
       </c>
       <c r="M15">
-        <v>75.82814952053451</v>
+        <v>92.08167995212482</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -970,28 +970,28 @@
         <v>60.23004081881223</v>
       </c>
       <c r="F16">
-        <v>88.13488924525564</v>
+        <v>88.51594292622426</v>
       </c>
       <c r="G16">
-        <v>94.37187323140481</v>
+        <v>95.57651706557245</v>
       </c>
       <c r="H16">
-        <v>65.54829831941974</v>
+        <v>77.47476991302398</v>
       </c>
       <c r="I16">
-        <v>70.87571147308822</v>
+        <v>80.36180985202554</v>
       </c>
       <c r="J16">
-        <v>90.43893861572681</v>
+        <v>93.31662533504661</v>
       </c>
       <c r="K16">
-        <v>96.14842396070382</v>
+        <v>98.36788109710501</v>
       </c>
       <c r="L16">
-        <v>68.00863005679119</v>
+        <v>88.2719988050184</v>
       </c>
       <c r="M16">
-        <v>73.26503823408515</v>
+        <v>89.71973992429309</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1011,28 +1011,28 @@
         <v>59.91736281771597</v>
       </c>
       <c r="F17">
-        <v>84.93575614134399</v>
+        <v>90.25049111186594</v>
       </c>
       <c r="G17">
         <v>95.43496892024505</v>
       </c>
       <c r="H17">
-        <v>64.21589654999502</v>
+        <v>77.00742244496612</v>
       </c>
       <c r="I17">
-        <v>69.43980968770212</v>
+        <v>80.23869981136026</v>
       </c>
       <c r="J17">
-        <v>90.43893861572681</v>
+        <v>93.15302492773858</v>
       </c>
       <c r="K17">
-        <v>96.40191540087787</v>
+        <v>98.32929083368593</v>
       </c>
       <c r="L17">
-        <v>65.82670101669105</v>
+        <v>87.83377623966759</v>
       </c>
       <c r="M17">
-        <v>71.57314877677082</v>
+        <v>89.34975811375452</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1052,28 +1052,28 @@
         <v>59.8344451744</v>
       </c>
       <c r="F18">
-        <v>92.00764026496216</v>
+        <v>94.72172657697394</v>
       </c>
       <c r="G18">
-        <v>92.06241778827508</v>
+        <v>96.96418063803355</v>
       </c>
       <c r="H18">
-        <v>60.69894712715222</v>
+        <v>76.34867167076477</v>
       </c>
       <c r="I18">
-        <v>67.47801754712229</v>
+        <v>80.48268461676525</v>
       </c>
       <c r="J18">
-        <v>87.47784626116062</v>
+        <v>93.31662533504661</v>
       </c>
       <c r="K18">
-        <v>96.92957448551574</v>
+        <v>98.48074782753687</v>
       </c>
       <c r="L18">
-        <v>62.7330490470784</v>
+        <v>87.44872166269074</v>
       </c>
       <c r="M18">
-        <v>68.7541184162838</v>
+        <v>89.08257657457693</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1093,28 +1093,28 @@
         <v>60.4011688060679</v>
       </c>
       <c r="F19">
-        <v>90.36090926733088</v>
+        <v>91.32286868348785</v>
       </c>
       <c r="G19">
-        <v>94.46561164809079</v>
+        <v>94.84031148075066</v>
       </c>
       <c r="H19">
-        <v>63.8812614951837</v>
+        <v>79.82839769818543</v>
       </c>
       <c r="I19">
-        <v>69.90082027893465</v>
+        <v>82.56376230369565</v>
       </c>
       <c r="J19">
-        <v>91.06565557687918</v>
+        <v>94.00335197209426</v>
       </c>
       <c r="K19">
-        <v>96.88713620578298</v>
+        <v>98.61951297363515</v>
       </c>
       <c r="L19">
-        <v>57.86414432600174</v>
+        <v>86.59184944541761</v>
       </c>
       <c r="M19">
-        <v>65.45933841374077</v>
+        <v>88.52111159168425</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1134,28 +1134,28 @@
         <v>56.87789489154128</v>
       </c>
       <c r="F20">
-        <v>85.88447768690718</v>
+        <v>88.85572915093621</v>
       </c>
       <c r="G20">
-        <v>91.16826475152905</v>
+        <v>93.94372109459597</v>
       </c>
       <c r="H20">
-        <v>55.15439575226856</v>
+        <v>78.18463956583605</v>
       </c>
       <c r="I20">
-        <v>62.1768678113262</v>
+        <v>80.85253835840501</v>
       </c>
       <c r="J20">
-        <v>90.36198303955473</v>
+        <v>95.92479266112035</v>
       </c>
       <c r="K20">
-        <v>97.01971615286597</v>
+        <v>98.33649377972269</v>
       </c>
       <c r="L20">
-        <v>55.94091369524828</v>
+        <v>86.34459869073945</v>
       </c>
       <c r="M20">
-        <v>63.85897115040635</v>
+        <v>88.58776523957619</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1175,28 +1175,28 @@
         <v>55.55448137809398</v>
       </c>
       <c r="F21">
-        <v>93.27154566806638</v>
+        <v>93.652599349035</v>
       </c>
       <c r="G21">
         <v>97.18364167650122</v>
       </c>
       <c r="H21">
-        <v>52.66512348406007</v>
+        <v>76.50465186087081</v>
       </c>
       <c r="I21">
-        <v>61.7281421714266</v>
+        <v>80.46438886379758</v>
       </c>
       <c r="J21">
-        <v>93.70289993628423</v>
+        <v>96.08839306842837</v>
       </c>
       <c r="K21">
-        <v>96.9195039353184</v>
+        <v>99.06333689248886</v>
       </c>
       <c r="L21">
-        <v>54.45893379928273</v>
+        <v>85.39725718513287</v>
       </c>
       <c r="M21">
-        <v>63.17808872079632</v>
+        <v>87.92053701052468</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1216,28 +1216,28 @@
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>91.25968625190582</v>
+        <v>92.30188748322327</v>
       </c>
       <c r="G22">
-        <v>91.62081586701137</v>
+        <v>92.7921998039331</v>
       </c>
       <c r="H22">
-        <v>53.72824804845175</v>
+        <v>78.48233462321819</v>
       </c>
       <c r="I22">
-        <v>61.87551799179962</v>
+        <v>81.50745330527323</v>
       </c>
       <c r="J22">
-        <v>92.33859638043683</v>
+        <v>95.64418359516058</v>
       </c>
       <c r="K22">
-        <v>97.2958038020673</v>
+        <v>98.42201506610944</v>
       </c>
       <c r="L22">
-        <v>52.19450222243083</v>
+        <v>83.28180680317101</v>
       </c>
       <c r="M22">
-        <v>61.23114698424467</v>
+        <v>86.15284835716407</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1257,28 +1257,28 @@
         <v>52.64974847112209</v>
       </c>
       <c r="F23">
-        <v>86.58825822929261</v>
+        <v>89.74956827123823</v>
       </c>
       <c r="G23">
         <v>94.53856009382545</v>
       </c>
       <c r="H23">
-        <v>48.26503390725179</v>
+        <v>75.50613124104356</v>
       </c>
       <c r="I23">
-        <v>57.11863686985429</v>
+        <v>78.92600922135905</v>
       </c>
       <c r="J23">
-        <v>91.11947181226259</v>
+        <v>96.18231501563386</v>
       </c>
       <c r="K23">
-        <v>96.49516729696539</v>
+        <v>98.48548711127913</v>
       </c>
       <c r="L23">
-        <v>51.16448898564144</v>
+        <v>82.20674854862179</v>
       </c>
       <c r="M23">
-        <v>60.18971086190587</v>
+        <v>85.3934241594097</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1298,28 +1298,28 @@
         <v>47.11590339802956</v>
       </c>
       <c r="F24">
-        <v>84.66256132713005</v>
+        <v>86.60414240434741</v>
       </c>
       <c r="G24">
-        <v>86.07073613299013</v>
+        <v>93.32144429058079</v>
       </c>
       <c r="H24">
-        <v>49.66599812302876</v>
+        <v>74.21105743835862</v>
       </c>
       <c r="I24">
-        <v>57.33853078267047</v>
+        <v>77.36645286035906</v>
       </c>
       <c r="J24">
-        <v>89.92284966246405</v>
+        <v>94.586149909703</v>
       </c>
       <c r="K24">
-        <v>89.6678475122303</v>
+        <v>97.51812899478966</v>
       </c>
       <c r="L24">
-        <v>51.2059620609191</v>
+        <v>82.14626780390876</v>
       </c>
       <c r="M24">
-        <v>59.56633001960733</v>
+        <v>85.044947992617</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1339,28 +1339,28 @@
         <v>49.34219174960445</v>
       </c>
       <c r="F25">
-        <v>88.01505922471686</v>
+        <v>90.7068799337773</v>
       </c>
       <c r="G25">
-        <v>74.0472299204299</v>
+        <v>86.30286564041288</v>
       </c>
       <c r="H25">
-        <v>48.40961898555931</v>
+        <v>75.06647465903497</v>
       </c>
       <c r="I25">
-        <v>55.99559936509335</v>
+        <v>78.14060611038505</v>
       </c>
       <c r="J25">
-        <v>85.70226367435191</v>
+        <v>90.83228813134724</v>
       </c>
       <c r="K25">
-        <v>83.77194898812461</v>
+        <v>97.71870596109565</v>
       </c>
       <c r="L25">
-        <v>47.99793131182621</v>
+        <v>81.17473191057111</v>
       </c>
       <c r="M25">
-        <v>56.02108276129496</v>
+        <v>83.7500798769605</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1380,28 +1380,28 @@
         <v>54.9493126516686</v>
       </c>
       <c r="F26">
-        <v>89.75821342248919</v>
+        <v>92.3595375467186</v>
       </c>
       <c r="G26">
-        <v>76.93603187699048</v>
+        <v>86.21544663145417</v>
       </c>
       <c r="H26">
-        <v>51.18856149257935</v>
+        <v>75.65141734494154</v>
       </c>
       <c r="I26">
-        <v>58.63115819795667</v>
+        <v>78.83393779291295</v>
       </c>
       <c r="J26">
-        <v>82.1485166152754</v>
+        <v>91.34514003749379</v>
       </c>
       <c r="K26">
-        <v>79.0108702495581</v>
+        <v>94.97140305589912</v>
       </c>
       <c r="L26">
-        <v>47.60065233836517</v>
+        <v>80.40386698768124</v>
       </c>
       <c r="M26">
-        <v>54.85563380142088</v>
+        <v>83.02719058430243</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1421,28 +1421,28 @@
         <v>46.27796586172929</v>
       </c>
       <c r="F27">
-        <v>65.4133617408244</v>
+        <v>68.63801162738331</v>
       </c>
       <c r="G27">
-        <v>72.04324732440841</v>
+        <v>85.54861286210418</v>
       </c>
       <c r="H27">
-        <v>43.16739432744043</v>
+        <v>72.26733508996509</v>
       </c>
       <c r="I27">
-        <v>48.44879363249357</v>
+        <v>72.67404273313217</v>
       </c>
       <c r="J27">
-        <v>81.31427012055393</v>
+        <v>91.08761768298032</v>
       </c>
       <c r="K27">
-        <v>77.93600101846239</v>
+        <v>89.74692573349847</v>
       </c>
       <c r="L27">
-        <v>44.88646306701723</v>
+        <v>80.17135449097951</v>
       </c>
       <c r="M27">
-        <v>52.53130217815156</v>
+        <v>82.43912594904788</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1462,28 +1462,28 @@
         <v>50.12730205980426</v>
       </c>
       <c r="F28">
-        <v>79.81495153948839</v>
+        <v>83.85105222528789</v>
       </c>
       <c r="G28">
-        <v>82.43637258849556</v>
+        <v>89.86520335396027</v>
       </c>
       <c r="H28">
-        <v>44.26483519246472</v>
+        <v>70.3475447823897</v>
       </c>
       <c r="I28">
-        <v>52.14268334173256</v>
+        <v>73.69366806777845</v>
       </c>
       <c r="J28">
-        <v>78.78346537540197</v>
+        <v>89.58392599488828</v>
       </c>
       <c r="K28">
-        <v>78.12361162308027</v>
+        <v>92.39709023553641</v>
       </c>
       <c r="L28">
-        <v>42.64758688780638</v>
+        <v>78.45365378075981</v>
       </c>
       <c r="M28">
-        <v>50.42088426974335</v>
+        <v>81.06055834388768</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1503,28 +1503,28 @@
         <v>41.16701530916549</v>
       </c>
       <c r="F29">
-        <v>77.638344701828</v>
+        <v>78.38984478403459</v>
       </c>
       <c r="G29">
-        <v>73.13749055633919</v>
+        <v>84.42926955832199</v>
       </c>
       <c r="H29">
-        <v>39.82025073260601</v>
+        <v>65.05550684420564</v>
       </c>
       <c r="I29">
-        <v>47.68681288463708</v>
+        <v>68.36680344499302</v>
       </c>
       <c r="J29">
-        <v>78.66537514615094</v>
+        <v>88.81547396303522</v>
       </c>
       <c r="K29">
-        <v>75.97857294360408</v>
+        <v>90.79235872467879</v>
       </c>
       <c r="L29">
-        <v>41.24659536431461</v>
+        <v>77.1240261791847</v>
       </c>
       <c r="M29">
-        <v>49.15462541358084</v>
+        <v>79.79341667709808</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1544,28 +1544,28 @@
         <v>42.12543399427167</v>
       </c>
       <c r="F30">
-        <v>73.93584037426621</v>
+        <v>75.20325826869039</v>
       </c>
       <c r="G30">
-        <v>91.29811906075255</v>
+        <v>91.80340014956441</v>
       </c>
       <c r="H30">
-        <v>39.77416580608444</v>
+        <v>64.97222264195734</v>
       </c>
       <c r="I30">
-        <v>48.39069527306781</v>
+        <v>68.35642993140787</v>
       </c>
       <c r="J30">
-        <v>80.70735359918608</v>
+        <v>87.04866025305662</v>
       </c>
       <c r="K30">
-        <v>76.21142202327967</v>
+        <v>89.15985186410978</v>
       </c>
       <c r="L30">
-        <v>40.6593506883687</v>
+        <v>75.56600093573343</v>
       </c>
       <c r="M30">
-        <v>49.00881269801501</v>
+        <v>78.19967737071109</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1588,25 +1588,25 @@
         <v>90.69882274988143</v>
       </c>
       <c r="G31">
-        <v>73.48655017346027</v>
+        <v>82.00634592830892</v>
       </c>
       <c r="H31">
-        <v>39.58202968307324</v>
+        <v>66.16504377903694</v>
       </c>
       <c r="I31">
-        <v>49.43035622026503</v>
+        <v>70.86139307321872</v>
       </c>
       <c r="J31">
-        <v>82.06805580512668</v>
+        <v>89.75101018344496</v>
       </c>
       <c r="K31">
-        <v>73.1560633585794</v>
+        <v>87.42473584174849</v>
       </c>
       <c r="L31">
-        <v>41.04972493785445</v>
+        <v>72.90947268559675</v>
       </c>
       <c r="M31">
-        <v>49.29786082847803</v>
+        <v>76.38999742792154</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,28 +1626,28 @@
         <v>45.04813643754562</v>
       </c>
       <c r="F32">
-        <v>79.26327573946971</v>
+        <v>84.01604230590669</v>
       </c>
       <c r="G32">
-        <v>72.42136886995108</v>
+        <v>82.0130740108676</v>
       </c>
       <c r="H32">
-        <v>39.9313909158369</v>
+        <v>65.51826364618518</v>
       </c>
       <c r="I32">
-        <v>47.96050785961</v>
+        <v>69.37999048792099</v>
       </c>
       <c r="J32">
-        <v>84.73143267979674</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K32">
-        <v>73.29696141435889</v>
+        <v>88.69322484480742</v>
       </c>
       <c r="L32">
-        <v>40.16131133999631</v>
+        <v>72.23505302181005</v>
       </c>
       <c r="M32">
-        <v>49.00023621183088</v>
+        <v>76.15611205029555</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1667,28 +1667,28 @@
         <v>48.38827265538602</v>
       </c>
       <c r="F33">
-        <v>83.61141593690063</v>
+        <v>89.71172291223385</v>
       </c>
       <c r="G33">
-        <v>72.88106742675508</v>
+        <v>81.05674691580229</v>
       </c>
       <c r="H33">
-        <v>40.00204282010891</v>
+        <v>59.28111907959071</v>
       </c>
       <c r="I33">
-        <v>48.68269789402569</v>
+        <v>65.25618631161564</v>
       </c>
       <c r="J33">
-        <v>84.3587124766175</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K33">
-        <v>72.0351801297107</v>
+        <v>86.78228241197246</v>
       </c>
       <c r="L33">
-        <v>39.42328579605142</v>
+        <v>70.60430280449616</v>
       </c>
       <c r="M33">
-        <v>48.27858945596621</v>
+        <v>74.74354680924506</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1708,28 +1708,28 @@
         <v>43.52274725575262</v>
       </c>
       <c r="F34">
-        <v>78.47845868293683</v>
+        <v>82.50001297601314</v>
       </c>
       <c r="G34">
-        <v>77.61688673066158</v>
+        <v>82.77284637972252</v>
       </c>
       <c r="H34">
-        <v>37.44992011777193</v>
+        <v>61.97687489476546</v>
       </c>
       <c r="I34">
-        <v>46.2677704491709</v>
+        <v>66.43732014097039</v>
       </c>
       <c r="J34">
-        <v>81.51249827756362</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K34">
-        <v>74.28419847707578</v>
+        <v>91.95123281672193</v>
       </c>
       <c r="L34">
-        <v>37.87238966516766</v>
+        <v>71.57511669248231</v>
       </c>
       <c r="M34">
-        <v>46.80656895995678</v>
+        <v>75.86865577588401</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1752,25 +1752,25 @@
         <v>84.86123655150125</v>
       </c>
       <c r="G35">
-        <v>71.65172442513231</v>
+        <v>85.1547818842098</v>
       </c>
       <c r="H35">
-        <v>35.93413963324058</v>
+        <v>61.28340353483836</v>
       </c>
       <c r="I35">
-        <v>45.59078555486727</v>
+        <v>66.40634558516243</v>
       </c>
       <c r="J35">
-        <v>82.9980102706769</v>
+        <v>92.57061412556679</v>
       </c>
       <c r="K35">
-        <v>78.6423597972898</v>
+        <v>93.94211167377416</v>
       </c>
       <c r="L35">
-        <v>36.91652438603292</v>
+        <v>70.79228068892846</v>
       </c>
       <c r="M35">
-        <v>46.58152256478953</v>
+        <v>75.60179963471876</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -478,28 +478,28 @@
         <v>67.42922616343387</v>
       </c>
       <c r="F4">
-        <v>93.34048806991638</v>
+        <v>92.95943438894774</v>
       </c>
       <c r="G4">
-        <v>96.12868445316769</v>
+        <v>94.2833664923086</v>
       </c>
       <c r="H4">
-        <v>94.80230023602853</v>
+        <v>84.8431130630408</v>
       </c>
       <c r="I4">
-        <v>94.68251454319837</v>
+        <v>86.69281613541115</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K4">
-        <v>97.72476565985616</v>
+        <v>96.13007816503904</v>
       </c>
       <c r="L4">
-        <v>98.68757222728324</v>
+        <v>88.23345039471808</v>
       </c>
       <c r="M4">
-        <v>98.81119179254593</v>
+        <v>90.40673099934008</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -519,28 +519,28 @@
         <v>63.69627645179754</v>
       </c>
       <c r="F5">
-        <v>90.05818853053374</v>
+        <v>87.91032113958651</v>
       </c>
       <c r="G5">
-        <v>96.46725622234112</v>
+        <v>96.13798137322465</v>
       </c>
       <c r="H5">
-        <v>92.72668719655073</v>
+        <v>83.00926187630236</v>
       </c>
       <c r="I5">
-        <v>92.60102356643887</v>
+        <v>84.64985212502431</v>
       </c>
       <c r="J5">
-        <v>99.31327336295233</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K5">
-        <v>98.7219547830271</v>
+        <v>96.93706985387743</v>
       </c>
       <c r="L5">
-        <v>97.09212684208789</v>
+        <v>86.31931044373877</v>
       </c>
       <c r="M5">
-        <v>97.53109914904245</v>
+        <v>88.67047880136026</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -560,28 +560,28 @@
         <v>66.32903418352225</v>
       </c>
       <c r="F6">
-        <v>97.89098298792258</v>
+        <v>94.23689841086444</v>
       </c>
       <c r="G6">
         <v>97.18838626944957</v>
       </c>
       <c r="H6">
-        <v>94.574198811846</v>
+        <v>86.30966620070086</v>
       </c>
       <c r="I6">
-        <v>95.24242294903637</v>
+        <v>88.23318308523932</v>
       </c>
       <c r="J6">
-        <v>99.31327336295233</v>
+        <v>95.1768966759108</v>
       </c>
       <c r="K6">
-        <v>98.31131204741348</v>
+        <v>97.78231490502512</v>
       </c>
       <c r="L6">
-        <v>96.85417769922233</v>
+        <v>85.55232315280682</v>
       </c>
       <c r="M6">
-        <v>97.31569445389607</v>
+        <v>87.81874932136721</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -607,22 +607,22 @@
         <v>98.05227285451282</v>
       </c>
       <c r="H7">
-        <v>90.60547272312915</v>
+        <v>84.30747970664386</v>
       </c>
       <c r="I7">
-        <v>91.92985148643731</v>
+        <v>86.99474571648724</v>
       </c>
       <c r="J7">
-        <v>99.05575100843885</v>
+        <v>96.85941463931626</v>
       </c>
       <c r="K7">
-        <v>98.42437197773361</v>
+        <v>98.22905002473171</v>
       </c>
       <c r="L7">
-        <v>96.11015909162117</v>
+        <v>84.54736887444538</v>
       </c>
       <c r="M7">
-        <v>96.70307754425883</v>
+        <v>87.308249555533</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -642,28 +642,28 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>93.97202663293073</v>
+        <v>90.31794205587261</v>
       </c>
       <c r="G8">
-        <v>93.96783447687663</v>
+        <v>92.50371599825678</v>
       </c>
       <c r="H8">
-        <v>89.897496084594</v>
+        <v>83.53132167995027</v>
       </c>
       <c r="I8">
-        <v>90.77892998165652</v>
+        <v>85.15403172546502</v>
       </c>
       <c r="J8">
-        <v>99.05575100843885</v>
+        <v>96.34166469642706</v>
       </c>
       <c r="K8">
-        <v>98.78525487767214</v>
+        <v>98.3746121420585</v>
       </c>
       <c r="L8">
-        <v>96.33449169098949</v>
+        <v>83.01482462292796</v>
       </c>
       <c r="M8">
-        <v>96.90430455468588</v>
+        <v>86.04206649375139</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -683,28 +683,28 @@
         <v>69.28215283268014</v>
       </c>
       <c r="F9">
-        <v>96.85941463931626</v>
+        <v>96.50197802019477</v>
       </c>
       <c r="G9">
         <v>97.3503216142838</v>
       </c>
       <c r="H9">
-        <v>88.53795338995793</v>
+        <v>80.07899420751718</v>
       </c>
       <c r="I9">
-        <v>90.37332560704614</v>
+        <v>83.69273501045996</v>
       </c>
       <c r="J9">
-        <v>97.30362411258405</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K9">
-        <v>98.43890267068694</v>
+        <v>98.19906738703395</v>
       </c>
       <c r="L9">
-        <v>94.99930209388931</v>
+        <v>80.62084224651404</v>
       </c>
       <c r="M9">
-        <v>95.57798815551561</v>
+        <v>84.11624563287361</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -724,28 +724,28 @@
         <v>65.56954712309572</v>
       </c>
       <c r="F10">
-        <v>95.15825559342926</v>
+        <v>94.77720191246061</v>
       </c>
       <c r="G10">
         <v>97.1085881072171</v>
       </c>
       <c r="H10">
-        <v>87.45336995454713</v>
+        <v>78.5390547797319</v>
       </c>
       <c r="I10">
-        <v>89.25819564688184</v>
+        <v>82.2173423279397</v>
       </c>
       <c r="J10">
-        <v>97.30362411258405</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K10">
-        <v>98.43890267068694</v>
+        <v>97.67250209929678</v>
       </c>
       <c r="L10">
-        <v>94.28882472983126</v>
+        <v>79.16433607455336</v>
       </c>
       <c r="M10">
-        <v>95.0212582687717</v>
+        <v>82.93780811897925</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -765,28 +765,28 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.86900638409577</v>
+        <v>92.33057520266503</v>
       </c>
       <c r="G11">
-        <v>96.58369381221992</v>
+        <v>95.36794318108974</v>
       </c>
       <c r="H11">
-        <v>87.45880488742885</v>
+        <v>76.87093667030015</v>
       </c>
       <c r="I11">
-        <v>88.89143661287821</v>
+        <v>80.43052217015637</v>
       </c>
       <c r="J11">
-        <v>99.05575100843885</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K11">
-        <v>98.29524444157866</v>
+        <v>97.6259786512602</v>
       </c>
       <c r="L11">
-        <v>93.81539647592177</v>
+        <v>78.8745562638958</v>
       </c>
       <c r="M11">
-        <v>94.89579942328997</v>
+        <v>82.7074571119888</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -806,28 +806,28 @@
         <v>65.29007836145047</v>
       </c>
       <c r="F12">
-        <v>92.31661165716065</v>
+        <v>89.01996369922404</v>
       </c>
       <c r="G12">
-        <v>97.0108900520749</v>
+        <v>96.44430876516545</v>
       </c>
       <c r="H12">
-        <v>87.7438851268882</v>
+        <v>79.43774456191039</v>
       </c>
       <c r="I12">
-        <v>89.06434224466159</v>
+        <v>82.03471015060265</v>
       </c>
       <c r="J12">
-        <v>99.05575100843885</v>
+        <v>90.7659662824382</v>
       </c>
       <c r="K12">
-        <v>98.25141914102561</v>
+        <v>96.03447202605342</v>
       </c>
       <c r="L12">
-        <v>93.4756750927348</v>
+        <v>77.81040047670199</v>
       </c>
       <c r="M12">
-        <v>94.62650441534207</v>
+        <v>80.9853856092239</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -847,28 +847,28 @@
         <v>66.4462655223534</v>
       </c>
       <c r="F13">
-        <v>91.96060283987205</v>
+        <v>88.86546284689162</v>
       </c>
       <c r="G13">
-        <v>95.13952097586692</v>
+        <v>93.99880448155311</v>
       </c>
       <c r="H13">
-        <v>87.23497563949347</v>
+        <v>78.86802945038563</v>
       </c>
       <c r="I13">
-        <v>88.48169685398371</v>
+        <v>81.39334575344816</v>
       </c>
       <c r="J13">
-        <v>97.41491938537253</v>
+        <v>90.40852966331668</v>
       </c>
       <c r="K13">
-        <v>98.25212679208842</v>
+        <v>95.51240892132968</v>
       </c>
       <c r="L13">
-        <v>92.45966194994104</v>
+        <v>76.36890953294596</v>
       </c>
       <c r="M13">
-        <v>93.59099889516288</v>
+        <v>79.76687912735648</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -888,28 +888,28 @@
         <v>66.38702261418311</v>
       </c>
       <c r="F14">
-        <v>90.53765295649407</v>
+        <v>87.30887913795156</v>
       </c>
       <c r="G14">
-        <v>96.13698069392056</v>
+        <v>94.3910504389149</v>
       </c>
       <c r="H14">
-        <v>83.93194040028381</v>
+        <v>76.00336507140381</v>
       </c>
       <c r="I14">
-        <v>85.75613664971951</v>
+        <v>78.94913094776368</v>
       </c>
       <c r="J14">
-        <v>95.4016664313807</v>
+        <v>88.91969223211977</v>
       </c>
       <c r="K14">
-        <v>98.271610945116</v>
+        <v>95.09608239452952</v>
       </c>
       <c r="L14">
-        <v>91.76914468203975</v>
+        <v>73.85658563221003</v>
       </c>
       <c r="M14">
-        <v>92.75753685264421</v>
+        <v>77.55164342224926</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -929,28 +929,28 @@
         <v>63.36220647013713</v>
       </c>
       <c r="F15">
-        <v>94.94350203708444</v>
+        <v>92.22941572507267</v>
       </c>
       <c r="G15">
-        <v>91.36819456841235</v>
+        <v>83.67785294641405</v>
       </c>
       <c r="H15">
-        <v>79.95874550373914</v>
+        <v>70.64814535243418</v>
       </c>
       <c r="I15">
-        <v>82.9494131766923</v>
+        <v>74.71550463534494</v>
       </c>
       <c r="J15">
-        <v>94.95745695811293</v>
+        <v>88.47548275885201</v>
       </c>
       <c r="K15">
-        <v>98.30018407510866</v>
+        <v>96.441697229247</v>
       </c>
       <c r="L15">
-        <v>90.98678334836737</v>
+        <v>71.61878688138739</v>
       </c>
       <c r="M15">
-        <v>92.08167995212482</v>
+        <v>75.82814952053451</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -970,28 +970,28 @@
         <v>60.23004081881223</v>
       </c>
       <c r="F16">
-        <v>88.51594292622426</v>
+        <v>88.13488924525564</v>
       </c>
       <c r="G16">
-        <v>95.57651706557245</v>
+        <v>94.37187323140481</v>
       </c>
       <c r="H16">
-        <v>77.47476991302398</v>
+        <v>65.54829831941974</v>
       </c>
       <c r="I16">
-        <v>80.36180985202554</v>
+        <v>70.87571147308822</v>
       </c>
       <c r="J16">
-        <v>93.31662533504661</v>
+        <v>90.43893861572681</v>
       </c>
       <c r="K16">
-        <v>98.36788109710501</v>
+        <v>96.14842396070382</v>
       </c>
       <c r="L16">
-        <v>88.2719988050184</v>
+        <v>68.00863005679119</v>
       </c>
       <c r="M16">
-        <v>89.71973992429309</v>
+        <v>73.26503823408515</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1011,28 +1011,28 @@
         <v>59.91736281771597</v>
       </c>
       <c r="F17">
-        <v>90.25049111186594</v>
+        <v>84.93575614134399</v>
       </c>
       <c r="G17">
         <v>95.43496892024505</v>
       </c>
       <c r="H17">
-        <v>77.00742244496612</v>
+        <v>64.21589654999502</v>
       </c>
       <c r="I17">
-        <v>80.23869981136026</v>
+        <v>69.43980968770212</v>
       </c>
       <c r="J17">
-        <v>93.15302492773858</v>
+        <v>90.43893861572681</v>
       </c>
       <c r="K17">
-        <v>98.32929083368593</v>
+        <v>96.40191540087787</v>
       </c>
       <c r="L17">
-        <v>87.83377623966759</v>
+        <v>65.82670101669105</v>
       </c>
       <c r="M17">
-        <v>89.34975811375452</v>
+        <v>71.57314877677082</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1052,28 +1052,28 @@
         <v>59.8344451744</v>
       </c>
       <c r="F18">
-        <v>94.72172657697394</v>
+        <v>92.00764026496216</v>
       </c>
       <c r="G18">
-        <v>96.96418063803355</v>
+        <v>92.06241778827508</v>
       </c>
       <c r="H18">
-        <v>76.34867167076477</v>
+        <v>60.69894712715222</v>
       </c>
       <c r="I18">
-        <v>80.48268461676525</v>
+        <v>67.47801754712229</v>
       </c>
       <c r="J18">
-        <v>93.31662533504661</v>
+        <v>87.47784626116062</v>
       </c>
       <c r="K18">
-        <v>98.48074782753687</v>
+        <v>96.92957448551574</v>
       </c>
       <c r="L18">
-        <v>87.44872166269074</v>
+        <v>62.7330490470784</v>
       </c>
       <c r="M18">
-        <v>89.08257657457693</v>
+        <v>68.7541184162838</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1093,28 +1093,28 @@
         <v>60.4011688060679</v>
       </c>
       <c r="F19">
-        <v>91.32286868348785</v>
+        <v>90.36090926733088</v>
       </c>
       <c r="G19">
-        <v>94.84031148075066</v>
+        <v>94.46561164809079</v>
       </c>
       <c r="H19">
-        <v>79.82839769818543</v>
+        <v>63.8812614951837</v>
       </c>
       <c r="I19">
-        <v>82.56376230369565</v>
+        <v>69.90082027893465</v>
       </c>
       <c r="J19">
-        <v>94.00335197209426</v>
+        <v>91.06565557687918</v>
       </c>
       <c r="K19">
-        <v>98.61951297363515</v>
+        <v>96.88713620578298</v>
       </c>
       <c r="L19">
-        <v>86.59184944541761</v>
+        <v>57.86414432600174</v>
       </c>
       <c r="M19">
-        <v>88.52111159168425</v>
+        <v>65.45933841374077</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1134,28 +1134,28 @@
         <v>56.87789489154128</v>
       </c>
       <c r="F20">
-        <v>88.85572915093621</v>
+        <v>85.88447768690718</v>
       </c>
       <c r="G20">
-        <v>93.94372109459597</v>
+        <v>91.16826475152905</v>
       </c>
       <c r="H20">
-        <v>78.18463956583605</v>
+        <v>55.15439575226856</v>
       </c>
       <c r="I20">
-        <v>80.85253835840501</v>
+        <v>62.1768678113262</v>
       </c>
       <c r="J20">
-        <v>95.92479266112035</v>
+        <v>90.36198303955473</v>
       </c>
       <c r="K20">
-        <v>98.33649377972269</v>
+        <v>97.01971615286597</v>
       </c>
       <c r="L20">
-        <v>86.34459869073945</v>
+        <v>55.94091369524828</v>
       </c>
       <c r="M20">
-        <v>88.58776523957619</v>
+        <v>63.85897115040635</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1175,28 +1175,28 @@
         <v>55.55448137809398</v>
       </c>
       <c r="F21">
-        <v>93.652599349035</v>
+        <v>93.27154566806638</v>
       </c>
       <c r="G21">
         <v>97.18364167650122</v>
       </c>
       <c r="H21">
-        <v>76.50465186087081</v>
+        <v>52.66512348406007</v>
       </c>
       <c r="I21">
-        <v>80.46438886379758</v>
+        <v>61.7281421714266</v>
       </c>
       <c r="J21">
-        <v>96.08839306842837</v>
+        <v>93.70289993628423</v>
       </c>
       <c r="K21">
-        <v>99.06333689248886</v>
+        <v>96.9195039353184</v>
       </c>
       <c r="L21">
-        <v>85.39725718513287</v>
+        <v>54.45893379928273</v>
       </c>
       <c r="M21">
-        <v>87.92053701052468</v>
+        <v>63.17808872079632</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1216,28 +1216,28 @@
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>92.30188748322327</v>
+        <v>91.25968625190582</v>
       </c>
       <c r="G22">
-        <v>92.7921998039331</v>
+        <v>91.62081586701137</v>
       </c>
       <c r="H22">
-        <v>78.48233462321819</v>
+        <v>53.72824804845175</v>
       </c>
       <c r="I22">
-        <v>81.50745330527323</v>
+        <v>61.87551799179962</v>
       </c>
       <c r="J22">
-        <v>95.64418359516058</v>
+        <v>92.33859638043683</v>
       </c>
       <c r="K22">
-        <v>98.42201506610944</v>
+        <v>97.2958038020673</v>
       </c>
       <c r="L22">
-        <v>83.28180680317101</v>
+        <v>52.19450222243083</v>
       </c>
       <c r="M22">
-        <v>86.15284835716407</v>
+        <v>61.23114698424467</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1257,28 +1257,28 @@
         <v>52.64974847112209</v>
       </c>
       <c r="F23">
-        <v>89.74956827123823</v>
+        <v>86.58825822929261</v>
       </c>
       <c r="G23">
         <v>94.53856009382545</v>
       </c>
       <c r="H23">
-        <v>75.50613124104356</v>
+        <v>48.26503390725179</v>
       </c>
       <c r="I23">
-        <v>78.92600922135905</v>
+        <v>57.11863686985429</v>
       </c>
       <c r="J23">
-        <v>96.18231501563386</v>
+        <v>91.11947181226259</v>
       </c>
       <c r="K23">
-        <v>98.48548711127913</v>
+        <v>96.49516729696539</v>
       </c>
       <c r="L23">
-        <v>82.20674854862179</v>
+        <v>51.16448898564144</v>
       </c>
       <c r="M23">
-        <v>85.3934241594097</v>
+        <v>60.18971086190587</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1298,28 +1298,28 @@
         <v>47.11590339802956</v>
       </c>
       <c r="F24">
-        <v>86.60414240434741</v>
+        <v>84.66256132713005</v>
       </c>
       <c r="G24">
-        <v>93.32144429058079</v>
+        <v>86.07073613299013</v>
       </c>
       <c r="H24">
-        <v>74.21105743835862</v>
+        <v>49.66599812302876</v>
       </c>
       <c r="I24">
-        <v>77.36645286035906</v>
+        <v>57.33853078267047</v>
       </c>
       <c r="J24">
-        <v>94.586149909703</v>
+        <v>89.92284966246405</v>
       </c>
       <c r="K24">
-        <v>97.51812899478966</v>
+        <v>89.6678475122303</v>
       </c>
       <c r="L24">
-        <v>82.14626780390876</v>
+        <v>51.2059620609191</v>
       </c>
       <c r="M24">
-        <v>85.044947992617</v>
+        <v>59.56633001960733</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1339,28 +1339,28 @@
         <v>49.34219174960445</v>
       </c>
       <c r="F25">
-        <v>90.7068799337773</v>
+        <v>88.01505922471686</v>
       </c>
       <c r="G25">
-        <v>86.30286564041288</v>
+        <v>74.0472299204299</v>
       </c>
       <c r="H25">
-        <v>75.06647465903497</v>
+        <v>48.40961898555931</v>
       </c>
       <c r="I25">
-        <v>78.14060611038505</v>
+        <v>55.99559936509335</v>
       </c>
       <c r="J25">
-        <v>90.83228813134724</v>
+        <v>85.70226367435191</v>
       </c>
       <c r="K25">
-        <v>97.71870596109565</v>
+        <v>83.77194898812461</v>
       </c>
       <c r="L25">
-        <v>81.17473191057111</v>
+        <v>47.99793131182621</v>
       </c>
       <c r="M25">
-        <v>83.7500798769605</v>
+        <v>56.02108276129496</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1380,28 +1380,28 @@
         <v>54.9493126516686</v>
       </c>
       <c r="F26">
-        <v>92.3595375467186</v>
+        <v>89.75821342248919</v>
       </c>
       <c r="G26">
-        <v>86.21544663145417</v>
+        <v>76.93603187699048</v>
       </c>
       <c r="H26">
-        <v>75.65141734494154</v>
+        <v>51.18856149257935</v>
       </c>
       <c r="I26">
-        <v>78.83393779291295</v>
+        <v>58.63115819795667</v>
       </c>
       <c r="J26">
-        <v>91.34514003749379</v>
+        <v>82.1485166152754</v>
       </c>
       <c r="K26">
-        <v>94.97140305589912</v>
+        <v>79.0108702495581</v>
       </c>
       <c r="L26">
-        <v>80.40386698768124</v>
+        <v>47.60065233836517</v>
       </c>
       <c r="M26">
-        <v>83.02719058430243</v>
+        <v>54.85563380142088</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1421,28 +1421,28 @@
         <v>46.27796586172929</v>
       </c>
       <c r="F27">
-        <v>68.63801162738331</v>
+        <v>65.4133617408244</v>
       </c>
       <c r="G27">
-        <v>85.54861286210418</v>
+        <v>72.04324732440841</v>
       </c>
       <c r="H27">
-        <v>72.26733508996509</v>
+        <v>43.16739432744043</v>
       </c>
       <c r="I27">
-        <v>72.67404273313217</v>
+        <v>48.44879363249357</v>
       </c>
       <c r="J27">
-        <v>91.08761768298032</v>
+        <v>81.31427012055393</v>
       </c>
       <c r="K27">
-        <v>89.74692573349847</v>
+        <v>77.93600101846239</v>
       </c>
       <c r="L27">
-        <v>80.17135449097951</v>
+        <v>44.88646306701723</v>
       </c>
       <c r="M27">
-        <v>82.43912594904788</v>
+        <v>52.53130217815156</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1462,28 +1462,28 @@
         <v>50.12730205980426</v>
       </c>
       <c r="F28">
-        <v>83.85105222528789</v>
+        <v>79.81495153948839</v>
       </c>
       <c r="G28">
-        <v>89.86520335396027</v>
+        <v>82.43637258849556</v>
       </c>
       <c r="H28">
-        <v>70.3475447823897</v>
+        <v>44.26483519246472</v>
       </c>
       <c r="I28">
-        <v>73.69366806777845</v>
+        <v>52.14268334173256</v>
       </c>
       <c r="J28">
-        <v>89.58392599488828</v>
+        <v>78.78346537540197</v>
       </c>
       <c r="K28">
-        <v>92.39709023553641</v>
+        <v>78.12361162308027</v>
       </c>
       <c r="L28">
-        <v>78.45365378075981</v>
+        <v>42.64758688780638</v>
       </c>
       <c r="M28">
-        <v>81.06055834388768</v>
+        <v>50.42088426974335</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1503,28 +1503,28 @@
         <v>41.16701530916549</v>
       </c>
       <c r="F29">
-        <v>78.38984478403459</v>
+        <v>77.638344701828</v>
       </c>
       <c r="G29">
-        <v>84.42926955832199</v>
+        <v>73.13749055633919</v>
       </c>
       <c r="H29">
-        <v>65.05550684420564</v>
+        <v>39.82025073260601</v>
       </c>
       <c r="I29">
-        <v>68.36680344499302</v>
+        <v>47.68681288463708</v>
       </c>
       <c r="J29">
-        <v>88.81547396303522</v>
+        <v>78.66537514615094</v>
       </c>
       <c r="K29">
-        <v>90.79235872467879</v>
+        <v>75.97857294360408</v>
       </c>
       <c r="L29">
-        <v>77.1240261791847</v>
+        <v>41.24659536431461</v>
       </c>
       <c r="M29">
-        <v>79.79341667709808</v>
+        <v>49.15462541358084</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1544,28 +1544,28 @@
         <v>42.12543399427167</v>
       </c>
       <c r="F30">
-        <v>75.20325826869039</v>
+        <v>73.93584037426621</v>
       </c>
       <c r="G30">
-        <v>91.80340014956441</v>
+        <v>91.29811906075255</v>
       </c>
       <c r="H30">
-        <v>64.97222264195734</v>
+        <v>39.77416580608444</v>
       </c>
       <c r="I30">
-        <v>68.35642993140787</v>
+        <v>48.39069527306781</v>
       </c>
       <c r="J30">
-        <v>87.04866025305662</v>
+        <v>80.70735359918608</v>
       </c>
       <c r="K30">
-        <v>89.15985186410978</v>
+        <v>76.21142202327967</v>
       </c>
       <c r="L30">
-        <v>75.56600093573343</v>
+        <v>40.6593506883687</v>
       </c>
       <c r="M30">
-        <v>78.19967737071109</v>
+        <v>49.00881269801501</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1588,25 +1588,25 @@
         <v>90.69882274988143</v>
       </c>
       <c r="G31">
-        <v>82.00634592830892</v>
+        <v>73.48655017346027</v>
       </c>
       <c r="H31">
-        <v>66.16504377903694</v>
+        <v>39.58202968307324</v>
       </c>
       <c r="I31">
-        <v>70.86139307321872</v>
+        <v>49.43035622026503</v>
       </c>
       <c r="J31">
-        <v>89.75101018344496</v>
+        <v>82.06805580512668</v>
       </c>
       <c r="K31">
-        <v>87.42473584174849</v>
+        <v>73.1560633585794</v>
       </c>
       <c r="L31">
-        <v>72.90947268559675</v>
+        <v>41.04972493785445</v>
       </c>
       <c r="M31">
-        <v>76.38999742792154</v>
+        <v>49.29786082847803</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,28 +1626,28 @@
         <v>45.04813643754562</v>
       </c>
       <c r="F32">
-        <v>84.01604230590669</v>
+        <v>79.26327573946971</v>
       </c>
       <c r="G32">
-        <v>82.0130740108676</v>
+        <v>72.42136886995108</v>
       </c>
       <c r="H32">
-        <v>65.51826364618518</v>
+        <v>39.9313909158369</v>
       </c>
       <c r="I32">
-        <v>69.37999048792099</v>
+        <v>47.96050785961</v>
       </c>
       <c r="J32">
-        <v>91.1571790728697</v>
+        <v>84.73143267979674</v>
       </c>
       <c r="K32">
-        <v>88.69322484480742</v>
+        <v>73.29696141435889</v>
       </c>
       <c r="L32">
-        <v>72.23505302181005</v>
+        <v>40.16131133999631</v>
       </c>
       <c r="M32">
-        <v>76.15611205029555</v>
+        <v>49.00023621183088</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1667,28 +1667,28 @@
         <v>48.38827265538602</v>
       </c>
       <c r="F33">
-        <v>89.71172291223385</v>
+        <v>83.61141593690063</v>
       </c>
       <c r="G33">
-        <v>81.05674691580229</v>
+        <v>72.88106742675508</v>
       </c>
       <c r="H33">
-        <v>59.28111907959071</v>
+        <v>40.00204282010891</v>
       </c>
       <c r="I33">
-        <v>65.25618631161564</v>
+        <v>48.68269789402569</v>
       </c>
       <c r="J33">
-        <v>91.1571790728697</v>
+        <v>84.3587124766175</v>
       </c>
       <c r="K33">
-        <v>86.78228241197246</v>
+        <v>72.0351801297107</v>
       </c>
       <c r="L33">
-        <v>70.60430280449616</v>
+        <v>39.42328579605142</v>
       </c>
       <c r="M33">
-        <v>74.74354680924506</v>
+        <v>48.27858945596621</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1708,28 +1708,28 @@
         <v>43.52274725575262</v>
       </c>
       <c r="F34">
-        <v>82.50001297601314</v>
+        <v>78.47845868293683</v>
       </c>
       <c r="G34">
-        <v>82.77284637972252</v>
+        <v>77.61688673066158</v>
       </c>
       <c r="H34">
-        <v>61.97687489476546</v>
+        <v>37.44992011777193</v>
       </c>
       <c r="I34">
-        <v>66.43732014097039</v>
+        <v>46.2677704491709</v>
       </c>
       <c r="J34">
-        <v>91.1571790728697</v>
+        <v>81.51249827756362</v>
       </c>
       <c r="K34">
-        <v>91.95123281672193</v>
+        <v>74.28419847707578</v>
       </c>
       <c r="L34">
-        <v>71.57511669248231</v>
+        <v>37.87238966516766</v>
       </c>
       <c r="M34">
-        <v>75.86865577588401</v>
+        <v>46.80656895995678</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1752,25 +1752,25 @@
         <v>84.86123655150125</v>
       </c>
       <c r="G35">
-        <v>85.1547818842098</v>
+        <v>71.65172442513231</v>
       </c>
       <c r="H35">
-        <v>61.28340353483836</v>
+        <v>35.93413963324058</v>
       </c>
       <c r="I35">
-        <v>66.40634558516243</v>
+        <v>45.59078555486727</v>
       </c>
       <c r="J35">
-        <v>92.57061412556679</v>
+        <v>82.9980102706769</v>
       </c>
       <c r="K35">
-        <v>93.94211167377416</v>
+        <v>78.6423597972898</v>
       </c>
       <c r="L35">
-        <v>70.79228068892846</v>
+        <v>36.91652438603292</v>
       </c>
       <c r="M35">
-        <v>75.60179963471876</v>
+        <v>46.58152256478953</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -37,7 +37,7 @@
     <t>all j</t>
   </si>
   <si>
-    <t>basis</t>
+    <t>Basis</t>
   </si>
 </sst>
 </file>
@@ -472,7 +472,7 @@
         <v>84.72161482057587</v>
       </c>
       <c r="D4">
-        <v>61.3495334163171</v>
+        <v>61.34953341631709</v>
       </c>
       <c r="E4">
         <v>67.42922616343387</v>
@@ -551,7 +551,7 @@
         <v>96.73927832057542</v>
       </c>
       <c r="C6">
-        <v>84.96378763102516</v>
+        <v>84.96378763102517</v>
       </c>
       <c r="D6">
         <v>58.99023126018108</v>
@@ -575,7 +575,7 @@
         <v>95.1768966759108</v>
       </c>
       <c r="K6">
-        <v>97.78231490502512</v>
+        <v>97.7823149050251</v>
       </c>
       <c r="L6">
         <v>85.55232315280682</v>
@@ -642,7 +642,7 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>90.31794205587261</v>
+        <v>90.31794205587259</v>
       </c>
       <c r="G8">
         <v>92.50371599825678</v>
@@ -715,7 +715,7 @@
         <v>92.80136235973957</v>
       </c>
       <c r="C10">
-        <v>85.77769512877244</v>
+        <v>85.77769512877242</v>
       </c>
       <c r="D10">
         <v>58.68102287555171</v>
@@ -753,7 +753,7 @@
         <v>1996</v>
       </c>
       <c r="B11">
-        <v>89.44889783791885</v>
+        <v>89.44889783791886</v>
       </c>
       <c r="C11">
         <v>80.59313069310772</v>
@@ -765,7 +765,7 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.33057520266503</v>
+        <v>92.33057520266502</v>
       </c>
       <c r="G11">
         <v>95.36794318108974</v>
@@ -780,7 +780,7 @@
         <v>96.08449954440981</v>
       </c>
       <c r="K11">
-        <v>97.6259786512602</v>
+        <v>97.62597865126021</v>
       </c>
       <c r="L11">
         <v>78.8745562638958</v>
@@ -797,7 +797,7 @@
         <v>88.57644603163271</v>
       </c>
       <c r="C12">
-        <v>85.50775006593578</v>
+        <v>85.50775006593581</v>
       </c>
       <c r="D12">
         <v>59.135340081134</v>
@@ -850,13 +850,13 @@
         <v>88.86546284689162</v>
       </c>
       <c r="G13">
-        <v>93.99880448155311</v>
+        <v>93.99880448155312</v>
       </c>
       <c r="H13">
-        <v>78.86802945038563</v>
+        <v>78.86802945038565</v>
       </c>
       <c r="I13">
-        <v>81.39334575344816</v>
+        <v>81.39334575344817</v>
       </c>
       <c r="J13">
         <v>90.40852966331668</v>
@@ -891,7 +891,7 @@
         <v>87.30887913795156</v>
       </c>
       <c r="G14">
-        <v>94.3910504389149</v>
+        <v>94.39105043891492</v>
       </c>
       <c r="H14">
         <v>76.00336507140381</v>
@@ -900,7 +900,7 @@
         <v>78.94913094776368</v>
       </c>
       <c r="J14">
-        <v>88.91969223211977</v>
+        <v>88.91969223211979</v>
       </c>
       <c r="K14">
         <v>95.09608239452952</v>
@@ -958,10 +958,10 @@
         <v>2001</v>
       </c>
       <c r="B16">
-        <v>87.34257567073794</v>
+        <v>87.34257567073793</v>
       </c>
       <c r="C16">
-        <v>82.1541153393259</v>
+        <v>82.15411533932588</v>
       </c>
       <c r="D16">
         <v>53.20935908101377</v>
@@ -999,7 +999,7 @@
         <v>2002</v>
       </c>
       <c r="B17">
-        <v>88.581619189184</v>
+        <v>88.58161918918398</v>
       </c>
       <c r="C17">
         <v>77.99105543446923</v>
@@ -1008,7 +1008,7 @@
         <v>52.9541369272722</v>
       </c>
       <c r="E17">
-        <v>59.91736281771597</v>
+        <v>59.91736281771596</v>
       </c>
       <c r="F17">
         <v>84.93575614134399</v>
@@ -1029,10 +1029,10 @@
         <v>96.40191540087787</v>
       </c>
       <c r="L17">
-        <v>65.82670101669105</v>
+        <v>65.82670101669103</v>
       </c>
       <c r="M17">
-        <v>71.57314877677082</v>
+        <v>71.57314877677081</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1149,7 +1149,7 @@
         <v>90.36198303955473</v>
       </c>
       <c r="K20">
-        <v>97.01971615286597</v>
+        <v>97.019716152866</v>
       </c>
       <c r="L20">
         <v>55.94091369524828</v>
@@ -1204,19 +1204,19 @@
         <v>2007</v>
       </c>
       <c r="B22">
-        <v>90.08196747223271</v>
+        <v>90.08196747223269</v>
       </c>
       <c r="C22">
         <v>66.54582720158096</v>
       </c>
       <c r="D22">
-        <v>49.47091318880688</v>
+        <v>49.47091318880687</v>
       </c>
       <c r="E22">
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>91.25968625190582</v>
+        <v>91.25968625190579</v>
       </c>
       <c r="G22">
         <v>91.62081586701137</v>
@@ -1251,10 +1251,10 @@
         <v>67.12597451200226</v>
       </c>
       <c r="D23">
-        <v>44.991226076625</v>
+        <v>44.99122607662499</v>
       </c>
       <c r="E23">
-        <v>52.64974847112209</v>
+        <v>52.64974847112208</v>
       </c>
       <c r="F23">
         <v>86.58825822929261</v>
@@ -1289,7 +1289,7 @@
         <v>75.53878045061174</v>
       </c>
       <c r="C24">
-        <v>67.92153663628937</v>
+        <v>67.92153663628936</v>
       </c>
       <c r="D24">
         <v>39.95185258754776</v>
@@ -1310,7 +1310,7 @@
         <v>57.33853078267047</v>
       </c>
       <c r="J24">
-        <v>89.92284966246405</v>
+        <v>89.92284966246403</v>
       </c>
       <c r="K24">
         <v>89.6678475122303</v>
@@ -1319,7 +1319,7 @@
         <v>51.2059620609191</v>
       </c>
       <c r="M24">
-        <v>59.56633001960733</v>
+        <v>59.56633001960731</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1351,7 +1351,7 @@
         <v>55.99559936509335</v>
       </c>
       <c r="J25">
-        <v>85.70226367435191</v>
+        <v>85.7022636743519</v>
       </c>
       <c r="K25">
         <v>83.77194898812461</v>
@@ -1360,7 +1360,7 @@
         <v>47.99793131182621</v>
       </c>
       <c r="M25">
-        <v>56.02108276129496</v>
+        <v>56.02108276129495</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1424,13 +1424,13 @@
         <v>65.4133617408244</v>
       </c>
       <c r="G27">
-        <v>72.04324732440841</v>
+        <v>72.04324732440843</v>
       </c>
       <c r="H27">
         <v>43.16739432744043</v>
       </c>
       <c r="I27">
-        <v>48.44879363249357</v>
+        <v>48.44879363249358</v>
       </c>
       <c r="J27">
         <v>81.31427012055393</v>
@@ -1453,7 +1453,7 @@
         <v>76.36914018046798</v>
       </c>
       <c r="C28">
-        <v>71.83245400314307</v>
+        <v>71.83245400314304</v>
       </c>
       <c r="D28">
         <v>43.28843876836695</v>
@@ -1573,7 +1573,7 @@
         <v>2016</v>
       </c>
       <c r="B31">
-        <v>86.31767196407782</v>
+        <v>86.31767196407783</v>
       </c>
       <c r="C31">
         <v>66.74118039498397</v>
@@ -1600,7 +1600,7 @@
         <v>82.06805580512668</v>
       </c>
       <c r="K31">
-        <v>73.1560633585794</v>
+        <v>73.15606335857942</v>
       </c>
       <c r="L31">
         <v>41.04972493785445</v>
@@ -1714,7 +1714,7 @@
         <v>77.61688673066158</v>
       </c>
       <c r="H34">
-        <v>37.44992011777193</v>
+        <v>37.44992011777192</v>
       </c>
       <c r="I34">
         <v>46.2677704491709</v>
@@ -1740,7 +1740,7 @@
         <v>79.93809783484137</v>
       </c>
       <c r="C35">
-        <v>55.77906407558831</v>
+        <v>55.77906407558832</v>
       </c>
       <c r="D35">
         <v>30.26731996239283</v>
@@ -1761,13 +1761,13 @@
         <v>45.59078555486727</v>
       </c>
       <c r="J35">
-        <v>82.9980102706769</v>
+        <v>82.99801027067691</v>
       </c>
       <c r="K35">
         <v>78.6423597972898</v>
       </c>
       <c r="L35">
-        <v>36.91652438603292</v>
+        <v>36.91652438603291</v>
       </c>
       <c r="M35">
         <v>46.58152256478953</v>

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -472,34 +472,34 @@
         <v>84.72161482057587</v>
       </c>
       <c r="D4">
-        <v>61.34953341631709</v>
+        <v>61.3495334163171</v>
       </c>
       <c r="E4">
         <v>67.42922616343387</v>
       </c>
       <c r="F4">
-        <v>92.95943438894774</v>
+        <v>93.34048806991638</v>
       </c>
       <c r="G4">
-        <v>94.2833664923086</v>
+        <v>96.12868445316769</v>
       </c>
       <c r="H4">
-        <v>84.8431130630408</v>
+        <v>94.74981686179493</v>
       </c>
       <c r="I4">
-        <v>86.69281613541115</v>
+        <v>94.64138858413033</v>
       </c>
       <c r="J4">
-        <v>99.31327336295233</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>96.13007816503904</v>
+        <v>97.72476565985616</v>
       </c>
       <c r="L4">
-        <v>88.23345039471808</v>
+        <v>98.5646919801776</v>
       </c>
       <c r="M4">
-        <v>90.40673099934008</v>
+        <v>98.71490286130758</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -519,28 +519,28 @@
         <v>63.69627645179754</v>
       </c>
       <c r="F5">
-        <v>87.91032113958651</v>
+        <v>90.05818853053374</v>
       </c>
       <c r="G5">
-        <v>96.13798137322465</v>
+        <v>96.46725622234112</v>
       </c>
       <c r="H5">
-        <v>83.00926187630236</v>
+        <v>93.02287863576073</v>
       </c>
       <c r="I5">
-        <v>84.64985212502431</v>
+        <v>92.83311910494278</v>
       </c>
       <c r="J5">
-        <v>97.30362411258405</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K5">
-        <v>96.93706985387743</v>
+        <v>98.7219547830271</v>
       </c>
       <c r="L5">
-        <v>86.31931044373877</v>
+        <v>97.17746838356857</v>
       </c>
       <c r="M5">
-        <v>88.67047880136026</v>
+        <v>97.597972759838</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -551,7 +551,7 @@
         <v>96.73927832057542</v>
       </c>
       <c r="C6">
-        <v>84.96378763102517</v>
+        <v>84.96378763102516</v>
       </c>
       <c r="D6">
         <v>58.99023126018108</v>
@@ -560,28 +560,28 @@
         <v>66.32903418352225</v>
       </c>
       <c r="F6">
-        <v>94.23689841086444</v>
+        <v>97.89098298792258</v>
       </c>
       <c r="G6">
         <v>97.18838626944957</v>
       </c>
       <c r="H6">
-        <v>86.30966620070086</v>
+        <v>94.58301424389728</v>
       </c>
       <c r="I6">
-        <v>88.23318308523932</v>
+        <v>95.24933071941132</v>
       </c>
       <c r="J6">
-        <v>95.1768966759108</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K6">
-        <v>97.7823149050251</v>
+        <v>98.31131204741348</v>
       </c>
       <c r="L6">
-        <v>85.55232315280682</v>
+        <v>96.87269326186636</v>
       </c>
       <c r="M6">
-        <v>87.81874932136721</v>
+        <v>97.33020324420423</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -607,22 +607,22 @@
         <v>98.05227285451282</v>
       </c>
       <c r="H7">
-        <v>84.30747970664386</v>
+        <v>90.64748262201651</v>
       </c>
       <c r="I7">
-        <v>86.99474571648724</v>
+        <v>91.96277043281458</v>
       </c>
       <c r="J7">
-        <v>96.85941463931626</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K7">
-        <v>98.22905002473171</v>
+        <v>98.42437197773361</v>
       </c>
       <c r="L7">
-        <v>84.54736887444538</v>
+        <v>96.38344988148252</v>
       </c>
       <c r="M7">
-        <v>87.308249555533</v>
+        <v>96.91722813959748</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -642,28 +642,28 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>90.31794205587259</v>
+        <v>93.97202663293073</v>
       </c>
       <c r="G8">
-        <v>92.50371599825678</v>
+        <v>93.96783447687663</v>
       </c>
       <c r="H8">
-        <v>83.53132167995027</v>
+        <v>89.90288975023505</v>
       </c>
       <c r="I8">
-        <v>85.15403172546502</v>
+        <v>90.78315645671876</v>
       </c>
       <c r="J8">
-        <v>96.34166469642706</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K8">
-        <v>98.3746121420585</v>
+        <v>98.78525487767214</v>
       </c>
       <c r="L8">
-        <v>83.01482462292796</v>
+        <v>96.34618306751966</v>
       </c>
       <c r="M8">
-        <v>86.04206649375139</v>
+        <v>96.91346591444314</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -683,28 +683,28 @@
         <v>69.28215283268014</v>
       </c>
       <c r="F9">
-        <v>96.50197802019477</v>
+        <v>96.85941463931626</v>
       </c>
       <c r="G9">
         <v>97.3503216142838</v>
       </c>
       <c r="H9">
-        <v>80.07899420751718</v>
+        <v>89.05584669789893</v>
       </c>
       <c r="I9">
-        <v>83.69273501045996</v>
+        <v>90.77914667505111</v>
       </c>
       <c r="J9">
-        <v>96.08449954440981</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K9">
-        <v>98.19906738703395</v>
+        <v>98.43890267068694</v>
       </c>
       <c r="L9">
-        <v>80.62084224651404</v>
+        <v>94.99906022277649</v>
       </c>
       <c r="M9">
-        <v>84.11624563287361</v>
+        <v>95.57779862537143</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -715,7 +715,7 @@
         <v>92.80136235973957</v>
       </c>
       <c r="C10">
-        <v>85.77769512877242</v>
+        <v>85.77769512877244</v>
       </c>
       <c r="D10">
         <v>58.68102287555171</v>
@@ -724,28 +724,28 @@
         <v>65.56954712309572</v>
       </c>
       <c r="F10">
-        <v>94.77720191246061</v>
+        <v>95.15825559342926</v>
       </c>
       <c r="G10">
         <v>97.1085881072171</v>
       </c>
       <c r="H10">
-        <v>78.5390547797319</v>
+        <v>87.19864611511353</v>
       </c>
       <c r="I10">
-        <v>82.2173423279397</v>
+        <v>89.05859410930597</v>
       </c>
       <c r="J10">
-        <v>96.08449954440981</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K10">
-        <v>97.67250209929678</v>
+        <v>98.43890267068694</v>
       </c>
       <c r="L10">
-        <v>79.16433607455336</v>
+        <v>94.29256235787972</v>
       </c>
       <c r="M10">
-        <v>82.93780811897925</v>
+        <v>95.02418707318598</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -753,7 +753,7 @@
         <v>1996</v>
       </c>
       <c r="B11">
-        <v>89.44889783791886</v>
+        <v>89.44889783791885</v>
       </c>
       <c r="C11">
         <v>80.59313069310772</v>
@@ -765,28 +765,28 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.33057520266502</v>
+        <v>92.86900638409577</v>
       </c>
       <c r="G11">
-        <v>95.36794318108974</v>
+        <v>96.58369381221992</v>
       </c>
       <c r="H11">
-        <v>76.87093667030015</v>
+        <v>87.07160693919012</v>
       </c>
       <c r="I11">
-        <v>80.43052217015637</v>
+        <v>88.58802839640923</v>
       </c>
       <c r="J11">
-        <v>96.08449954440981</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K11">
-        <v>97.62597865126021</v>
+        <v>98.29524444157866</v>
       </c>
       <c r="L11">
-        <v>78.8745562638958</v>
+        <v>93.77114895607494</v>
       </c>
       <c r="M11">
-        <v>82.7074571119888</v>
+        <v>94.86112707768231</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -797,7 +797,7 @@
         <v>88.57644603163271</v>
       </c>
       <c r="C12">
-        <v>85.50775006593581</v>
+        <v>85.50775006593578</v>
       </c>
       <c r="D12">
         <v>59.135340081134</v>
@@ -806,28 +806,28 @@
         <v>65.29007836145047</v>
       </c>
       <c r="F12">
-        <v>89.01996369922404</v>
+        <v>92.31661165716065</v>
       </c>
       <c r="G12">
-        <v>96.44430876516545</v>
+        <v>97.0108900520749</v>
       </c>
       <c r="H12">
-        <v>79.43774456191039</v>
+        <v>87.45406563653518</v>
       </c>
       <c r="I12">
-        <v>82.03471015060265</v>
+        <v>88.83723976370594</v>
       </c>
       <c r="J12">
-        <v>90.7659662824382</v>
+        <v>99.05575100843885</v>
       </c>
       <c r="K12">
-        <v>96.03447202605342</v>
+        <v>98.25141914102561</v>
       </c>
       <c r="L12">
-        <v>77.81040047670199</v>
+        <v>93.29046799268794</v>
       </c>
       <c r="M12">
-        <v>80.9853856092239</v>
+        <v>94.48137617755513</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -847,28 +847,28 @@
         <v>66.4462655223534</v>
       </c>
       <c r="F13">
-        <v>88.86546284689162</v>
+        <v>91.96060283987205</v>
       </c>
       <c r="G13">
-        <v>93.99880448155312</v>
+        <v>95.13952097586692</v>
       </c>
       <c r="H13">
-        <v>78.86802945038565</v>
+        <v>87.21849980707256</v>
       </c>
       <c r="I13">
-        <v>81.39334575344817</v>
+        <v>88.46878639577388</v>
       </c>
       <c r="J13">
-        <v>90.40852966331668</v>
+        <v>97.41491938537253</v>
       </c>
       <c r="K13">
-        <v>95.51240892132968</v>
+        <v>98.25212679208842</v>
       </c>
       <c r="L13">
-        <v>76.36890953294596</v>
+        <v>92.25556828890467</v>
       </c>
       <c r="M13">
-        <v>79.76687912735648</v>
+        <v>93.43107115285603</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -888,28 +888,28 @@
         <v>66.38702261418311</v>
       </c>
       <c r="F14">
-        <v>87.30887913795156</v>
+        <v>90.53765295649407</v>
       </c>
       <c r="G14">
-        <v>94.39105043891492</v>
+        <v>96.13698069392056</v>
       </c>
       <c r="H14">
-        <v>76.00336507140381</v>
+        <v>83.84319046025607</v>
       </c>
       <c r="I14">
-        <v>78.94913094776368</v>
+        <v>85.68659221866551</v>
       </c>
       <c r="J14">
-        <v>88.91969223211979</v>
+        <v>95.4016664313807</v>
       </c>
       <c r="K14">
-        <v>95.09608239452952</v>
+        <v>98.271610945116</v>
       </c>
       <c r="L14">
-        <v>73.85658563221003</v>
+        <v>91.73275644769596</v>
       </c>
       <c r="M14">
-        <v>77.55164342224926</v>
+        <v>92.7290230412128</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -929,28 +929,28 @@
         <v>63.36220647013713</v>
       </c>
       <c r="F15">
-        <v>92.22941572507267</v>
+        <v>94.94350203708444</v>
       </c>
       <c r="G15">
-        <v>83.67785294641405</v>
+        <v>91.36819456841235</v>
       </c>
       <c r="H15">
-        <v>70.64814535243418</v>
+        <v>79.9394938654153</v>
       </c>
       <c r="I15">
-        <v>74.71550463534494</v>
+        <v>82.93432759766353</v>
       </c>
       <c r="J15">
-        <v>88.47548275885201</v>
+        <v>94.95745695811293</v>
       </c>
       <c r="K15">
-        <v>96.441697229247</v>
+        <v>98.30018407510866</v>
       </c>
       <c r="L15">
-        <v>71.61878688138739</v>
+        <v>90.88801726334395</v>
       </c>
       <c r="M15">
-        <v>75.82814952053451</v>
+        <v>92.00428687232963</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -958,10 +958,10 @@
         <v>2001</v>
       </c>
       <c r="B16">
-        <v>87.34257567073793</v>
+        <v>87.34257567073794</v>
       </c>
       <c r="C16">
-        <v>82.15411533932588</v>
+        <v>82.1541153393259</v>
       </c>
       <c r="D16">
         <v>53.20935908101377</v>
@@ -970,28 +970,28 @@
         <v>60.23004081881223</v>
       </c>
       <c r="F16">
-        <v>88.13488924525564</v>
+        <v>88.51594292622426</v>
       </c>
       <c r="G16">
-        <v>94.37187323140481</v>
+        <v>95.57651706557245</v>
       </c>
       <c r="H16">
-        <v>65.54829831941974</v>
+        <v>77.45464425440579</v>
       </c>
       <c r="I16">
-        <v>70.87571147308822</v>
+        <v>80.34603939091029</v>
       </c>
       <c r="J16">
-        <v>90.43893861572681</v>
+        <v>93.31662533504661</v>
       </c>
       <c r="K16">
-        <v>96.14842396070382</v>
+        <v>98.36788109710501</v>
       </c>
       <c r="L16">
-        <v>68.00863005679119</v>
+        <v>88.21279477029979</v>
       </c>
       <c r="M16">
-        <v>73.26503823408515</v>
+        <v>89.67334765733133</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -999,7 +999,7 @@
         <v>2002</v>
       </c>
       <c r="B17">
-        <v>88.58161918918398</v>
+        <v>88.581619189184</v>
       </c>
       <c r="C17">
         <v>77.99105543446923</v>
@@ -1008,31 +1008,31 @@
         <v>52.9541369272722</v>
       </c>
       <c r="E17">
-        <v>59.91736281771596</v>
+        <v>59.91736281771597</v>
       </c>
       <c r="F17">
-        <v>84.93575614134399</v>
+        <v>90.25049111186594</v>
       </c>
       <c r="G17">
         <v>95.43496892024505</v>
       </c>
       <c r="H17">
-        <v>64.21589654999502</v>
+        <v>77.16891312841773</v>
       </c>
       <c r="I17">
-        <v>69.43980968770212</v>
+        <v>80.36524387096927</v>
       </c>
       <c r="J17">
-        <v>90.43893861572681</v>
+        <v>93.15302492773858</v>
       </c>
       <c r="K17">
-        <v>96.40191540087787</v>
+        <v>98.32929083368593</v>
       </c>
       <c r="L17">
-        <v>65.82670101669103</v>
+        <v>87.75770837406144</v>
       </c>
       <c r="M17">
-        <v>71.57314877677081</v>
+        <v>89.29015135308045</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1052,28 +1052,28 @@
         <v>59.8344451744</v>
       </c>
       <c r="F18">
-        <v>92.00764026496216</v>
+        <v>94.72172657697394</v>
       </c>
       <c r="G18">
-        <v>92.06241778827508</v>
+        <v>96.96418063803355</v>
       </c>
       <c r="H18">
-        <v>60.69894712715222</v>
+        <v>76.20011647516809</v>
       </c>
       <c r="I18">
-        <v>67.47801754712229</v>
+        <v>80.36627680223985</v>
       </c>
       <c r="J18">
-        <v>87.47784626116062</v>
+        <v>93.31662533504661</v>
       </c>
       <c r="K18">
-        <v>96.92957448551574</v>
+        <v>98.48074782753687</v>
       </c>
       <c r="L18">
-        <v>62.7330490470784</v>
+        <v>87.22124233506855</v>
       </c>
       <c r="M18">
-        <v>68.7541184162838</v>
+        <v>88.90432382971773</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1093,28 +1093,28 @@
         <v>60.4011688060679</v>
       </c>
       <c r="F19">
-        <v>90.36090926733088</v>
+        <v>91.32286868348785</v>
       </c>
       <c r="G19">
-        <v>94.46561164809079</v>
+        <v>94.84031148075066</v>
       </c>
       <c r="H19">
-        <v>63.8812614951837</v>
+        <v>80.07598162392495</v>
       </c>
       <c r="I19">
-        <v>69.90082027893465</v>
+        <v>82.75776900666688</v>
       </c>
       <c r="J19">
-        <v>91.06565557687918</v>
+        <v>94.00335197209426</v>
       </c>
       <c r="K19">
-        <v>96.88713620578298</v>
+        <v>98.61951297363515</v>
       </c>
       <c r="L19">
-        <v>57.86414432600174</v>
+        <v>86.36238270869931</v>
       </c>
       <c r="M19">
-        <v>65.45933841374077</v>
+        <v>88.3413015135489</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1134,28 +1134,28 @@
         <v>56.87789489154128</v>
       </c>
       <c r="F20">
-        <v>85.88447768690718</v>
+        <v>88.85572915093621</v>
       </c>
       <c r="G20">
-        <v>91.16826475152905</v>
+        <v>93.94372109459597</v>
       </c>
       <c r="H20">
-        <v>55.15439575226856</v>
+        <v>77.12618969342564</v>
       </c>
       <c r="I20">
-        <v>62.1768678113262</v>
+        <v>80.02313730018494</v>
       </c>
       <c r="J20">
-        <v>90.36198303955473</v>
+        <v>95.92479266112035</v>
       </c>
       <c r="K20">
-        <v>97.019716152866</v>
+        <v>98.33649377972269</v>
       </c>
       <c r="L20">
-        <v>55.94091369524828</v>
+        <v>86.22874110205204</v>
       </c>
       <c r="M20">
-        <v>63.85897115040635</v>
+        <v>88.49697926173737</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1175,28 +1175,28 @@
         <v>55.55448137809398</v>
       </c>
       <c r="F21">
-        <v>93.27154566806638</v>
+        <v>93.652599349035</v>
       </c>
       <c r="G21">
         <v>97.18364167650122</v>
       </c>
       <c r="H21">
-        <v>52.66512348406007</v>
+        <v>76.1479180696445</v>
       </c>
       <c r="I21">
-        <v>61.7281421714266</v>
+        <v>80.18485235322844</v>
       </c>
       <c r="J21">
-        <v>93.70289993628423</v>
+        <v>96.08839306842837</v>
       </c>
       <c r="K21">
-        <v>96.9195039353184</v>
+        <v>99.06333689248886</v>
       </c>
       <c r="L21">
-        <v>54.45893379928273</v>
+        <v>85.29039511102691</v>
       </c>
       <c r="M21">
-        <v>63.17808872079632</v>
+        <v>87.8367999156869</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1204,40 +1204,40 @@
         <v>2007</v>
       </c>
       <c r="B22">
-        <v>90.08196747223269</v>
+        <v>90.08196747223271</v>
       </c>
       <c r="C22">
         <v>66.54582720158096</v>
       </c>
       <c r="D22">
-        <v>49.47091318880687</v>
+        <v>49.47091318880688</v>
       </c>
       <c r="E22">
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>91.25968625190579</v>
+        <v>92.30188748322327</v>
       </c>
       <c r="G22">
-        <v>91.62081586701137</v>
+        <v>92.7921998039331</v>
       </c>
       <c r="H22">
-        <v>53.72824804845175</v>
+        <v>78.77364415578376</v>
       </c>
       <c r="I22">
-        <v>61.87551799179962</v>
+        <v>81.73572338293808</v>
       </c>
       <c r="J22">
-        <v>92.33859638043683</v>
+        <v>95.64418359516058</v>
       </c>
       <c r="K22">
-        <v>97.2958038020673</v>
+        <v>98.42201506610944</v>
       </c>
       <c r="L22">
-        <v>52.19450222243083</v>
+        <v>83.2432640764369</v>
       </c>
       <c r="M22">
-        <v>61.23114698424467</v>
+        <v>86.12264628602853</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1251,34 +1251,34 @@
         <v>67.12597451200226</v>
       </c>
       <c r="D23">
-        <v>44.99122607662499</v>
+        <v>44.991226076625</v>
       </c>
       <c r="E23">
-        <v>52.64974847112208</v>
+        <v>52.64974847112209</v>
       </c>
       <c r="F23">
-        <v>86.58825822929261</v>
+        <v>89.74956827123823</v>
       </c>
       <c r="G23">
         <v>94.53856009382545</v>
       </c>
       <c r="H23">
-        <v>48.26503390725179</v>
+        <v>75.32915663939394</v>
       </c>
       <c r="I23">
-        <v>57.11863686985429</v>
+        <v>78.78733196727994</v>
       </c>
       <c r="J23">
-        <v>91.11947181226259</v>
+        <v>96.18231501563386</v>
       </c>
       <c r="K23">
-        <v>96.49516729696539</v>
+        <v>98.48548711127913</v>
       </c>
       <c r="L23">
-        <v>51.16448898564144</v>
+        <v>82.12184540906982</v>
       </c>
       <c r="M23">
-        <v>60.18971086190587</v>
+        <v>85.32689408025702</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1289,7 +1289,7 @@
         <v>75.53878045061174</v>
       </c>
       <c r="C24">
-        <v>67.92153663628936</v>
+        <v>67.92153663628937</v>
       </c>
       <c r="D24">
         <v>39.95185258754776</v>
@@ -1298,28 +1298,28 @@
         <v>47.11590339802956</v>
       </c>
       <c r="F24">
-        <v>84.66256132713005</v>
+        <v>86.60414240434741</v>
       </c>
       <c r="G24">
-        <v>86.07073613299013</v>
+        <v>93.32144429058079</v>
       </c>
       <c r="H24">
-        <v>49.66599812302876</v>
+        <v>74.10284833583451</v>
       </c>
       <c r="I24">
-        <v>57.33853078267047</v>
+        <v>77.28166023438598</v>
       </c>
       <c r="J24">
-        <v>89.92284966246403</v>
+        <v>94.586149909703</v>
       </c>
       <c r="K24">
-        <v>89.6678475122303</v>
+        <v>97.51812899478966</v>
       </c>
       <c r="L24">
-        <v>51.2059620609191</v>
+        <v>82.19199664473749</v>
       </c>
       <c r="M24">
-        <v>59.56633001960731</v>
+        <v>85.08078110097966</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1339,28 +1339,28 @@
         <v>49.34219174960445</v>
       </c>
       <c r="F25">
-        <v>88.01505922471686</v>
+        <v>90.7068799337773</v>
       </c>
       <c r="G25">
-        <v>74.0472299204299</v>
+        <v>86.30286564041288</v>
       </c>
       <c r="H25">
-        <v>48.40961898555931</v>
+        <v>75.07642664535692</v>
       </c>
       <c r="I25">
-        <v>55.99559936509335</v>
+        <v>78.14840448440538</v>
       </c>
       <c r="J25">
-        <v>85.7022636743519</v>
+        <v>90.83228813134724</v>
       </c>
       <c r="K25">
-        <v>83.77194898812461</v>
+        <v>97.71870596109565</v>
       </c>
       <c r="L25">
-        <v>47.99793131182621</v>
+        <v>81.09434599050472</v>
       </c>
       <c r="M25">
-        <v>56.02108276129495</v>
+        <v>83.6870894898794</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1380,28 +1380,28 @@
         <v>54.9493126516686</v>
       </c>
       <c r="F26">
-        <v>89.75821342248919</v>
+        <v>92.3595375467186</v>
       </c>
       <c r="G26">
-        <v>76.93603187699048</v>
+        <v>86.21544663145417</v>
       </c>
       <c r="H26">
-        <v>51.18856149257935</v>
+        <v>75.51144910943894</v>
       </c>
       <c r="I26">
-        <v>58.63115819795667</v>
+        <v>78.72425871819335</v>
       </c>
       <c r="J26">
-        <v>82.1485166152754</v>
+        <v>91.34514003749379</v>
       </c>
       <c r="K26">
-        <v>79.0108702495581</v>
+        <v>94.97140305589912</v>
       </c>
       <c r="L26">
-        <v>47.60065233836517</v>
+        <v>80.43709235649962</v>
       </c>
       <c r="M26">
-        <v>54.85563380142088</v>
+        <v>83.05322597509043</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1421,28 +1421,28 @@
         <v>46.27796586172929</v>
       </c>
       <c r="F27">
-        <v>65.4133617408244</v>
+        <v>68.63801162738331</v>
       </c>
       <c r="G27">
-        <v>72.04324732440843</v>
+        <v>85.54861286210418</v>
       </c>
       <c r="H27">
-        <v>43.16739432744043</v>
+        <v>72.11306328541536</v>
       </c>
       <c r="I27">
-        <v>48.44879363249358</v>
+        <v>72.55315538524513</v>
       </c>
       <c r="J27">
-        <v>81.31427012055393</v>
+        <v>91.08761768298032</v>
       </c>
       <c r="K27">
-        <v>77.93600101846239</v>
+        <v>89.74692573349847</v>
       </c>
       <c r="L27">
-        <v>44.88646306701723</v>
+        <v>80.13510765908593</v>
       </c>
       <c r="M27">
-        <v>52.53130217815156</v>
+        <v>82.41072294054149</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1453,7 +1453,7 @@
         <v>76.36914018046798</v>
       </c>
       <c r="C28">
-        <v>71.83245400314304</v>
+        <v>71.83245400314307</v>
       </c>
       <c r="D28">
         <v>43.28843876836695</v>
@@ -1462,28 +1462,28 @@
         <v>50.12730205980426</v>
       </c>
       <c r="F28">
-        <v>79.81495153948839</v>
+        <v>83.85105222528789</v>
       </c>
       <c r="G28">
-        <v>82.43637258849556</v>
+        <v>89.86520335396027</v>
       </c>
       <c r="H28">
-        <v>44.26483519246472</v>
+        <v>70.49959666018341</v>
       </c>
       <c r="I28">
-        <v>52.14268334173256</v>
+        <v>73.81281588160856</v>
       </c>
       <c r="J28">
-        <v>78.78346537540197</v>
+        <v>89.58392599488828</v>
       </c>
       <c r="K28">
-        <v>78.12361162308027</v>
+        <v>92.39709023553641</v>
       </c>
       <c r="L28">
-        <v>42.64758688780638</v>
+        <v>78.33759419197484</v>
       </c>
       <c r="M28">
-        <v>50.42088426974335</v>
+        <v>80.96961407882239</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1503,28 +1503,28 @@
         <v>41.16701530916549</v>
       </c>
       <c r="F29">
-        <v>77.638344701828</v>
+        <v>78.38984478403459</v>
       </c>
       <c r="G29">
-        <v>73.13749055633919</v>
+        <v>84.42926955832199</v>
       </c>
       <c r="H29">
-        <v>39.82025073260601</v>
+        <v>65.2472344363858</v>
       </c>
       <c r="I29">
-        <v>47.68681288463708</v>
+        <v>68.51704113880282</v>
       </c>
       <c r="J29">
-        <v>78.66537514615094</v>
+        <v>88.81547396303522</v>
       </c>
       <c r="K29">
-        <v>75.97857294360408</v>
+        <v>90.79235872467879</v>
       </c>
       <c r="L29">
-        <v>41.24659536431461</v>
+        <v>76.8947629560918</v>
       </c>
       <c r="M29">
-        <v>49.15462541358084</v>
+        <v>79.61376607218925</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1544,28 +1544,28 @@
         <v>42.12543399427167</v>
       </c>
       <c r="F30">
-        <v>73.93584037426621</v>
+        <v>75.20325826869039</v>
       </c>
       <c r="G30">
-        <v>91.29811906075255</v>
+        <v>91.80340014956441</v>
       </c>
       <c r="H30">
-        <v>39.77416580608444</v>
+        <v>64.41547597339853</v>
       </c>
       <c r="I30">
-        <v>48.39069527306781</v>
+        <v>67.92016337963285</v>
       </c>
       <c r="J30">
-        <v>80.70735359918608</v>
+        <v>87.04866025305662</v>
       </c>
       <c r="K30">
-        <v>76.21142202327967</v>
+        <v>89.15985186410978</v>
       </c>
       <c r="L30">
-        <v>40.6593506883687</v>
+        <v>75.23665774797325</v>
       </c>
       <c r="M30">
-        <v>49.00881269801501</v>
+        <v>77.94160413024312</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1573,7 +1573,7 @@
         <v>2016</v>
       </c>
       <c r="B31">
-        <v>86.31767196407783</v>
+        <v>86.31767196407782</v>
       </c>
       <c r="C31">
         <v>66.74118039498397</v>
@@ -1588,25 +1588,25 @@
         <v>90.69882274988143</v>
       </c>
       <c r="G31">
-        <v>73.48655017346027</v>
+        <v>82.00634592830892</v>
       </c>
       <c r="H31">
-        <v>39.58202968307324</v>
+        <v>65.97491411634815</v>
       </c>
       <c r="I31">
-        <v>49.43035622026503</v>
+        <v>70.71240751656313</v>
       </c>
       <c r="J31">
-        <v>82.06805580512668</v>
+        <v>89.75101018344496</v>
       </c>
       <c r="K31">
-        <v>73.15606335857942</v>
+        <v>87.42473584174849</v>
       </c>
       <c r="L31">
-        <v>41.04972493785445</v>
+        <v>73.05570265555721</v>
       </c>
       <c r="M31">
-        <v>49.29786082847803</v>
+        <v>76.50458319621355</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,28 +1626,28 @@
         <v>45.04813643754562</v>
       </c>
       <c r="F32">
-        <v>79.26327573946971</v>
+        <v>84.01604230590669</v>
       </c>
       <c r="G32">
-        <v>72.42136886995108</v>
+        <v>82.0130740108676</v>
       </c>
       <c r="H32">
-        <v>39.9313909158369</v>
+        <v>65.69446587928591</v>
       </c>
       <c r="I32">
-        <v>47.96050785961</v>
+        <v>69.51806251419625</v>
       </c>
       <c r="J32">
-        <v>84.73143267979674</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K32">
-        <v>73.29696141435889</v>
+        <v>88.69322484480742</v>
       </c>
       <c r="L32">
-        <v>40.16131133999631</v>
+        <v>72.33564493863504</v>
       </c>
       <c r="M32">
-        <v>49.00023621183088</v>
+        <v>76.23493585143885</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1667,28 +1667,28 @@
         <v>48.38827265538602</v>
       </c>
       <c r="F33">
-        <v>83.61141593690063</v>
+        <v>89.71172291223385</v>
       </c>
       <c r="G33">
-        <v>72.88106742675508</v>
+        <v>81.05674691580229</v>
       </c>
       <c r="H33">
-        <v>40.00204282010891</v>
+        <v>59.23792570738846</v>
       </c>
       <c r="I33">
-        <v>48.68269789402569</v>
+        <v>65.22233999584155</v>
       </c>
       <c r="J33">
-        <v>84.3587124766175</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K33">
-        <v>72.0351801297107</v>
+        <v>86.78228241197246</v>
       </c>
       <c r="L33">
-        <v>39.42328579605142</v>
+        <v>70.90800104183621</v>
       </c>
       <c r="M33">
-        <v>48.27858945596621</v>
+        <v>74.98152467290696</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1708,28 +1708,28 @@
         <v>43.52274725575262</v>
       </c>
       <c r="F34">
-        <v>78.47845868293683</v>
+        <v>82.50001297601314</v>
       </c>
       <c r="G34">
-        <v>77.61688673066158</v>
+        <v>82.77284637972252</v>
       </c>
       <c r="H34">
-        <v>37.44992011777192</v>
+        <v>62.32707910204716</v>
       </c>
       <c r="I34">
-        <v>46.2677704491709</v>
+        <v>66.71174007117557</v>
       </c>
       <c r="J34">
-        <v>81.51249827756362</v>
+        <v>91.1571790728697</v>
       </c>
       <c r="K34">
-        <v>74.28419847707578</v>
+        <v>91.95123281672193</v>
       </c>
       <c r="L34">
-        <v>37.87238966516766</v>
+        <v>71.904685235781</v>
       </c>
       <c r="M34">
-        <v>46.80656895995678</v>
+        <v>76.12690560489621</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1740,7 +1740,7 @@
         <v>79.93809783484137</v>
       </c>
       <c r="C35">
-        <v>55.77906407558832</v>
+        <v>55.77906407558831</v>
       </c>
       <c r="D35">
         <v>30.26731996239283</v>
@@ -1752,25 +1752,25 @@
         <v>84.86123655150125</v>
       </c>
       <c r="G35">
-        <v>71.65172442513231</v>
+        <v>85.1547818842098</v>
       </c>
       <c r="H35">
-        <v>35.93413963324058</v>
+        <v>60.94153916660808</v>
       </c>
       <c r="I35">
-        <v>45.59078555486727</v>
+        <v>66.13846075077511</v>
       </c>
       <c r="J35">
-        <v>82.99801027067691</v>
+        <v>92.57061412556679</v>
       </c>
       <c r="K35">
-        <v>78.6423597972898</v>
+        <v>93.94211167377416</v>
       </c>
       <c r="L35">
-        <v>36.91652438603291</v>
+        <v>70.85367074477087</v>
       </c>
       <c r="M35">
-        <v>46.58152256478953</v>
+        <v>75.64990486729243</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -478,28 +478,28 @@
         <v>67.42922616343387</v>
       </c>
       <c r="F4">
-        <v>93.34048806991638</v>
+        <v>92.95943438894774</v>
       </c>
       <c r="G4">
-        <v>96.12868445316769</v>
+        <v>94.2833664923086</v>
       </c>
       <c r="H4">
-        <v>94.74981686179493</v>
+        <v>84.69309996141689</v>
       </c>
       <c r="I4">
-        <v>94.64138858413033</v>
+        <v>86.57526590608342</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>99.31327336295233</v>
       </c>
       <c r="K4">
-        <v>97.72476565985616</v>
+        <v>96.13007816503904</v>
       </c>
       <c r="L4">
-        <v>98.5646919801776</v>
+        <v>88.20016306748651</v>
       </c>
       <c r="M4">
-        <v>98.71490286130758</v>
+        <v>90.38064705795483</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -519,28 +519,28 @@
         <v>63.69627645179754</v>
       </c>
       <c r="F5">
-        <v>90.05818853053374</v>
+        <v>87.91032113958651</v>
       </c>
       <c r="G5">
-        <v>96.46725622234112</v>
+        <v>96.13798137322465</v>
       </c>
       <c r="H5">
-        <v>93.02287863576073</v>
+        <v>84.10885352993235</v>
       </c>
       <c r="I5">
-        <v>92.83311910494278</v>
+        <v>85.51149187283188</v>
       </c>
       <c r="J5">
-        <v>99.31327336295233</v>
+        <v>97.30362411258405</v>
       </c>
       <c r="K5">
-        <v>98.7219547830271</v>
+        <v>96.93706985387743</v>
       </c>
       <c r="L5">
-        <v>97.17746838356857</v>
+        <v>87.03872883113372</v>
       </c>
       <c r="M5">
-        <v>97.597972759838</v>
+        <v>89.23421487177946</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -560,28 +560,28 @@
         <v>66.32903418352225</v>
       </c>
       <c r="F6">
-        <v>97.89098298792258</v>
+        <v>94.23689841086444</v>
       </c>
       <c r="G6">
         <v>97.18838626944957</v>
       </c>
       <c r="H6">
-        <v>94.58301424389728</v>
+        <v>86.28182205277056</v>
       </c>
       <c r="I6">
-        <v>95.24933071941132</v>
+        <v>88.21136441780821</v>
       </c>
       <c r="J6">
-        <v>99.31327336295233</v>
+        <v>95.1768966759108</v>
       </c>
       <c r="K6">
-        <v>98.31131204741348</v>
+        <v>97.78231490502512</v>
       </c>
       <c r="L6">
-        <v>96.87269326186636</v>
+        <v>86.00654326096489</v>
       </c>
       <c r="M6">
-        <v>97.33020324420423</v>
+        <v>88.17467608577147</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -607,22 +607,22 @@
         <v>98.05227285451282</v>
       </c>
       <c r="H7">
-        <v>90.64748262201651</v>
+        <v>85.24999293055149</v>
       </c>
       <c r="I7">
-        <v>91.96277043281458</v>
+        <v>87.7332988456167</v>
       </c>
       <c r="J7">
-        <v>99.05575100843885</v>
+        <v>96.85941463931626</v>
       </c>
       <c r="K7">
-        <v>98.42437197773361</v>
+        <v>98.22905002473171</v>
       </c>
       <c r="L7">
-        <v>96.38344988148252</v>
+        <v>85.08404749548977</v>
       </c>
       <c r="M7">
-        <v>96.91722813959748</v>
+        <v>87.72879079023939</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -642,28 +642,28 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>93.97202663293073</v>
+        <v>90.31794205587261</v>
       </c>
       <c r="G8">
-        <v>93.96783447687663</v>
+        <v>92.50371599825678</v>
       </c>
       <c r="H8">
-        <v>89.90288975023505</v>
+        <v>83.17917827003923</v>
       </c>
       <c r="I8">
-        <v>90.78315645671876</v>
+        <v>84.87809223655913</v>
       </c>
       <c r="J8">
-        <v>99.05575100843885</v>
+        <v>96.34166469642706</v>
       </c>
       <c r="K8">
-        <v>98.78525487767214</v>
+        <v>98.3746121420585</v>
       </c>
       <c r="L8">
-        <v>96.34618306751966</v>
+        <v>83.3990695595139</v>
       </c>
       <c r="M8">
-        <v>96.91346591444314</v>
+        <v>86.34316073101964</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -683,28 +683,28 @@
         <v>69.28215283268014</v>
       </c>
       <c r="F9">
-        <v>96.85941463931626</v>
+        <v>96.50197802019477</v>
       </c>
       <c r="G9">
         <v>97.3503216142838</v>
       </c>
       <c r="H9">
-        <v>89.05584669789893</v>
+        <v>81.94284615217684</v>
       </c>
       <c r="I9">
-        <v>90.77914667505111</v>
+        <v>85.15324893328356</v>
       </c>
       <c r="J9">
-        <v>97.30362411258405</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K9">
-        <v>98.43890267068694</v>
+        <v>98.19906738703395</v>
       </c>
       <c r="L9">
-        <v>94.99906022277649</v>
+        <v>80.55923438572681</v>
       </c>
       <c r="M9">
-        <v>95.57779862537143</v>
+        <v>84.06796972839905</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -724,28 +724,28 @@
         <v>65.56954712309572</v>
       </c>
       <c r="F10">
-        <v>95.15825559342926</v>
+        <v>94.77720191246061</v>
       </c>
       <c r="G10">
         <v>97.1085881072171</v>
       </c>
       <c r="H10">
-        <v>87.19864611511353</v>
+        <v>77.89206470211958</v>
       </c>
       <c r="I10">
-        <v>89.05859410930597</v>
+        <v>81.7103610631515</v>
       </c>
       <c r="J10">
-        <v>97.30362411258405</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K10">
-        <v>98.43890267068694</v>
+        <v>97.67250209929678</v>
       </c>
       <c r="L10">
-        <v>94.29256235787972</v>
+        <v>79.28435071812248</v>
       </c>
       <c r="M10">
-        <v>95.02418707318598</v>
+        <v>83.03185156399516</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -765,28 +765,28 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.86900638409577</v>
+        <v>92.33057520266503</v>
       </c>
       <c r="G11">
-        <v>96.58369381221992</v>
+        <v>95.36794318108974</v>
       </c>
       <c r="H11">
-        <v>87.07160693919012</v>
+        <v>76.63503373661457</v>
       </c>
       <c r="I11">
-        <v>88.58802839640923</v>
+        <v>80.24566868966942</v>
       </c>
       <c r="J11">
-        <v>99.05575100843885</v>
+        <v>96.08449954440981</v>
       </c>
       <c r="K11">
-        <v>98.29524444157866</v>
+        <v>97.6259786512602</v>
       </c>
       <c r="L11">
-        <v>93.77114895607494</v>
+        <v>78.99028525602382</v>
       </c>
       <c r="M11">
-        <v>94.86112707768231</v>
+        <v>82.79814232159552</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -806,28 +806,28 @@
         <v>65.29007836145047</v>
       </c>
       <c r="F12">
-        <v>92.31661165716065</v>
+        <v>89.01996369922404</v>
       </c>
       <c r="G12">
-        <v>97.0108900520749</v>
+        <v>96.44430876516545</v>
       </c>
       <c r="H12">
-        <v>87.45406563653518</v>
+        <v>79.19043550018488</v>
       </c>
       <c r="I12">
-        <v>88.83723976370594</v>
+        <v>81.84091883100483</v>
       </c>
       <c r="J12">
-        <v>99.05575100843885</v>
+        <v>90.7659662824382</v>
       </c>
       <c r="K12">
-        <v>98.25141914102561</v>
+        <v>96.03447202605342</v>
       </c>
       <c r="L12">
-        <v>93.29046799268794</v>
+        <v>77.69629837854559</v>
       </c>
       <c r="M12">
-        <v>94.48137617755513</v>
+        <v>80.89597523333097</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -847,28 +847,28 @@
         <v>66.4462655223534</v>
       </c>
       <c r="F13">
-        <v>91.96060283987205</v>
+        <v>88.86546284689162</v>
       </c>
       <c r="G13">
-        <v>95.13952097586692</v>
+        <v>93.99880448155311</v>
       </c>
       <c r="H13">
-        <v>87.21849980707256</v>
+        <v>78.69067618064886</v>
       </c>
       <c r="I13">
-        <v>88.46878639577388</v>
+        <v>81.25437177514961</v>
       </c>
       <c r="J13">
-        <v>97.41491938537253</v>
+        <v>90.40852966331668</v>
       </c>
       <c r="K13">
-        <v>98.25212679208842</v>
+        <v>95.51240892132968</v>
       </c>
       <c r="L13">
-        <v>92.25556828890467</v>
+        <v>76.42446342056097</v>
       </c>
       <c r="M13">
-        <v>93.43107115285603</v>
+        <v>79.81041113995069</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -888,28 +888,28 @@
         <v>66.38702261418311</v>
       </c>
       <c r="F14">
-        <v>90.53765295649407</v>
+        <v>87.30887913795156</v>
       </c>
       <c r="G14">
-        <v>96.13698069392056</v>
+        <v>94.3910504389149</v>
       </c>
       <c r="H14">
-        <v>83.84319046025607</v>
+        <v>76.03065021493612</v>
       </c>
       <c r="I14">
-        <v>85.68659221866551</v>
+        <v>78.97051157948678</v>
       </c>
       <c r="J14">
-        <v>95.4016664313807</v>
+        <v>88.91969223211977</v>
       </c>
       <c r="K14">
-        <v>98.271610945116</v>
+        <v>95.09608239452952</v>
       </c>
       <c r="L14">
-        <v>91.73275644769596</v>
+        <v>73.62539993334586</v>
       </c>
       <c r="M14">
-        <v>92.7290230412128</v>
+        <v>77.37048636580158</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -929,28 +929,28 @@
         <v>63.36220647013713</v>
       </c>
       <c r="F15">
-        <v>94.94350203708444</v>
+        <v>92.22941572507267</v>
       </c>
       <c r="G15">
-        <v>91.36819456841235</v>
+        <v>83.67785294641405</v>
       </c>
       <c r="H15">
-        <v>79.9394938654153</v>
+        <v>70.8681847647666</v>
       </c>
       <c r="I15">
-        <v>82.93432759766353</v>
+        <v>74.8879274644233</v>
       </c>
       <c r="J15">
-        <v>94.95745695811293</v>
+        <v>88.47548275885201</v>
       </c>
       <c r="K15">
-        <v>98.30018407510866</v>
+        <v>96.441697229247</v>
       </c>
       <c r="L15">
-        <v>90.88801726334395</v>
+        <v>71.71603310815473</v>
       </c>
       <c r="M15">
-        <v>92.00428687232963</v>
+        <v>75.90435163977617</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -970,28 +970,28 @@
         <v>60.23004081881223</v>
       </c>
       <c r="F16">
-        <v>88.51594292622426</v>
+        <v>88.13488924525564</v>
       </c>
       <c r="G16">
-        <v>95.57651706557245</v>
+        <v>94.37187323140481</v>
       </c>
       <c r="H16">
-        <v>77.45464425440579</v>
+        <v>65.51398629308437</v>
       </c>
       <c r="I16">
-        <v>80.34603939091029</v>
+        <v>70.84882457773868</v>
       </c>
       <c r="J16">
-        <v>93.31662533504661</v>
+        <v>90.43893861572681</v>
       </c>
       <c r="K16">
-        <v>98.36788109710501</v>
+        <v>96.14842396070382</v>
       </c>
       <c r="L16">
-        <v>88.21279477029979</v>
+        <v>68.12600180289233</v>
       </c>
       <c r="M16">
-        <v>89.67334765733133</v>
+        <v>73.35701070529889</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1011,28 +1011,28 @@
         <v>59.91736281771597</v>
       </c>
       <c r="F17">
-        <v>90.25049111186594</v>
+        <v>84.93575614134399</v>
       </c>
       <c r="G17">
         <v>95.43496892024505</v>
       </c>
       <c r="H17">
-        <v>77.16891312841773</v>
+        <v>65.78336176885483</v>
       </c>
       <c r="I17">
-        <v>80.36524387096927</v>
+        <v>70.6680750454983</v>
       </c>
       <c r="J17">
-        <v>93.15302492773858</v>
+        <v>90.43893861572681</v>
       </c>
       <c r="K17">
-        <v>98.32929083368593</v>
+        <v>96.40191540087787</v>
       </c>
       <c r="L17">
-        <v>87.75770837406144</v>
+        <v>66.4824142254821</v>
       </c>
       <c r="M17">
-        <v>89.29015135308045</v>
+        <v>72.08696548499307</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1052,28 +1052,28 @@
         <v>59.8344451744</v>
       </c>
       <c r="F18">
-        <v>94.72172657697394</v>
+        <v>92.00764026496216</v>
       </c>
       <c r="G18">
-        <v>96.96418063803355</v>
+        <v>92.06241778827508</v>
       </c>
       <c r="H18">
-        <v>76.20011647516809</v>
+        <v>60.92714528708067</v>
       </c>
       <c r="I18">
-        <v>80.36627680223985</v>
+        <v>67.65683356879889</v>
       </c>
       <c r="J18">
-        <v>93.31662533504661</v>
+        <v>87.47784626116062</v>
       </c>
       <c r="K18">
-        <v>98.48074782753687</v>
+        <v>96.92957448551574</v>
       </c>
       <c r="L18">
-        <v>87.22124233506855</v>
+        <v>63.67263198839007</v>
       </c>
       <c r="M18">
-        <v>88.90432382971773</v>
+        <v>69.49037537669588</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1093,28 +1093,28 @@
         <v>60.4011688060679</v>
       </c>
       <c r="F19">
-        <v>91.32286868348785</v>
+        <v>90.36090926733088</v>
       </c>
       <c r="G19">
-        <v>94.84031148075066</v>
+        <v>94.46561164809079</v>
       </c>
       <c r="H19">
-        <v>80.07598162392495</v>
+        <v>66.11033568358559</v>
       </c>
       <c r="I19">
-        <v>82.75776900666688</v>
+        <v>71.6475222616193</v>
       </c>
       <c r="J19">
-        <v>94.00335197209426</v>
+        <v>91.06565557687918</v>
       </c>
       <c r="K19">
-        <v>98.61951297363515</v>
+        <v>96.88713620578298</v>
       </c>
       <c r="L19">
-        <v>86.36238270869931</v>
+        <v>57.68316412148626</v>
       </c>
       <c r="M19">
-        <v>88.3413015135489</v>
+        <v>65.31752237024673</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1134,28 +1134,28 @@
         <v>56.87789489154128</v>
       </c>
       <c r="F20">
-        <v>88.85572915093621</v>
+        <v>85.88447768690718</v>
       </c>
       <c r="G20">
-        <v>93.94372109459597</v>
+        <v>91.16826475152905</v>
       </c>
       <c r="H20">
-        <v>77.12618969342564</v>
+        <v>55.16113125831566</v>
       </c>
       <c r="I20">
-        <v>80.02313730018494</v>
+        <v>62.18214575219872</v>
       </c>
       <c r="J20">
-        <v>95.92479266112035</v>
+        <v>90.36198303955473</v>
       </c>
       <c r="K20">
-        <v>98.33649377972269</v>
+        <v>97.01971615286597</v>
       </c>
       <c r="L20">
-        <v>86.22874110205204</v>
+        <v>55.82311907204935</v>
       </c>
       <c r="M20">
-        <v>88.49697926173737</v>
+        <v>63.76666731280342</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1175,28 +1175,28 @@
         <v>55.55448137809398</v>
       </c>
       <c r="F21">
-        <v>93.652599349035</v>
+        <v>93.27154566806638</v>
       </c>
       <c r="G21">
         <v>97.18364167650122</v>
       </c>
       <c r="H21">
-        <v>76.1479180696445</v>
+        <v>52.44409946465722</v>
       </c>
       <c r="I21">
-        <v>80.18485235322844</v>
+        <v>61.5549478044914</v>
       </c>
       <c r="J21">
-        <v>96.08839306842837</v>
+        <v>93.70289993628423</v>
       </c>
       <c r="K21">
-        <v>99.06333689248886</v>
+        <v>96.9195039353184</v>
       </c>
       <c r="L21">
-        <v>85.29039511102691</v>
+        <v>54.4849892981098</v>
       </c>
       <c r="M21">
-        <v>87.8367999156869</v>
+        <v>63.19850580323256</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1216,28 +1216,28 @@
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>92.30188748322327</v>
+        <v>91.25968625190582</v>
       </c>
       <c r="G22">
-        <v>92.7921998039331</v>
+        <v>91.62081586701137</v>
       </c>
       <c r="H22">
-        <v>78.77364415578376</v>
+        <v>54.27615266823481</v>
       </c>
       <c r="I22">
-        <v>81.73572338293808</v>
+        <v>62.30485591634097</v>
       </c>
       <c r="J22">
-        <v>95.64418359516058</v>
+        <v>92.33859638043683</v>
       </c>
       <c r="K22">
-        <v>98.42201506610944</v>
+        <v>97.2958038020673</v>
       </c>
       <c r="L22">
-        <v>83.2432640764369</v>
+        <v>51.97239579242295</v>
       </c>
       <c r="M22">
-        <v>86.12264628602853</v>
+        <v>61.05710444062709</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1257,28 +1257,28 @@
         <v>52.64974847112209</v>
       </c>
       <c r="F23">
-        <v>89.74956827123823</v>
+        <v>86.58825822929261</v>
       </c>
       <c r="G23">
         <v>94.53856009382545</v>
       </c>
       <c r="H23">
-        <v>75.32915663939394</v>
+        <v>47.6987508443456</v>
       </c>
       <c r="I23">
-        <v>78.78733196727994</v>
+        <v>56.67489760182744</v>
       </c>
       <c r="J23">
-        <v>96.18231501563386</v>
+        <v>91.11947181226259</v>
       </c>
       <c r="K23">
-        <v>98.48548711127913</v>
+        <v>96.49516729696539</v>
       </c>
       <c r="L23">
-        <v>82.12184540906982</v>
+        <v>51.01217689392967</v>
       </c>
       <c r="M23">
-        <v>85.32689408025702</v>
+        <v>60.07035914451393</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1298,28 +1298,28 @@
         <v>47.11590339802956</v>
       </c>
       <c r="F24">
-        <v>86.60414240434741</v>
+        <v>84.66256132713005</v>
       </c>
       <c r="G24">
-        <v>93.32144429058079</v>
+        <v>86.07073613299013</v>
       </c>
       <c r="H24">
-        <v>74.10284833583451</v>
+        <v>49.6132650072728</v>
       </c>
       <c r="I24">
-        <v>77.28166023438598</v>
+        <v>57.2972091262073</v>
       </c>
       <c r="J24">
-        <v>94.586149909703</v>
+        <v>89.92284966246405</v>
       </c>
       <c r="K24">
-        <v>97.51812899478966</v>
+        <v>89.6678475122303</v>
       </c>
       <c r="L24">
-        <v>82.19199664473749</v>
+        <v>51.05093649977707</v>
       </c>
       <c r="M24">
-        <v>85.08078110097966</v>
+        <v>59.44485202824099</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1339,28 +1339,28 @@
         <v>49.34219174960445</v>
       </c>
       <c r="F25">
-        <v>90.7068799337773</v>
+        <v>88.01505922471686</v>
       </c>
       <c r="G25">
-        <v>86.30286564041288</v>
+        <v>74.0472299204299</v>
       </c>
       <c r="H25">
-        <v>75.07642664535692</v>
+        <v>49.63503569741486</v>
       </c>
       <c r="I25">
-        <v>78.14840448440538</v>
+        <v>56.95583559740446</v>
       </c>
       <c r="J25">
-        <v>90.83228813134724</v>
+        <v>85.70226367435191</v>
       </c>
       <c r="K25">
-        <v>97.71870596109565</v>
+        <v>83.77194898812461</v>
       </c>
       <c r="L25">
-        <v>81.09434599050472</v>
+        <v>49.47796301999689</v>
       </c>
       <c r="M25">
-        <v>83.6870894898794</v>
+        <v>57.18083524174124</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1380,28 +1380,28 @@
         <v>54.9493126516686</v>
       </c>
       <c r="F26">
-        <v>92.3595375467186</v>
+        <v>89.75821342248919</v>
       </c>
       <c r="G26">
-        <v>86.21544663145417</v>
+        <v>76.93603187699048</v>
       </c>
       <c r="H26">
-        <v>75.51144910943894</v>
+        <v>50.84682516013548</v>
       </c>
       <c r="I26">
-        <v>78.72425871819335</v>
+        <v>58.36337369237992</v>
       </c>
       <c r="J26">
-        <v>91.34514003749379</v>
+        <v>82.1485166152754</v>
       </c>
       <c r="K26">
-        <v>94.97140305589912</v>
+        <v>79.0108702495581</v>
       </c>
       <c r="L26">
-        <v>80.43709235649962</v>
+        <v>46.89515542142843</v>
       </c>
       <c r="M26">
-        <v>83.05322597509043</v>
+        <v>54.30280659180934</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1421,28 +1421,28 @@
         <v>46.27796586172929</v>
       </c>
       <c r="F27">
-        <v>68.63801162738331</v>
+        <v>65.4133617408244</v>
       </c>
       <c r="G27">
-        <v>85.54861286210418</v>
+        <v>72.04324732440841</v>
       </c>
       <c r="H27">
-        <v>72.11306328541536</v>
+        <v>43.35605997453435</v>
       </c>
       <c r="I27">
-        <v>72.55315538524513</v>
+        <v>48.59663198689115</v>
       </c>
       <c r="J27">
-        <v>91.08761768298032</v>
+        <v>81.31427012055393</v>
       </c>
       <c r="K27">
-        <v>89.74692573349847</v>
+        <v>77.93600101846239</v>
       </c>
       <c r="L27">
-        <v>80.13510765908593</v>
+        <v>44.42612879306806</v>
       </c>
       <c r="M27">
-        <v>82.41072294054149</v>
+        <v>52.17058435494569</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1462,28 +1462,28 @@
         <v>50.12730205980426</v>
       </c>
       <c r="F28">
-        <v>83.85105222528789</v>
+        <v>79.81495153948839</v>
       </c>
       <c r="G28">
-        <v>89.86520335396027</v>
+        <v>82.43637258849556</v>
       </c>
       <c r="H28">
-        <v>70.49959666018341</v>
+        <v>44.23887405904489</v>
       </c>
       <c r="I28">
-        <v>73.81281588160856</v>
+        <v>52.1223402040061</v>
       </c>
       <c r="J28">
-        <v>89.58392599488828</v>
+        <v>78.78346537540197</v>
       </c>
       <c r="K28">
-        <v>92.39709023553641</v>
+        <v>78.12361162308027</v>
       </c>
       <c r="L28">
-        <v>78.33759419197484</v>
+        <v>42.46020520398701</v>
       </c>
       <c r="M28">
-        <v>80.96961407882239</v>
+        <v>50.27405202865014</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1503,28 +1503,28 @@
         <v>41.16701530916549</v>
       </c>
       <c r="F29">
-        <v>78.38984478403459</v>
+        <v>77.638344701828</v>
       </c>
       <c r="G29">
-        <v>84.42926955832199</v>
+        <v>73.13749055633919</v>
       </c>
       <c r="H29">
-        <v>65.2472344363858</v>
+        <v>39.85842357419867</v>
       </c>
       <c r="I29">
-        <v>68.51704113880282</v>
+        <v>47.71672511386728</v>
       </c>
       <c r="J29">
-        <v>88.81547396303522</v>
+        <v>78.66537514615094</v>
       </c>
       <c r="K29">
-        <v>90.79235872467879</v>
+        <v>75.97857294360408</v>
       </c>
       <c r="L29">
-        <v>76.8947629560918</v>
+        <v>41.15646742090104</v>
       </c>
       <c r="M29">
-        <v>79.61376607218925</v>
+        <v>49.08400117941453</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1544,28 +1544,28 @@
         <v>42.12543399427167</v>
       </c>
       <c r="F30">
-        <v>75.20325826869039</v>
+        <v>73.93584037426621</v>
       </c>
       <c r="G30">
-        <v>91.80340014956441</v>
+        <v>91.29811906075255</v>
       </c>
       <c r="H30">
-        <v>64.41547597339853</v>
+        <v>39.92364689539923</v>
       </c>
       <c r="I30">
-        <v>67.92016337963285</v>
+        <v>48.5078286176817</v>
       </c>
       <c r="J30">
-        <v>87.04866025305662</v>
+        <v>80.70735359918608</v>
       </c>
       <c r="K30">
-        <v>89.15985186410978</v>
+        <v>76.21142202327967</v>
       </c>
       <c r="L30">
-        <v>75.23665774797325</v>
+        <v>40.61120564905949</v>
       </c>
       <c r="M30">
-        <v>77.94160413024312</v>
+        <v>48.97108625712067</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1588,25 +1588,25 @@
         <v>90.69882274988143</v>
       </c>
       <c r="G31">
-        <v>82.00634592830892</v>
+        <v>73.48655017346027</v>
       </c>
       <c r="H31">
-        <v>65.97491411634815</v>
+        <v>39.58997763938938</v>
       </c>
       <c r="I31">
-        <v>70.71240751656313</v>
+        <v>49.43658423686848</v>
       </c>
       <c r="J31">
-        <v>89.75101018344496</v>
+        <v>82.06805580512668</v>
       </c>
       <c r="K31">
-        <v>87.42473584174849</v>
+        <v>73.1560633585794</v>
       </c>
       <c r="L31">
-        <v>73.05570265555721</v>
+        <v>40.9895192140576</v>
       </c>
       <c r="M31">
-        <v>76.50458319621355</v>
+        <v>49.25068363820232</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1626,28 +1626,28 @@
         <v>45.04813643754562</v>
       </c>
       <c r="F32">
-        <v>84.01604230590669</v>
+        <v>79.26327573946971</v>
       </c>
       <c r="G32">
-        <v>82.0130740108676</v>
+        <v>72.42136886995108</v>
       </c>
       <c r="H32">
-        <v>65.69446587928591</v>
+        <v>39.91356487323767</v>
       </c>
       <c r="I32">
-        <v>69.51806251419625</v>
+        <v>47.9465393770384</v>
       </c>
       <c r="J32">
-        <v>91.1571790728697</v>
+        <v>84.73143267979674</v>
       </c>
       <c r="K32">
-        <v>88.69322484480742</v>
+        <v>73.29696141435889</v>
       </c>
       <c r="L32">
-        <v>72.33564493863504</v>
+        <v>40.20767800289072</v>
       </c>
       <c r="M32">
-        <v>76.23493585143885</v>
+        <v>49.03656911740645</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1667,28 +1667,28 @@
         <v>48.38827265538602</v>
       </c>
       <c r="F33">
-        <v>89.71172291223385</v>
+        <v>83.61141593690063</v>
       </c>
       <c r="G33">
-        <v>81.05674691580229</v>
+        <v>72.88106742675508</v>
       </c>
       <c r="H33">
-        <v>59.23792570738846</v>
+        <v>39.96013309215125</v>
       </c>
       <c r="I33">
-        <v>65.22233999584155</v>
+        <v>48.64985744156416</v>
       </c>
       <c r="J33">
-        <v>91.1571790728697</v>
+        <v>84.3587124766175</v>
       </c>
       <c r="K33">
-        <v>86.78228241197246</v>
+        <v>72.0351801297107</v>
       </c>
       <c r="L33">
-        <v>70.90800104183621</v>
+        <v>39.63945162436756</v>
       </c>
       <c r="M33">
-        <v>74.98152467290696</v>
+        <v>48.44797694556752</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1708,28 +1708,28 @@
         <v>43.52274725575262</v>
       </c>
       <c r="F34">
-        <v>82.50001297601314</v>
+        <v>78.47845868293683</v>
       </c>
       <c r="G34">
-        <v>82.77284637972252</v>
+        <v>77.61688673066158</v>
       </c>
       <c r="H34">
-        <v>62.32707910204716</v>
+        <v>37.60650485628608</v>
       </c>
       <c r="I34">
-        <v>66.71174007117557</v>
+        <v>46.39047021154037</v>
       </c>
       <c r="J34">
-        <v>91.1571790728697</v>
+        <v>81.51249827756362</v>
       </c>
       <c r="K34">
-        <v>91.95123281672193</v>
+        <v>74.28419847707578</v>
       </c>
       <c r="L34">
-        <v>71.904685235781</v>
+        <v>38.04031098811757</v>
       </c>
       <c r="M34">
-        <v>76.12690560489621</v>
+        <v>46.93815206708608</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1752,25 +1752,25 @@
         <v>84.86123655150125</v>
       </c>
       <c r="G35">
-        <v>85.1547818842098</v>
+        <v>71.65172442513231</v>
       </c>
       <c r="H35">
-        <v>60.94153916660808</v>
+        <v>35.87583926449984</v>
       </c>
       <c r="I35">
-        <v>66.13846075077511</v>
+        <v>45.54510140034223</v>
       </c>
       <c r="J35">
-        <v>92.57061412556679</v>
+        <v>82.9980102706769</v>
       </c>
       <c r="K35">
-        <v>93.94211167377416</v>
+        <v>78.6423597972898</v>
       </c>
       <c r="L35">
-        <v>70.85367074477087</v>
+        <v>37.01295234374535</v>
       </c>
       <c r="M35">
-        <v>75.64990486729243</v>
+        <v>46.65708348860216</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -481,25 +481,25 @@
         <v>92.95943438894774</v>
       </c>
       <c r="G4">
-        <v>94.2833664923086</v>
+        <v>96.0059294757813</v>
       </c>
       <c r="H4">
         <v>84.69309996141689</v>
       </c>
       <c r="I4">
-        <v>86.57526590608342</v>
+        <v>86.69669607918644</v>
       </c>
       <c r="J4">
         <v>99.31327336295233</v>
       </c>
       <c r="K4">
-        <v>96.13007816503904</v>
+        <v>96.12604388961066</v>
       </c>
       <c r="L4">
         <v>88.20016306748651</v>
       </c>
       <c r="M4">
-        <v>90.38064705795483</v>
+        <v>90.38036266616871</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -522,25 +522,25 @@
         <v>87.91032113958651</v>
       </c>
       <c r="G5">
-        <v>96.13798137322465</v>
+        <v>96.47424590793609</v>
       </c>
       <c r="H5">
         <v>84.10885352993235</v>
       </c>
       <c r="I5">
-        <v>85.51149187283188</v>
+        <v>85.53519646944181</v>
       </c>
       <c r="J5">
         <v>97.30362411258405</v>
       </c>
       <c r="K5">
-        <v>96.93706985387743</v>
+        <v>97.77979116191268</v>
       </c>
       <c r="L5">
         <v>87.03872883113372</v>
       </c>
       <c r="M5">
-        <v>89.23421487177946</v>
+        <v>89.29362157870057</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -563,25 +563,25 @@
         <v>94.23689841086444</v>
       </c>
       <c r="G6">
-        <v>97.18838626944957</v>
+        <v>96.46350668056658</v>
       </c>
       <c r="H6">
         <v>86.28182205277056</v>
       </c>
       <c r="I6">
-        <v>88.21136441780821</v>
+        <v>88.16026483259627</v>
       </c>
       <c r="J6">
         <v>95.1768966759108</v>
       </c>
       <c r="K6">
-        <v>97.78231490502512</v>
+        <v>98.18522472417865</v>
       </c>
       <c r="L6">
         <v>86.00654326096489</v>
       </c>
       <c r="M6">
-        <v>88.17467608577147</v>
+        <v>88.203078768027</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -604,25 +604,25 @@
         <v>96.08449954440981</v>
       </c>
       <c r="G7">
-        <v>98.05227285451282</v>
+        <v>97.35093363241154</v>
       </c>
       <c r="H7">
         <v>85.24999293055149</v>
       </c>
       <c r="I7">
-        <v>87.7332988456167</v>
+        <v>87.68385871253547</v>
       </c>
       <c r="J7">
         <v>96.85941463931626</v>
       </c>
       <c r="K7">
-        <v>98.22905002473171</v>
+        <v>98.3746121420585</v>
       </c>
       <c r="L7">
         <v>85.08404749548977</v>
       </c>
       <c r="M7">
-        <v>87.72879079023939</v>
+        <v>87.73905203077098</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -645,25 +645,25 @@
         <v>90.31794205587261</v>
       </c>
       <c r="G8">
-        <v>92.50371599825678</v>
+        <v>95.12960148645013</v>
       </c>
       <c r="H8">
         <v>83.17917827003923</v>
       </c>
       <c r="I8">
-        <v>84.87809223655913</v>
+        <v>85.06320113094463</v>
       </c>
       <c r="J8">
         <v>96.34166469642706</v>
       </c>
       <c r="K8">
-        <v>98.3746121420585</v>
+        <v>98.29890031558918</v>
       </c>
       <c r="L8">
         <v>83.3990695595139</v>
       </c>
       <c r="M8">
-        <v>86.34316073101964</v>
+        <v>86.33782350951753</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -739,13 +739,13 @@
         <v>96.08449954440981</v>
       </c>
       <c r="K10">
-        <v>97.67250209929678</v>
+        <v>97.74036425946969</v>
       </c>
       <c r="L10">
         <v>79.28435071812248</v>
       </c>
       <c r="M10">
-        <v>83.03185156399516</v>
+        <v>83.03663543195007</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -768,25 +768,25 @@
         <v>92.33057520266503</v>
       </c>
       <c r="G11">
-        <v>95.36794318108974</v>
+        <v>96.73514388748967</v>
       </c>
       <c r="H11">
         <v>76.63503373661457</v>
       </c>
       <c r="I11">
-        <v>80.24566868966942</v>
+        <v>80.34204799192867</v>
       </c>
       <c r="J11">
         <v>96.08449954440981</v>
       </c>
       <c r="K11">
-        <v>97.6259786512602</v>
+        <v>97.43298304900128</v>
       </c>
       <c r="L11">
         <v>78.99028525602382</v>
       </c>
       <c r="M11">
-        <v>82.79814232159552</v>
+        <v>82.78453730998474</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -809,25 +809,25 @@
         <v>89.01996369922404</v>
       </c>
       <c r="G12">
-        <v>96.44430876516545</v>
+        <v>96.29124815189671</v>
       </c>
       <c r="H12">
         <v>79.19043550018488</v>
       </c>
       <c r="I12">
-        <v>81.84091883100483</v>
+        <v>81.83012899229193</v>
       </c>
       <c r="J12">
         <v>90.7659662824382</v>
       </c>
       <c r="K12">
-        <v>96.03447202605342</v>
+        <v>97.1045152913149</v>
       </c>
       <c r="L12">
         <v>77.69629837854559</v>
       </c>
       <c r="M12">
-        <v>80.89597523333097</v>
+        <v>80.97140675030602</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -850,25 +850,25 @@
         <v>88.86546284689162</v>
       </c>
       <c r="G13">
-        <v>93.99880448155311</v>
+        <v>91.9651471470162</v>
       </c>
       <c r="H13">
         <v>78.69067618064886</v>
       </c>
       <c r="I13">
-        <v>81.25437177514961</v>
+        <v>81.11101134970544</v>
       </c>
       <c r="J13">
         <v>90.40852966331668</v>
       </c>
       <c r="K13">
-        <v>95.51240892132968</v>
+        <v>96.25572638964734</v>
       </c>
       <c r="L13">
         <v>76.42446342056097</v>
       </c>
       <c r="M13">
-        <v>79.81041113995069</v>
+        <v>79.86281048308898</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -891,25 +891,25 @@
         <v>87.30887913795156</v>
       </c>
       <c r="G14">
-        <v>94.3910504389149</v>
+        <v>94.17757209586765</v>
       </c>
       <c r="H14">
         <v>76.03065021493612</v>
       </c>
       <c r="I14">
-        <v>78.97051157948678</v>
+        <v>78.95546265970928</v>
       </c>
       <c r="J14">
         <v>88.91969223211977</v>
       </c>
       <c r="K14">
-        <v>95.09608239452952</v>
+        <v>94.89276719682695</v>
       </c>
       <c r="L14">
         <v>73.62539993334586</v>
       </c>
       <c r="M14">
-        <v>77.37048636580158</v>
+        <v>77.35615388571908</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -932,25 +932,25 @@
         <v>92.22941572507267</v>
       </c>
       <c r="G15">
-        <v>83.67785294641405</v>
+        <v>87.97024032695344</v>
       </c>
       <c r="H15">
         <v>70.8681847647666</v>
       </c>
       <c r="I15">
-        <v>74.8879274644233</v>
+        <v>75.19051456727239</v>
       </c>
       <c r="J15">
         <v>88.47548275885201</v>
       </c>
       <c r="K15">
-        <v>96.441697229247</v>
+        <v>97.32719531367553</v>
       </c>
       <c r="L15">
         <v>71.71603310815473</v>
       </c>
       <c r="M15">
-        <v>75.90435163977617</v>
+        <v>75.96677384825634</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -973,25 +973,25 @@
         <v>88.13488924525564</v>
       </c>
       <c r="G16">
-        <v>94.37187323140481</v>
+        <v>93.61259850616307</v>
       </c>
       <c r="H16">
         <v>65.51398629308437</v>
       </c>
       <c r="I16">
-        <v>70.84882457773868</v>
+        <v>70.79530034541543</v>
       </c>
       <c r="J16">
         <v>90.43893861572681</v>
       </c>
       <c r="K16">
-        <v>96.14842396070382</v>
+        <v>96.05439536366852</v>
       </c>
       <c r="L16">
         <v>68.12600180289233</v>
       </c>
       <c r="M16">
-        <v>73.35701070529889</v>
+        <v>73.35038226330623</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1026,13 +1026,13 @@
         <v>90.43893861572681</v>
       </c>
       <c r="K17">
-        <v>96.40191540087787</v>
+        <v>95.47982354972179</v>
       </c>
       <c r="L17">
         <v>66.4824142254821</v>
       </c>
       <c r="M17">
-        <v>72.08696548499307</v>
+        <v>72.02196363938448</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1055,25 +1055,25 @@
         <v>92.00764026496216</v>
       </c>
       <c r="G18">
-        <v>92.06241778827508</v>
+        <v>90.38295892886327</v>
       </c>
       <c r="H18">
         <v>60.92714528708067</v>
       </c>
       <c r="I18">
-        <v>67.65683356879889</v>
+        <v>67.53844197326684</v>
       </c>
       <c r="J18">
         <v>87.47784626116062</v>
       </c>
       <c r="K18">
-        <v>96.92957448551574</v>
+        <v>96.1076936512318</v>
       </c>
       <c r="L18">
         <v>63.67263198839007</v>
       </c>
       <c r="M18">
-        <v>69.49037537669588</v>
+        <v>69.43243779593122</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1096,25 +1096,25 @@
         <v>90.36090926733088</v>
       </c>
       <c r="G19">
-        <v>94.46561164809079</v>
+        <v>94.32495257254024</v>
       </c>
       <c r="H19">
         <v>66.11033568358559</v>
       </c>
       <c r="I19">
-        <v>71.6475222616193</v>
+        <v>71.63760665559705</v>
       </c>
       <c r="J19">
         <v>91.06565557687918</v>
       </c>
       <c r="K19">
-        <v>96.88713620578298</v>
+        <v>96.05835010644056</v>
       </c>
       <c r="L19">
         <v>57.68316412148626</v>
       </c>
       <c r="M19">
-        <v>65.31752237024673</v>
+        <v>65.25909801045604</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1137,25 +1137,25 @@
         <v>85.88447768690718</v>
       </c>
       <c r="G20">
-        <v>91.16826475152905</v>
+        <v>89.79871014645555</v>
       </c>
       <c r="H20">
         <v>55.16113125831566</v>
       </c>
       <c r="I20">
-        <v>62.18214575219872</v>
+        <v>62.08560051445488</v>
       </c>
       <c r="J20">
         <v>90.36198303955473</v>
       </c>
       <c r="K20">
-        <v>97.01971615286597</v>
+        <v>94.49583626292514</v>
       </c>
       <c r="L20">
         <v>55.82311907204935</v>
       </c>
       <c r="M20">
-        <v>63.76666731280342</v>
+        <v>63.58874919029223</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1178,25 +1178,25 @@
         <v>93.27154566806638</v>
       </c>
       <c r="G21">
-        <v>97.18364167650122</v>
+        <v>93.17404100368331</v>
       </c>
       <c r="H21">
         <v>52.44409946465722</v>
       </c>
       <c r="I21">
-        <v>61.5549478044914</v>
+        <v>61.27229543796214</v>
       </c>
       <c r="J21">
         <v>93.70289993628423</v>
       </c>
       <c r="K21">
-        <v>96.9195039353184</v>
+        <v>95.98001376593533</v>
       </c>
       <c r="L21">
         <v>54.4849892981098</v>
       </c>
       <c r="M21">
-        <v>63.19850580323256</v>
+        <v>63.13227748241565</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1219,25 +1219,25 @@
         <v>91.25968625190582</v>
       </c>
       <c r="G22">
-        <v>91.62081586701137</v>
+        <v>91.87706104584583</v>
       </c>
       <c r="H22">
         <v>54.27615266823481</v>
       </c>
       <c r="I22">
-        <v>62.30485591634097</v>
+        <v>62.32291963692549</v>
       </c>
       <c r="J22">
         <v>92.33859638043683</v>
       </c>
       <c r="K22">
-        <v>97.2958038020673</v>
+        <v>94.92539114050598</v>
       </c>
       <c r="L22">
         <v>51.97239579242295</v>
       </c>
       <c r="M22">
-        <v>61.05710444062709</v>
+        <v>60.89000482071149</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1272,13 +1272,13 @@
         <v>91.11947181226259</v>
       </c>
       <c r="K23">
-        <v>96.49516729696539</v>
+        <v>96.37642834756659</v>
       </c>
       <c r="L23">
         <v>51.01217689392967</v>
       </c>
       <c r="M23">
-        <v>60.07035914451393</v>
+        <v>60.06198877355048</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1301,25 +1301,25 @@
         <v>84.66256132713005</v>
       </c>
       <c r="G24">
-        <v>86.07073613299013</v>
+        <v>86.13077779371434</v>
       </c>
       <c r="H24">
         <v>49.6132650072728</v>
       </c>
       <c r="I24">
-        <v>57.2972091262073</v>
+        <v>57.30144169669969</v>
       </c>
       <c r="J24">
         <v>89.92284966246405</v>
       </c>
       <c r="K24">
-        <v>89.6678475122303</v>
+        <v>91.63005087773445</v>
       </c>
       <c r="L24">
         <v>51.05093649977707</v>
       </c>
       <c r="M24">
-        <v>59.44485202824099</v>
+        <v>59.58317538513569</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1342,25 +1342,25 @@
         <v>88.01505922471686</v>
       </c>
       <c r="G25">
-        <v>74.0472299204299</v>
+        <v>77.34343368000799</v>
       </c>
       <c r="H25">
         <v>49.63503569741486</v>
       </c>
       <c r="I25">
-        <v>56.95583559740446</v>
+        <v>57.18819783724631</v>
       </c>
       <c r="J25">
         <v>85.70226367435191</v>
       </c>
       <c r="K25">
-        <v>83.77194898812461</v>
+        <v>85.08596933673054</v>
       </c>
       <c r="L25">
         <v>49.47796301999689</v>
       </c>
       <c r="M25">
-        <v>57.18083524174124</v>
+        <v>57.27346565347251</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -1383,25 +1383,25 @@
         <v>89.75821342248919</v>
       </c>
       <c r="G26">
-        <v>76.93603187699048</v>
+        <v>75.6503984598796</v>
       </c>
       <c r="H26">
         <v>50.84682516013548</v>
       </c>
       <c r="I26">
-        <v>58.36337369237992</v>
+        <v>58.27274438600062</v>
       </c>
       <c r="J26">
         <v>82.1485166152754</v>
       </c>
       <c r="K26">
-        <v>79.0108702495581</v>
+        <v>81.21646205959566</v>
       </c>
       <c r="L26">
         <v>46.89515542142843</v>
       </c>
       <c r="M26">
-        <v>54.30280659180934</v>
+        <v>54.45828734801804</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -1424,25 +1424,25 @@
         <v>65.4133617408244</v>
       </c>
       <c r="G27">
-        <v>72.04324732440841</v>
+        <v>71.25482393077965</v>
       </c>
       <c r="H27">
         <v>43.35605997453435</v>
       </c>
       <c r="I27">
-        <v>48.59663198689115</v>
+        <v>48.54105295141589</v>
       </c>
       <c r="J27">
         <v>81.31427012055393</v>
       </c>
       <c r="K27">
-        <v>77.93600101846239</v>
+        <v>77.78406740325212</v>
       </c>
       <c r="L27">
         <v>44.42612879306806</v>
       </c>
       <c r="M27">
-        <v>52.17058435494569</v>
+        <v>52.15987396271495</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -1465,25 +1465,25 @@
         <v>79.81495153948839</v>
       </c>
       <c r="G28">
-        <v>82.43637258849556</v>
+        <v>83.1750591086241</v>
       </c>
       <c r="H28">
         <v>44.23887405904489</v>
       </c>
       <c r="I28">
-        <v>52.1223402040061</v>
+        <v>52.17441309357164</v>
       </c>
       <c r="J28">
         <v>78.78346537540197</v>
       </c>
       <c r="K28">
-        <v>78.12361162308027</v>
+        <v>77.95083897775707</v>
       </c>
       <c r="L28">
         <v>42.46020520398701</v>
       </c>
       <c r="M28">
-        <v>50.27405202865014</v>
+        <v>50.26187261203062</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -1506,25 +1506,25 @@
         <v>77.638344701828</v>
       </c>
       <c r="G29">
-        <v>73.13749055633919</v>
+        <v>73.36325475124114</v>
       </c>
       <c r="H29">
         <v>39.85842357419867</v>
       </c>
       <c r="I29">
-        <v>47.71672511386728</v>
+        <v>47.73264011118838</v>
       </c>
       <c r="J29">
         <v>78.66537514615094</v>
       </c>
       <c r="K29">
-        <v>75.97857294360408</v>
+        <v>76.43416974652314</v>
       </c>
       <c r="L29">
         <v>41.15646742090104</v>
       </c>
       <c r="M29">
-        <v>49.08400117941453</v>
+        <v>49.11611797234139</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -1547,25 +1547,25 @@
         <v>73.93584037426621</v>
       </c>
       <c r="G30">
-        <v>91.29811906075255</v>
+        <v>91.47560554102353</v>
       </c>
       <c r="H30">
         <v>39.92364689539923</v>
       </c>
       <c r="I30">
-        <v>48.5078286176817</v>
+        <v>48.52034033088438</v>
       </c>
       <c r="J30">
         <v>80.70735359918608</v>
       </c>
       <c r="K30">
-        <v>76.21142202327967</v>
+        <v>74.97437906384371</v>
       </c>
       <c r="L30">
         <v>40.61120564905949</v>
       </c>
       <c r="M30">
-        <v>48.97108625712067</v>
+        <v>48.88388228133493</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1588,25 +1588,25 @@
         <v>90.69882274988143</v>
       </c>
       <c r="G31">
-        <v>73.48655017346027</v>
+        <v>73.14333264496581</v>
       </c>
       <c r="H31">
         <v>39.58997763938938</v>
       </c>
       <c r="I31">
-        <v>49.43658423686848</v>
+        <v>49.41238949664886</v>
       </c>
       <c r="J31">
         <v>82.06805580512668</v>
       </c>
       <c r="K31">
-        <v>73.1560633585794</v>
+        <v>73.24587762631481</v>
       </c>
       <c r="L31">
         <v>40.9895192140576</v>
       </c>
       <c r="M31">
-        <v>49.25068363820232</v>
+        <v>49.25701499571021</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -1629,25 +1629,25 @@
         <v>79.26327573946971</v>
       </c>
       <c r="G32">
-        <v>72.42136886995108</v>
+        <v>72.39988677728859</v>
       </c>
       <c r="H32">
         <v>39.91356487323767</v>
       </c>
       <c r="I32">
-        <v>47.9465393770384</v>
+        <v>47.94502502066615</v>
       </c>
       <c r="J32">
         <v>84.73143267979674</v>
       </c>
       <c r="K32">
-        <v>73.29696141435889</v>
+        <v>72.61942961892957</v>
       </c>
       <c r="L32">
         <v>40.20767800289072</v>
       </c>
       <c r="M32">
-        <v>49.03656911740645</v>
+        <v>48.98880726254764</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1670,25 +1670,25 @@
         <v>83.61141593690063</v>
       </c>
       <c r="G33">
-        <v>72.88106742675508</v>
+        <v>73.0922202569387</v>
       </c>
       <c r="H33">
         <v>39.96013309215125</v>
       </c>
       <c r="I33">
-        <v>48.64985744156416</v>
+        <v>48.66474242688336</v>
       </c>
       <c r="J33">
         <v>84.3587124766175</v>
       </c>
       <c r="K33">
-        <v>72.0351801297107</v>
+        <v>71.28959544708636</v>
       </c>
       <c r="L33">
         <v>39.63945162436756</v>
       </c>
       <c r="M33">
-        <v>48.44797694556752</v>
+        <v>48.39541777766324</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1711,25 +1711,25 @@
         <v>78.47845868293683</v>
       </c>
       <c r="G34">
-        <v>77.61688673066158</v>
+        <v>76.09632023658523</v>
       </c>
       <c r="H34">
         <v>37.60650485628608</v>
       </c>
       <c r="I34">
-        <v>46.39047021154037</v>
+        <v>46.28327955763574</v>
       </c>
       <c r="J34">
         <v>81.51249827756362</v>
       </c>
       <c r="K34">
-        <v>74.28419847707578</v>
+        <v>74.4275677418171</v>
       </c>
       <c r="L34">
         <v>38.04031098811757</v>
       </c>
       <c r="M34">
-        <v>46.93815206708608</v>
+        <v>46.94825872489901</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -1752,25 +1752,25 @@
         <v>84.86123655150125</v>
       </c>
       <c r="G35">
-        <v>71.65172442513231</v>
+        <v>72.80600243291326</v>
       </c>
       <c r="H35">
         <v>35.87583926449984</v>
       </c>
       <c r="I35">
-        <v>45.54510140034223</v>
+        <v>45.62647095236365</v>
       </c>
       <c r="J35">
         <v>82.9980102706769</v>
       </c>
       <c r="K35">
-        <v>78.6423597972898</v>
+        <v>79.31773113239684</v>
       </c>
       <c r="L35">
         <v>37.01295234374535</v>
       </c>
       <c r="M35">
-        <v>46.65708348860216</v>
+        <v>46.7046930441991</v>
       </c>
     </row>
     <row r="36" spans="1:13">

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -478,7 +478,7 @@
         <v>67.42922616343387</v>
       </c>
       <c r="F4">
-        <v>92.95943438894774</v>
+        <v>88.26615686041137</v>
       </c>
       <c r="G4">
         <v>96.0059294757813</v>
@@ -487,10 +487,10 @@
         <v>84.69309996141689</v>
       </c>
       <c r="I4">
-        <v>86.69669607918644</v>
+        <v>86.0119170717787</v>
       </c>
       <c r="J4">
-        <v>99.31327336295233</v>
+        <v>96.01662540501572</v>
       </c>
       <c r="K4">
         <v>96.12604388961066</v>
@@ -499,7 +499,7 @@
         <v>88.20016306748651</v>
       </c>
       <c r="M4">
-        <v>90.38036266616871</v>
+        <v>89.89936078578073</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -519,7 +519,7 @@
         <v>63.69627645179754</v>
       </c>
       <c r="F5">
-        <v>87.91032113958651</v>
+        <v>90.05818853053374</v>
       </c>
       <c r="G5">
         <v>96.47424590793609</v>
@@ -528,7 +528,7 @@
         <v>84.10885352993235</v>
       </c>
       <c r="I5">
-        <v>85.53519646944181</v>
+        <v>85.84858396700047</v>
       </c>
       <c r="J5">
         <v>97.30362411258405</v>
@@ -560,7 +560,7 @@
         <v>66.32903418352225</v>
       </c>
       <c r="F6">
-        <v>94.23689841086444</v>
+        <v>95.78141947294627</v>
       </c>
       <c r="G6">
         <v>96.46350668056658</v>
@@ -569,10 +569,10 @@
         <v>86.28182205277056</v>
       </c>
       <c r="I6">
-        <v>88.16026483259627</v>
+        <v>88.38562026776538</v>
       </c>
       <c r="J6">
-        <v>95.1768966759108</v>
+        <v>90.0753370387658</v>
       </c>
       <c r="K6">
         <v>98.18522472417865</v>
@@ -581,7 +581,7 @@
         <v>86.00654326096489</v>
       </c>
       <c r="M6">
-        <v>88.203078768027</v>
+        <v>87.45872880719165</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -601,7 +601,7 @@
         <v>68.14999370172741</v>
       </c>
       <c r="F7">
-        <v>96.08449954440981</v>
+        <v>95.64029007114203</v>
       </c>
       <c r="G7">
         <v>97.35093363241154</v>
@@ -610,7 +610,7 @@
         <v>85.24999293055149</v>
       </c>
       <c r="I7">
-        <v>87.68385871253547</v>
+        <v>87.61904572836058</v>
       </c>
       <c r="J7">
         <v>96.85941463931626</v>
@@ -642,7 +642,7 @@
         <v>66.89679887071767</v>
       </c>
       <c r="F8">
-        <v>90.31794205587261</v>
+        <v>93.61459001380923</v>
       </c>
       <c r="G8">
         <v>95.12960148645013</v>
@@ -651,7 +651,7 @@
         <v>83.17917827003923</v>
       </c>
       <c r="I8">
-        <v>85.06320113094463</v>
+        <v>85.5442030113326</v>
       </c>
       <c r="J8">
         <v>96.34166469642706</v>
@@ -683,7 +683,7 @@
         <v>69.28215283268014</v>
       </c>
       <c r="F9">
-        <v>96.50197802019477</v>
+        <v>96.85941463931626</v>
       </c>
       <c r="G9">
         <v>97.3503216142838</v>
@@ -692,7 +692,7 @@
         <v>81.94284615217684</v>
       </c>
       <c r="I9">
-        <v>85.15324893328356</v>
+        <v>85.20540120677792</v>
       </c>
       <c r="J9">
         <v>96.08449954440981</v>
@@ -724,7 +724,7 @@
         <v>65.56954712309572</v>
       </c>
       <c r="F10">
-        <v>94.77720191246061</v>
+        <v>93.88585151545291</v>
       </c>
       <c r="G10">
         <v>97.1085881072171</v>
@@ -733,7 +733,7 @@
         <v>77.89206470211958</v>
       </c>
       <c r="I10">
-        <v>81.7103610631515</v>
+        <v>81.58030737755456</v>
       </c>
       <c r="J10">
         <v>96.08449954440981</v>
@@ -765,7 +765,7 @@
         <v>65.40503676122147</v>
       </c>
       <c r="F11">
-        <v>92.33057520266503</v>
+        <v>89.19130474519051</v>
       </c>
       <c r="G11">
         <v>96.73514388748967</v>
@@ -774,10 +774,10 @@
         <v>76.63503373661457</v>
       </c>
       <c r="I11">
-        <v>80.34204799192867</v>
+        <v>79.88400848866404</v>
       </c>
       <c r="J11">
-        <v>96.08449954440981</v>
+        <v>92.78785158647318</v>
       </c>
       <c r="K11">
         <v>97.43298304900128</v>
@@ -786,7 +786,7 @@
         <v>78.99028525602382</v>
       </c>
       <c r="M11">
-        <v>82.78453730998474</v>
+        <v>82.30353542959678</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -806,7 +806,7 @@
         <v>65.29007836145047</v>
       </c>
       <c r="F12">
-        <v>89.01996369922404</v>
+        <v>88.51743962434027</v>
       </c>
       <c r="G12">
         <v>96.29124815189671</v>
@@ -815,10 +815,10 @@
         <v>79.19043550018488</v>
       </c>
       <c r="I12">
-        <v>81.83012899229193</v>
+        <v>81.75680753727354</v>
       </c>
       <c r="J12">
-        <v>90.7659662824382</v>
+        <v>91.14701996340685</v>
       </c>
       <c r="K12">
         <v>97.1045152913149</v>
@@ -827,7 +827,7 @@
         <v>77.69629837854559</v>
       </c>
       <c r="M12">
-        <v>80.97140675030602</v>
+        <v>81.02700490316107</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -847,7 +847,7 @@
         <v>66.4462655223534</v>
       </c>
       <c r="F13">
-        <v>88.86546284689162</v>
+        <v>90.99864342371507</v>
       </c>
       <c r="G13">
         <v>91.9651471470162</v>
@@ -856,10 +856,10 @@
         <v>78.69067618064886</v>
       </c>
       <c r="I13">
-        <v>81.11101134970544</v>
+        <v>81.42225594777935</v>
       </c>
       <c r="J13">
-        <v>90.40852966331668</v>
+        <v>90.78958334428533</v>
       </c>
       <c r="K13">
         <v>96.25572638964734</v>
@@ -868,7 +868,7 @@
         <v>76.42446342056097</v>
       </c>
       <c r="M13">
-        <v>79.86281048308898</v>
+        <v>79.91840863594405</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -888,7 +888,7 @@
         <v>66.38702261418311</v>
       </c>
       <c r="F14">
-        <v>87.30887913795156</v>
+        <v>89.64191176899472</v>
       </c>
       <c r="G14">
         <v>94.17757209586765</v>
@@ -897,7 +897,7 @@
         <v>76.03065021493612</v>
       </c>
       <c r="I14">
-        <v>78.95546265970928</v>
+        <v>79.29586694213701</v>
       </c>
       <c r="J14">
         <v>88.91969223211977</v>
@@ -929,7 +929,7 @@
         <v>63.36220647013713</v>
       </c>
       <c r="F15">
-        <v>92.22941572507267</v>
+        <v>89.9848567087608</v>
       </c>
       <c r="G15">
         <v>87.97024032695344</v>
@@ -938,7 +938,7 @@
         <v>70.8681847647666</v>
       </c>
       <c r="I15">
-        <v>75.19051456727239</v>
+        <v>74.86301914729933</v>
       </c>
       <c r="J15">
         <v>88.47548275885201</v>
@@ -970,7 +970,7 @@
         <v>60.23004081881223</v>
       </c>
       <c r="F16">
-        <v>88.13488924525564</v>
+        <v>88.51594292622426</v>
       </c>
       <c r="G16">
         <v>93.61259850616307</v>
@@ -979,7 +979,7 @@
         <v>65.51398629308437</v>
       </c>
       <c r="I16">
-        <v>70.79530034541543</v>
+        <v>70.85089849827048</v>
       </c>
       <c r="J16">
         <v>90.43893861572681</v>
@@ -1011,7 +1011,7 @@
         <v>59.91736281771597</v>
       </c>
       <c r="F17">
-        <v>84.93575614134399</v>
+        <v>87.18031515765585</v>
       </c>
       <c r="G17">
         <v>95.43496892024505</v>
@@ -1020,10 +1020,10 @@
         <v>65.78336176885483</v>
       </c>
       <c r="I17">
-        <v>70.6680750454983</v>
+        <v>70.99557046547136</v>
       </c>
       <c r="J17">
-        <v>90.43893861572681</v>
+        <v>89.80071978274091</v>
       </c>
       <c r="K17">
         <v>95.47982354972179</v>
@@ -1032,7 +1032,7 @@
         <v>66.4824142254821</v>
       </c>
       <c r="M17">
-        <v>72.02196363938448</v>
+        <v>71.92884345710169</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1052,7 +1052,7 @@
         <v>59.8344451744</v>
       </c>
       <c r="F18">
-        <v>92.00764026496216</v>
+        <v>91.30046733997675</v>
       </c>
       <c r="G18">
         <v>90.38295892886327</v>
@@ -1061,7 +1061,7 @@
         <v>60.92714528708067</v>
       </c>
       <c r="I18">
-        <v>67.53844197326684</v>
+        <v>67.43526095090184</v>
       </c>
       <c r="J18">
         <v>87.47784626116062</v>
@@ -1093,7 +1093,7 @@
         <v>60.4011688060679</v>
       </c>
       <c r="F19">
-        <v>90.36090926733088</v>
+        <v>90.98146585541335</v>
       </c>
       <c r="G19">
         <v>94.32495257254024</v>
@@ -1102,7 +1102,7 @@
         <v>66.11033568358559</v>
       </c>
       <c r="I19">
-        <v>71.63760665559705</v>
+        <v>71.72814980414168</v>
       </c>
       <c r="J19">
         <v>91.06565557687918</v>
@@ -1134,7 +1134,7 @@
         <v>56.87789489154128</v>
       </c>
       <c r="F20">
-        <v>85.88447768690718</v>
+        <v>88.59856399891896</v>
       </c>
       <c r="G20">
         <v>89.79871014645555</v>
@@ -1143,10 +1143,10 @@
         <v>55.16113125831566</v>
       </c>
       <c r="I20">
-        <v>62.08560051445488</v>
+        <v>62.48160294973766</v>
       </c>
       <c r="J20">
-        <v>90.36198303955473</v>
+        <v>91.0487096766024</v>
       </c>
       <c r="K20">
         <v>94.49583626292514</v>
@@ -1155,7 +1155,7 @@
         <v>55.82311907204935</v>
       </c>
       <c r="M20">
-        <v>63.58874919029223</v>
+        <v>63.68894696935359</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1175,7 +1175,7 @@
         <v>55.55448137809398</v>
       </c>
       <c r="F21">
-        <v>93.27154566806638</v>
+        <v>91.80706217702563</v>
       </c>
       <c r="G21">
         <v>93.17404100368331</v>
@@ -1184,7 +1184,7 @@
         <v>52.44409946465722</v>
       </c>
       <c r="I21">
-        <v>61.27229543796214</v>
+        <v>61.05861799287982</v>
       </c>
       <c r="J21">
         <v>93.70289993628423</v>
@@ -1216,7 +1216,7 @@
         <v>56.60000119313265</v>
       </c>
       <c r="F22">
-        <v>91.25968625190582</v>
+        <v>92.14450998276116</v>
       </c>
       <c r="G22">
         <v>91.87706104584583</v>
@@ -1225,10 +1225,10 @@
         <v>54.27615266823481</v>
       </c>
       <c r="I22">
-        <v>62.32291963692549</v>
+        <v>62.45202104046744</v>
       </c>
       <c r="J22">
-        <v>92.33859638043683</v>
+        <v>91.37663696427985</v>
       </c>
       <c r="K22">
         <v>94.92539114050598</v>
@@ -1237,7 +1237,7 @@
         <v>51.97239579242295</v>
       </c>
       <c r="M22">
-        <v>60.89000482071149</v>
+        <v>60.74964883064756</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1257,7 +1257,7 @@
         <v>52.64974847112209</v>
       </c>
       <c r="F23">
-        <v>86.58825822929261</v>
+        <v>86.9296610573671</v>
       </c>
       <c r="G23">
         <v>94.53856009382545</v>
@@ -1266,7 +1266,7 @@
         <v>47.6987508443456</v>
       </c>
       <c r="I23">
-        <v>56.67489760182744</v>
+        <v>56.72471044334673</v>
       </c>
       <c r="J23">
         <v>91.11947181226259</v>
@@ -1298,7 +1298,7 @@
         <v>47.11590339802956</v>
       </c>
       <c r="F24">
-        <v>84.66256132713005</v>
+        <v>84.49021201969977</v>
       </c>
       <c r="G24">
         <v>86.13077779371434</v>
@@ -1307,7 +1307,7 @@
         <v>49.6132650072728</v>
       </c>
       <c r="I24">
-        <v>57.30144169669969</v>
+        <v>57.27629483782508</v>
       </c>
       <c r="J24">
         <v>89.92284966246405</v>
@@ -1421,7 +1421,7 @@
         <v>46.27796586172929</v>
       </c>
       <c r="F27">
-        <v>65.4133617408244</v>
+        <v>64.16922269713174</v>
       </c>
       <c r="G27">
         <v>71.25482393077965</v>
@@ -1430,7 +1430,7 @@
         <v>43.35605997453435</v>
       </c>
       <c r="I27">
-        <v>48.54105295141589</v>
+        <v>48.35952516103124</v>
       </c>
       <c r="J27">
         <v>81.31427012055393</v>
@@ -1462,7 +1462,7 @@
         <v>50.12730205980426</v>
       </c>
       <c r="F28">
-        <v>79.81495153948839</v>
+        <v>80.44225236002772</v>
       </c>
       <c r="G28">
         <v>83.1750591086241</v>
@@ -1471,7 +1471,7 @@
         <v>44.23887405904489</v>
       </c>
       <c r="I28">
-        <v>52.17441309357164</v>
+        <v>52.26594026847727</v>
       </c>
       <c r="J28">
         <v>78.78346537540197</v>
@@ -1544,7 +1544,7 @@
         <v>42.12543399427167</v>
       </c>
       <c r="F30">
-        <v>73.93584037426621</v>
+        <v>72.95110293460537</v>
       </c>
       <c r="G30">
         <v>91.47560554102353</v>
@@ -1553,10 +1553,10 @@
         <v>39.92364689539923</v>
       </c>
       <c r="I30">
-        <v>48.52034033088438</v>
+        <v>48.37666088248438</v>
       </c>
       <c r="J30">
-        <v>80.70735359918608</v>
+        <v>80.5092565053784</v>
       </c>
       <c r="K30">
         <v>74.97437906384371</v>
@@ -1565,7 +1565,7 @@
         <v>40.61120564905949</v>
       </c>
       <c r="M30">
-        <v>48.88388228133493</v>
+        <v>48.85497865685435</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -1626,7 +1626,7 @@
         <v>45.04813643754562</v>
       </c>
       <c r="F32">
-        <v>79.26327573946971</v>
+        <v>79.97633428639682</v>
       </c>
       <c r="G32">
         <v>72.39988677728859</v>
@@ -1635,10 +1635,10 @@
         <v>39.91356487323767</v>
       </c>
       <c r="I32">
-        <v>47.94502502066615</v>
+        <v>48.04906479266332</v>
       </c>
       <c r="J32">
-        <v>84.73143267979674</v>
+        <v>84.39002985172223</v>
       </c>
       <c r="K32">
         <v>72.61942961892957</v>
@@ -1647,7 +1647,7 @@
         <v>40.20767800289072</v>
       </c>
       <c r="M32">
-        <v>48.98880726254764</v>
+        <v>48.93899442102835</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -1679,7 +1679,7 @@
         <v>48.66474242688336</v>
       </c>
       <c r="J33">
-        <v>84.3587124766175</v>
+        <v>81.99599502204249</v>
       </c>
       <c r="K33">
         <v>71.28959544708636</v>
@@ -1688,7 +1688,7 @@
         <v>39.63945162436756</v>
       </c>
       <c r="M33">
-        <v>48.39541777766324</v>
+        <v>48.05068229089705</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -1749,7 +1749,7 @@
         <v>39.31302420442155</v>
       </c>
       <c r="F35">
-        <v>84.86123655150125</v>
+        <v>82.49851909692626</v>
       </c>
       <c r="G35">
         <v>72.80600243291326</v>
@@ -1758,7 +1758,7 @@
         <v>35.87583926449984</v>
       </c>
       <c r="I35">
-        <v>45.62647095236365</v>
+        <v>45.28173546559746</v>
       </c>
       <c r="J35">
         <v>82.9980102706769</v>

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8903B43-618B-45F3-8838-EDB9BDDE9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -43,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +102,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -107,13 +116,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,35 +413,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -461,1357 +482,1357 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1989</v>
+      </c>
+      <c r="B3">
+        <v>91.725892083923867</v>
+      </c>
+      <c r="C3">
+        <v>84.721614820575866</v>
+      </c>
+      <c r="D3">
+        <v>61.349533416317101</v>
+      </c>
+      <c r="E3">
+        <v>67.429226163433867</v>
+      </c>
+      <c r="F3">
+        <v>88.266156860411371</v>
+      </c>
+      <c r="G3">
+        <v>96.005929475781301</v>
+      </c>
+      <c r="H3">
+        <v>84.693099961416891</v>
+      </c>
+      <c r="I3">
+        <v>86.011917071778697</v>
+      </c>
+      <c r="J3">
+        <v>96.016625405015716</v>
+      </c>
+      <c r="K3">
+        <v>96.126043889610656</v>
+      </c>
+      <c r="L3">
+        <v>88.200163067486514</v>
+      </c>
+      <c r="M3">
+        <v>89.899360785780729</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B4">
-        <v>91.72589208392387</v>
+        <v>91.132886395041993</v>
       </c>
       <c r="C4">
-        <v>84.72161482057587</v>
+        <v>83.4243999551569</v>
       </c>
       <c r="D4">
-        <v>61.3495334163171</v>
+        <v>56.812803185752053</v>
       </c>
       <c r="E4">
-        <v>67.42922616343387</v>
+        <v>63.696276451797537</v>
       </c>
       <c r="F4">
-        <v>88.26615686041137</v>
+        <v>90.058188530533741</v>
       </c>
       <c r="G4">
-        <v>96.0059294757813</v>
+        <v>96.474245907936094</v>
       </c>
       <c r="H4">
-        <v>84.69309996141689</v>
+        <v>84.108853529932347</v>
       </c>
       <c r="I4">
-        <v>86.0119170717787</v>
+        <v>85.848583967000465</v>
       </c>
       <c r="J4">
-        <v>96.01662540501572</v>
+        <v>97.303624112584046</v>
       </c>
       <c r="K4">
-        <v>96.12604388961066</v>
+        <v>97.779791161912684</v>
       </c>
       <c r="L4">
-        <v>88.20016306748651</v>
+        <v>87.038728831133724</v>
       </c>
       <c r="M4">
-        <v>89.89936078578073</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>89.293621578700566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B5">
-        <v>91.13288639504199</v>
+        <v>96.739278320575423</v>
       </c>
       <c r="C5">
-        <v>83.4243999551569</v>
+        <v>84.963787631025156</v>
       </c>
       <c r="D5">
-        <v>56.81280318575205</v>
+        <v>58.990231260181083</v>
       </c>
       <c r="E5">
-        <v>63.69627645179754</v>
+        <v>66.329034183522253</v>
       </c>
       <c r="F5">
-        <v>90.05818853053374</v>
+        <v>95.781419472946268</v>
       </c>
       <c r="G5">
-        <v>96.47424590793609</v>
+        <v>96.463506680566582</v>
       </c>
       <c r="H5">
-        <v>84.10885352993235</v>
+        <v>86.281822052770565</v>
       </c>
       <c r="I5">
-        <v>85.84858396700047</v>
+        <v>88.385620267765376</v>
       </c>
       <c r="J5">
-        <v>97.30362411258405</v>
+        <v>90.075337038765795</v>
       </c>
       <c r="K5">
-        <v>97.77979116191268</v>
+        <v>98.185224724178653</v>
       </c>
       <c r="L5">
-        <v>87.03872883113372</v>
+        <v>86.006543260964889</v>
       </c>
       <c r="M5">
-        <v>89.29362157870057</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>87.458728807191648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B6">
-        <v>96.73927832057542</v>
+        <v>94.114429836527819</v>
       </c>
       <c r="C6">
-        <v>84.96378763102516</v>
+        <v>89.678738892961448</v>
       </c>
       <c r="D6">
-        <v>58.99023126018108</v>
+        <v>61.37865252324216</v>
       </c>
       <c r="E6">
-        <v>66.32903418352225</v>
+        <v>68.149993701727411</v>
       </c>
       <c r="F6">
-        <v>95.78141947294627</v>
+        <v>95.640290071142033</v>
       </c>
       <c r="G6">
-        <v>96.46350668056658</v>
+        <v>97.35093363241154</v>
       </c>
       <c r="H6">
-        <v>86.28182205277056</v>
+        <v>85.249992930551485</v>
       </c>
       <c r="I6">
-        <v>88.38562026776538</v>
+        <v>87.619045728360575</v>
       </c>
       <c r="J6">
-        <v>90.0753370387658</v>
+        <v>96.859414639316256</v>
       </c>
       <c r="K6">
-        <v>98.18522472417865</v>
+        <v>98.374612142058496</v>
       </c>
       <c r="L6">
-        <v>86.00654326096489</v>
+        <v>85.08404749548977</v>
       </c>
       <c r="M6">
-        <v>87.45872880719165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>87.739052030770978</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B7">
-        <v>94.11442983652782</v>
+        <v>91.026588523001209</v>
       </c>
       <c r="C7">
-        <v>89.67873889296145</v>
+        <v>75.367188912861067</v>
       </c>
       <c r="D7">
-        <v>61.37865252324216</v>
+        <v>61.64181969006588</v>
       </c>
       <c r="E7">
-        <v>68.14999370172741</v>
+        <v>66.896798870717674</v>
       </c>
       <c r="F7">
-        <v>95.64029007114203</v>
+        <v>93.614590013809234</v>
       </c>
       <c r="G7">
-        <v>97.35093363241154</v>
+        <v>95.129601486450127</v>
       </c>
       <c r="H7">
-        <v>85.24999293055149</v>
+        <v>83.17917827003923</v>
       </c>
       <c r="I7">
-        <v>87.61904572836058</v>
+        <v>85.544203011332598</v>
       </c>
       <c r="J7">
-        <v>96.85941463931626</v>
+        <v>96.34166469642706</v>
       </c>
       <c r="K7">
-        <v>98.3746121420585</v>
+        <v>98.298900315589179</v>
       </c>
       <c r="L7">
-        <v>85.08404749548977</v>
+        <v>83.399069559513904</v>
       </c>
       <c r="M7">
-        <v>87.73905203077098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>86.337823509517534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B8">
-        <v>91.02658852300121</v>
+        <v>95.499984785059453</v>
       </c>
       <c r="C8">
-        <v>75.36718891286107</v>
+        <v>85.811999023084127</v>
       </c>
       <c r="D8">
-        <v>61.64181969006588</v>
+        <v>62.913338323921387</v>
       </c>
       <c r="E8">
-        <v>66.89679887071767</v>
+        <v>69.28215283268014</v>
       </c>
       <c r="F8">
-        <v>93.61459001380923</v>
+        <v>96.859414639316256</v>
       </c>
       <c r="G8">
-        <v>95.12960148645013</v>
+        <v>97.3503216142838</v>
       </c>
       <c r="H8">
-        <v>83.17917827003923</v>
+        <v>81.942846152176841</v>
       </c>
       <c r="I8">
-        <v>85.5442030113326</v>
+        <v>85.205401206777921</v>
       </c>
       <c r="J8">
-        <v>96.34166469642706</v>
+        <v>96.084499544409809</v>
       </c>
       <c r="K8">
-        <v>98.29890031558918</v>
+        <v>98.199067387033949</v>
       </c>
       <c r="L8">
-        <v>83.3990695595139</v>
+        <v>80.559234385726811</v>
       </c>
       <c r="M8">
-        <v>86.33782350951753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>84.067969728399049</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B9">
-        <v>95.49998478505945</v>
+        <v>92.801362359739571</v>
       </c>
       <c r="C9">
-        <v>85.81199902308413</v>
+        <v>85.777695128772436</v>
       </c>
       <c r="D9">
-        <v>62.91333832392139</v>
+        <v>58.681022875551712</v>
       </c>
       <c r="E9">
-        <v>69.28215283268014</v>
+        <v>65.569547123095717</v>
       </c>
       <c r="F9">
-        <v>96.85941463931626</v>
+        <v>93.885851515452913</v>
       </c>
       <c r="G9">
-        <v>97.3503216142838</v>
+        <v>97.108588107217102</v>
       </c>
       <c r="H9">
-        <v>81.94284615217684</v>
+        <v>77.892064702119583</v>
       </c>
       <c r="I9">
-        <v>85.20540120677792</v>
+        <v>81.580307377554561</v>
       </c>
       <c r="J9">
-        <v>96.08449954440981</v>
+        <v>96.084499544409809</v>
       </c>
       <c r="K9">
-        <v>98.19906738703395</v>
+        <v>97.740364259469686</v>
       </c>
       <c r="L9">
-        <v>80.55923438572681</v>
+        <v>79.284350718122482</v>
       </c>
       <c r="M9">
-        <v>84.06796972839905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>83.036635431950074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B10">
-        <v>92.80136235973957</v>
+        <v>89.44889783791885</v>
       </c>
       <c r="C10">
-        <v>85.77769512877244</v>
+        <v>80.593130693107724</v>
       </c>
       <c r="D10">
-        <v>58.68102287555171</v>
+        <v>59.561722040434283</v>
       </c>
       <c r="E10">
-        <v>65.56954712309572</v>
+        <v>65.405036761221467</v>
       </c>
       <c r="F10">
-        <v>93.88585151545291</v>
+        <v>89.191304745190507</v>
       </c>
       <c r="G10">
-        <v>97.1085881072171</v>
+        <v>96.73514388748967</v>
       </c>
       <c r="H10">
-        <v>77.89206470211958</v>
+        <v>76.635033736614574</v>
       </c>
       <c r="I10">
-        <v>81.58030737755456</v>
+        <v>79.884008488664037</v>
       </c>
       <c r="J10">
-        <v>96.08449954440981</v>
+        <v>92.787851586473181</v>
       </c>
       <c r="K10">
-        <v>97.74036425946969</v>
+        <v>97.43298304900128</v>
       </c>
       <c r="L10">
-        <v>79.28435071812248</v>
+        <v>78.990285256023824</v>
       </c>
       <c r="M10">
-        <v>83.03663543195007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>82.303535429596778</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B11">
-        <v>89.44889783791885</v>
+        <v>88.576446031632713</v>
       </c>
       <c r="C11">
-        <v>80.59313069310772</v>
+        <v>85.507750065935781</v>
       </c>
       <c r="D11">
-        <v>59.56172204043428</v>
+        <v>59.135340081133997</v>
       </c>
       <c r="E11">
-        <v>65.40503676122147</v>
+        <v>65.290078361450469</v>
       </c>
       <c r="F11">
-        <v>89.19130474519051</v>
+        <v>88.51743962434027</v>
       </c>
       <c r="G11">
-        <v>96.73514388748967</v>
+        <v>96.29124815189671</v>
       </c>
       <c r="H11">
-        <v>76.63503373661457</v>
+        <v>79.190435500184876</v>
       </c>
       <c r="I11">
-        <v>79.88400848866404</v>
+        <v>81.756807537273545</v>
       </c>
       <c r="J11">
-        <v>92.78785158647318</v>
+        <v>91.147019963406848</v>
       </c>
       <c r="K11">
-        <v>97.43298304900128</v>
+        <v>97.104515291314897</v>
       </c>
       <c r="L11">
-        <v>78.99028525602382</v>
+        <v>77.696298378545592</v>
       </c>
       <c r="M11">
-        <v>82.30353542959678</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>81.027004903161071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B12">
-        <v>88.57644603163271</v>
+        <v>92.59486731098572</v>
       </c>
       <c r="C12">
-        <v>85.50775006593578</v>
+        <v>78.810184612564356</v>
       </c>
       <c r="D12">
-        <v>59.135340081134</v>
+        <v>60.465115181265972</v>
       </c>
       <c r="E12">
-        <v>65.29007836145047</v>
+        <v>66.4462655223534</v>
       </c>
       <c r="F12">
-        <v>88.51743962434027</v>
+        <v>90.998643423715066</v>
       </c>
       <c r="G12">
-        <v>96.29124815189671</v>
+        <v>91.965147147016197</v>
       </c>
       <c r="H12">
-        <v>79.19043550018488</v>
+        <v>78.690676180648865</v>
       </c>
       <c r="I12">
-        <v>81.75680753727354</v>
+        <v>81.422255947779348</v>
       </c>
       <c r="J12">
-        <v>91.14701996340685</v>
+        <v>90.789583344285333</v>
       </c>
       <c r="K12">
-        <v>97.1045152913149</v>
+        <v>96.255726389647336</v>
       </c>
       <c r="L12">
-        <v>77.69629837854559</v>
+        <v>76.424463420560969</v>
       </c>
       <c r="M12">
-        <v>81.02700490316107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>79.918408635944047</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B13">
-        <v>92.59486731098572</v>
+        <v>89.979203948421841</v>
       </c>
       <c r="C13">
-        <v>78.81018461256436</v>
+        <v>83.620572195350107</v>
       </c>
       <c r="D13">
-        <v>60.46511518126597</v>
+        <v>60.443798225960563</v>
       </c>
       <c r="E13">
-        <v>66.4462655223534</v>
+        <v>66.38702261418311</v>
       </c>
       <c r="F13">
-        <v>90.99864342371507</v>
+        <v>89.641911768994717</v>
       </c>
       <c r="G13">
-        <v>91.9651471470162</v>
+        <v>94.177572095867646</v>
       </c>
       <c r="H13">
-        <v>78.69067618064886</v>
+        <v>76.030650214936117</v>
       </c>
       <c r="I13">
-        <v>81.42225594777935</v>
+        <v>79.29586694213701</v>
       </c>
       <c r="J13">
-        <v>90.78958334428533</v>
+        <v>88.919692232119772</v>
       </c>
       <c r="K13">
-        <v>96.25572638964734</v>
+        <v>94.892767196826952</v>
       </c>
       <c r="L13">
-        <v>76.42446342056097</v>
+        <v>73.625399933345861</v>
       </c>
       <c r="M13">
-        <v>79.91840863594405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>77.356153885719081</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B14">
-        <v>89.97920394842184</v>
+        <v>92.086941160263777</v>
       </c>
       <c r="C14">
-        <v>83.62057219535011</v>
+        <v>79.381593213104082</v>
       </c>
       <c r="D14">
-        <v>60.44379822596056</v>
+        <v>56.572528172100291</v>
       </c>
       <c r="E14">
-        <v>66.38702261418311</v>
+        <v>63.362206470137131</v>
       </c>
       <c r="F14">
-        <v>89.64191176899472</v>
+        <v>89.984856708760802</v>
       </c>
       <c r="G14">
-        <v>94.17757209586765</v>
+        <v>87.970240326953444</v>
       </c>
       <c r="H14">
-        <v>76.03065021493612</v>
+        <v>70.868184764766596</v>
       </c>
       <c r="I14">
-        <v>79.29586694213701</v>
+        <v>74.863019147299326</v>
       </c>
       <c r="J14">
-        <v>88.91969223211977</v>
+        <v>88.47548275885201</v>
       </c>
       <c r="K14">
-        <v>94.89276719682695</v>
+        <v>97.327195313675531</v>
       </c>
       <c r="L14">
-        <v>73.62539993334586</v>
+        <v>71.716033108154733</v>
       </c>
       <c r="M14">
-        <v>77.35615388571908</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>75.966773848256338</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B15">
-        <v>92.08694116026378</v>
+        <v>87.342575670737943</v>
       </c>
       <c r="C15">
-        <v>79.38159321310408</v>
+        <v>82.154115339325898</v>
       </c>
       <c r="D15">
-        <v>56.57252817210029</v>
+        <v>53.209359081013773</v>
       </c>
       <c r="E15">
-        <v>63.36220647013713</v>
+        <v>60.230040818812228</v>
       </c>
       <c r="F15">
-        <v>89.9848567087608</v>
+        <v>88.515942926224255</v>
       </c>
       <c r="G15">
-        <v>87.97024032695344</v>
+        <v>93.612598506163067</v>
       </c>
       <c r="H15">
-        <v>70.8681847647666</v>
+        <v>65.513986293084372</v>
       </c>
       <c r="I15">
-        <v>74.86301914729933</v>
+        <v>70.850898498270482</v>
       </c>
       <c r="J15">
-        <v>88.47548275885201</v>
+        <v>90.438938615726812</v>
       </c>
       <c r="K15">
-        <v>97.32719531367553</v>
+        <v>96.054395363668519</v>
       </c>
       <c r="L15">
-        <v>71.71603310815473</v>
+        <v>68.126001802892333</v>
       </c>
       <c r="M15">
-        <v>75.96677384825634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>73.35038226330623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B16">
-        <v>87.34257567073794</v>
+        <v>88.581619189183996</v>
       </c>
       <c r="C16">
-        <v>82.1541153393259</v>
+        <v>77.991055434469231</v>
       </c>
       <c r="D16">
-        <v>53.20935908101377</v>
+        <v>52.954136927272202</v>
       </c>
       <c r="E16">
-        <v>60.23004081881223</v>
+        <v>59.917362817715969</v>
       </c>
       <c r="F16">
-        <v>88.51594292622426</v>
+        <v>87.180315157655855</v>
       </c>
       <c r="G16">
-        <v>93.61259850616307</v>
+        <v>95.434968920245055</v>
       </c>
       <c r="H16">
-        <v>65.51398629308437</v>
+        <v>65.783361768854832</v>
       </c>
       <c r="I16">
-        <v>70.85089849827048</v>
+        <v>70.99557046547136</v>
       </c>
       <c r="J16">
-        <v>90.43893861572681</v>
+        <v>89.800719782740913</v>
       </c>
       <c r="K16">
-        <v>96.05439536366852</v>
+        <v>95.479823549721786</v>
       </c>
       <c r="L16">
-        <v>68.12600180289233</v>
+        <v>66.482414225482103</v>
       </c>
       <c r="M16">
-        <v>73.35038226330623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>71.928843457101692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B17">
-        <v>88.581619189184</v>
+        <v>92.94872745481365</v>
       </c>
       <c r="C17">
-        <v>77.99105543446923</v>
+        <v>87.086016092349865</v>
       </c>
       <c r="D17">
-        <v>52.9541369272722</v>
+        <v>51.216967313612507</v>
       </c>
       <c r="E17">
-        <v>59.91736281771597</v>
+        <v>59.834445174400003</v>
       </c>
       <c r="F17">
-        <v>87.18031515765585</v>
+        <v>91.300467339976748</v>
       </c>
       <c r="G17">
-        <v>95.43496892024505</v>
+        <v>90.382958928863275</v>
       </c>
       <c r="H17">
-        <v>65.78336176885483</v>
+        <v>60.92714528708067</v>
       </c>
       <c r="I17">
-        <v>70.99557046547136</v>
+        <v>67.435260950901835</v>
       </c>
       <c r="J17">
-        <v>89.80071978274091</v>
+        <v>87.477846261160622</v>
       </c>
       <c r="K17">
-        <v>95.47982354972179</v>
+        <v>96.107693651231799</v>
       </c>
       <c r="L17">
-        <v>66.4824142254821</v>
+        <v>63.672631988390073</v>
       </c>
       <c r="M17">
-        <v>71.92884345710169</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>69.432437795931222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B18">
-        <v>92.94872745481365</v>
+        <v>86.951181762499743</v>
       </c>
       <c r="C18">
-        <v>87.08601609234987</v>
+        <v>76.233129563682169</v>
       </c>
       <c r="D18">
-        <v>51.21696731361251</v>
+        <v>54.033285057190859</v>
       </c>
       <c r="E18">
-        <v>59.8344451744</v>
+        <v>60.401168806067901</v>
       </c>
       <c r="F18">
-        <v>91.30046733997675</v>
+        <v>90.981465855413347</v>
       </c>
       <c r="G18">
-        <v>90.38295892886327</v>
+        <v>94.324952572540241</v>
       </c>
       <c r="H18">
-        <v>60.92714528708067</v>
+        <v>66.110335683585589</v>
       </c>
       <c r="I18">
-        <v>67.43526095090184</v>
+        <v>71.72814980414168</v>
       </c>
       <c r="J18">
-        <v>87.47784626116062</v>
+        <v>91.06565557687918</v>
       </c>
       <c r="K18">
-        <v>96.1076936512318</v>
+        <v>96.058350106440557</v>
       </c>
       <c r="L18">
-        <v>63.67263198839007</v>
+        <v>57.683164121486257</v>
       </c>
       <c r="M18">
-        <v>69.43243779593122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>65.259098010456043</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B19">
-        <v>86.95118176249974</v>
+        <v>82.963412152784514</v>
       </c>
       <c r="C19">
-        <v>76.23312956368217</v>
+        <v>72.822624513473414</v>
       </c>
       <c r="D19">
-        <v>54.03328505719086</v>
+        <v>50.586355419459849</v>
       </c>
       <c r="E19">
-        <v>60.4011688060679</v>
+        <v>56.877894891541281</v>
       </c>
       <c r="F19">
-        <v>90.98146585541335</v>
+        <v>88.598563998918962</v>
       </c>
       <c r="G19">
-        <v>94.32495257254024</v>
+        <v>89.798710146455548</v>
       </c>
       <c r="H19">
-        <v>66.11033568358559</v>
+        <v>55.161131258315663</v>
       </c>
       <c r="I19">
-        <v>71.72814980414168</v>
+        <v>62.481602949737663</v>
       </c>
       <c r="J19">
-        <v>91.06565557687918</v>
+        <v>91.0487096766024</v>
       </c>
       <c r="K19">
-        <v>96.05835010644056</v>
+        <v>94.495836262925138</v>
       </c>
       <c r="L19">
-        <v>57.68316412148626</v>
+        <v>55.823119072049352</v>
       </c>
       <c r="M19">
-        <v>65.25909801045604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>63.688946969353587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B20">
-        <v>82.96341215278451</v>
+        <v>90.525122598558994</v>
       </c>
       <c r="C20">
-        <v>72.82262451347341</v>
+        <v>85.555011041820194</v>
       </c>
       <c r="D20">
-        <v>50.58635541945985</v>
+        <v>46.344048544207283</v>
       </c>
       <c r="E20">
-        <v>56.87789489154128</v>
+        <v>55.554481378093982</v>
       </c>
       <c r="F20">
-        <v>88.59856399891896</v>
+        <v>91.807062177025628</v>
       </c>
       <c r="G20">
-        <v>89.79871014645555</v>
+        <v>93.174041003683314</v>
       </c>
       <c r="H20">
-        <v>55.16113125831566</v>
+        <v>52.444099464657221</v>
       </c>
       <c r="I20">
-        <v>62.48160294973766</v>
+        <v>61.058617992879817</v>
       </c>
       <c r="J20">
-        <v>91.0487096766024</v>
+        <v>93.702899936284226</v>
       </c>
       <c r="K20">
-        <v>94.49583626292514</v>
+        <v>95.980013765935325</v>
       </c>
       <c r="L20">
-        <v>55.82311907204935</v>
+        <v>54.484989298109802</v>
       </c>
       <c r="M20">
-        <v>63.68894696935359</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>63.132277482415653</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B21">
-        <v>90.52512259855899</v>
+        <v>90.081967472232705</v>
       </c>
       <c r="C21">
-        <v>85.55501104182019</v>
+        <v>66.545827201580963</v>
       </c>
       <c r="D21">
-        <v>46.34404854420728</v>
+        <v>49.470913188806882</v>
       </c>
       <c r="E21">
-        <v>55.55448137809398</v>
+        <v>56.600001193132648</v>
       </c>
       <c r="F21">
-        <v>91.80706217702563</v>
+        <v>92.144509982761164</v>
       </c>
       <c r="G21">
-        <v>93.17404100368331</v>
+        <v>91.877061045845835</v>
       </c>
       <c r="H21">
-        <v>52.44409946465722</v>
+        <v>54.276152668234808</v>
       </c>
       <c r="I21">
-        <v>61.05861799287982</v>
+        <v>62.452021040467443</v>
       </c>
       <c r="J21">
-        <v>93.70289993628423</v>
+        <v>91.376636964279854</v>
       </c>
       <c r="K21">
-        <v>95.98001376593533</v>
+        <v>94.92539114050598</v>
       </c>
       <c r="L21">
-        <v>54.4849892981098</v>
+        <v>51.972395792422951</v>
       </c>
       <c r="M21">
-        <v>63.13227748241565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>60.749648830647558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B22">
-        <v>90.08196747223271</v>
+        <v>86.786238104920429</v>
       </c>
       <c r="C22">
-        <v>66.54582720158096</v>
+        <v>67.125974512002259</v>
       </c>
       <c r="D22">
-        <v>49.47091318880688</v>
+        <v>44.991226076624997</v>
       </c>
       <c r="E22">
-        <v>56.60000119313265</v>
+        <v>52.649748471122088</v>
       </c>
       <c r="F22">
-        <v>92.14450998276116</v>
+        <v>86.929661057367099</v>
       </c>
       <c r="G22">
-        <v>91.87706104584583</v>
+        <v>94.538560093825453</v>
       </c>
       <c r="H22">
-        <v>54.27615266823481</v>
+        <v>47.698750844345597</v>
       </c>
       <c r="I22">
-        <v>62.45202104046744</v>
+        <v>56.72471044334673</v>
       </c>
       <c r="J22">
-        <v>91.37663696427985</v>
+        <v>91.119471812262589</v>
       </c>
       <c r="K22">
-        <v>94.92539114050598</v>
+        <v>96.376428347566588</v>
       </c>
       <c r="L22">
-        <v>51.97239579242295</v>
+        <v>51.01217689392967</v>
       </c>
       <c r="M22">
-        <v>60.74964883064756</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>60.061988773550482</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B23">
-        <v>86.78623810492043</v>
+        <v>75.538780450611739</v>
       </c>
       <c r="C23">
-        <v>67.12597451200226</v>
+        <v>67.921536636289375</v>
       </c>
       <c r="D23">
-        <v>44.991226076625</v>
+        <v>39.951852587547762</v>
       </c>
       <c r="E23">
-        <v>52.64974847112209</v>
+        <v>47.115903398029559</v>
       </c>
       <c r="F23">
-        <v>86.9296610573671</v>
+        <v>84.490212019699769</v>
       </c>
       <c r="G23">
-        <v>94.53856009382545</v>
+        <v>86.130777793714344</v>
       </c>
       <c r="H23">
-        <v>47.6987508443456</v>
+        <v>49.613265007272801</v>
       </c>
       <c r="I23">
-        <v>56.72471044334673</v>
+        <v>57.276294837825077</v>
       </c>
       <c r="J23">
-        <v>91.11947181226259</v>
+        <v>89.922849662464046</v>
       </c>
       <c r="K23">
-        <v>96.37642834756659</v>
+        <v>91.630050877734448</v>
       </c>
       <c r="L23">
-        <v>51.01217689392967</v>
+        <v>51.050936499777073</v>
       </c>
       <c r="M23">
-        <v>60.06198877355048</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>59.583175385135689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B24">
-        <v>75.53878045061174</v>
+        <v>81.599456188712878</v>
       </c>
       <c r="C24">
-        <v>67.92153663628937</v>
+        <v>69.794179814352518</v>
       </c>
       <c r="D24">
-        <v>39.95185258754776</v>
+        <v>41.495992110089112</v>
       </c>
       <c r="E24">
-        <v>47.11590339802956</v>
+        <v>49.342191749604453</v>
       </c>
       <c r="F24">
-        <v>84.49021201969977</v>
+        <v>88.015059224716865</v>
       </c>
       <c r="G24">
-        <v>86.13077779371434</v>
+        <v>77.34343368000799</v>
       </c>
       <c r="H24">
-        <v>49.6132650072728</v>
+        <v>49.635035697414857</v>
       </c>
       <c r="I24">
-        <v>57.27629483782508</v>
+        <v>57.188197837246307</v>
       </c>
       <c r="J24">
-        <v>89.92284966246405</v>
+        <v>85.702263674351912</v>
       </c>
       <c r="K24">
-        <v>91.63005087773445</v>
+        <v>85.085969336730543</v>
       </c>
       <c r="L24">
-        <v>51.05093649977707</v>
+        <v>49.477963019996892</v>
       </c>
       <c r="M24">
-        <v>59.58317538513569</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>57.273465653472513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B25">
-        <v>81.59945618871288</v>
+        <v>87.810636258427522</v>
       </c>
       <c r="C25">
-        <v>69.79417981435252</v>
+        <v>73.556027236744612</v>
       </c>
       <c r="D25">
-        <v>41.49599211008911</v>
+        <v>47.156640905223988</v>
       </c>
       <c r="E25">
-        <v>49.34219174960445</v>
+        <v>54.949312651668599</v>
       </c>
       <c r="F25">
-        <v>88.01505922471686</v>
+        <v>89.758213422489192</v>
       </c>
       <c r="G25">
-        <v>77.34343368000799</v>
+        <v>75.650398459879597</v>
       </c>
       <c r="H25">
-        <v>49.63503569741486</v>
+        <v>50.846825160135481</v>
       </c>
       <c r="I25">
-        <v>57.18819783724631</v>
+        <v>58.272744386000618</v>
       </c>
       <c r="J25">
-        <v>85.70226367435191</v>
+        <v>82.148516615275398</v>
       </c>
       <c r="K25">
-        <v>85.08596933673054</v>
+        <v>81.216462059595656</v>
       </c>
       <c r="L25">
-        <v>49.47796301999689</v>
+        <v>46.895155421428427</v>
       </c>
       <c r="M25">
-        <v>57.27346565347251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>54.45828734801804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B26">
-        <v>87.81063625842752</v>
+        <v>60.190731438617313</v>
       </c>
       <c r="C26">
-        <v>73.55602723674461</v>
+        <v>65.030793684132775</v>
       </c>
       <c r="D26">
-        <v>47.15664090522399</v>
+        <v>42.000372948166607</v>
       </c>
       <c r="E26">
-        <v>54.9493126516686</v>
+        <v>46.277965861729292</v>
       </c>
       <c r="F26">
-        <v>89.75821342248919</v>
+        <v>64.169222697131744</v>
       </c>
       <c r="G26">
-        <v>75.6503984598796</v>
+        <v>71.254823930779651</v>
       </c>
       <c r="H26">
-        <v>50.84682516013548</v>
+        <v>43.356059974534347</v>
       </c>
       <c r="I26">
-        <v>58.27274438600062</v>
+        <v>48.359525161031243</v>
       </c>
       <c r="J26">
-        <v>82.1485166152754</v>
+        <v>81.314270120553928</v>
       </c>
       <c r="K26">
-        <v>81.21646205959566</v>
+        <v>77.784067403252124</v>
       </c>
       <c r="L26">
-        <v>46.89515542142843</v>
+        <v>44.42612879306806</v>
       </c>
       <c r="M26">
-        <v>54.45828734801804</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>52.159873962714947</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B27">
-        <v>60.19073143861731</v>
+        <v>76.36914018046798</v>
       </c>
       <c r="C27">
-        <v>65.03079368413277</v>
+        <v>71.83245400314307</v>
       </c>
       <c r="D27">
-        <v>42.00037294816661</v>
+        <v>43.288438768366952</v>
       </c>
       <c r="E27">
-        <v>46.27796586172929</v>
+        <v>50.127302059804258</v>
       </c>
       <c r="F27">
-        <v>64.16922269713174</v>
+        <v>80.442252360027723</v>
       </c>
       <c r="G27">
-        <v>71.25482393077965</v>
+        <v>83.175059108624097</v>
       </c>
       <c r="H27">
-        <v>43.35605997453435</v>
+        <v>44.238874059044889</v>
       </c>
       <c r="I27">
-        <v>48.35952516103124</v>
+        <v>52.265940268477273</v>
       </c>
       <c r="J27">
-        <v>81.31427012055393</v>
+        <v>78.783465375401974</v>
       </c>
       <c r="K27">
-        <v>77.78406740325212</v>
+        <v>77.950838977757073</v>
       </c>
       <c r="L27">
-        <v>44.42612879306806</v>
+        <v>42.460205203987009</v>
       </c>
       <c r="M27">
-        <v>52.15987396271495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>50.261872612030622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B28">
-        <v>76.36914018046798</v>
+        <v>68.575575039776794</v>
       </c>
       <c r="C28">
-        <v>71.83245400314307</v>
+        <v>75.135121386773918</v>
       </c>
       <c r="D28">
-        <v>43.28843876836695</v>
+        <v>33.007713253438929</v>
       </c>
       <c r="E28">
-        <v>50.12730205980426</v>
+        <v>41.167015309165492</v>
       </c>
       <c r="F28">
-        <v>80.44225236002772</v>
+        <v>77.638344701828004</v>
       </c>
       <c r="G28">
-        <v>83.1750591086241</v>
+        <v>73.363254751241143</v>
       </c>
       <c r="H28">
-        <v>44.23887405904489</v>
+        <v>39.858423574198667</v>
       </c>
       <c r="I28">
-        <v>52.26594026847727</v>
+        <v>47.732640111188381</v>
       </c>
       <c r="J28">
-        <v>78.78346537540197</v>
+        <v>78.665375146150936</v>
       </c>
       <c r="K28">
-        <v>77.95083897775707</v>
+        <v>76.434169746523139</v>
       </c>
       <c r="L28">
-        <v>42.46020520398701</v>
+        <v>41.156467420901038</v>
       </c>
       <c r="M28">
-        <v>50.26187261203062</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>49.116117972341392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B29">
-        <v>68.57557503977679</v>
+        <v>63.568846061343869</v>
       </c>
       <c r="C29">
-        <v>75.13512138677392</v>
+        <v>62.119733365458892</v>
       </c>
       <c r="D29">
-        <v>33.00771325343893</v>
+        <v>36.333949167457739</v>
       </c>
       <c r="E29">
-        <v>41.16701530916549</v>
+        <v>42.125433994271667</v>
       </c>
       <c r="F29">
-        <v>77.638344701828</v>
+        <v>72.951102934605373</v>
       </c>
       <c r="G29">
-        <v>73.36325475124114</v>
+        <v>91.475605541023526</v>
       </c>
       <c r="H29">
-        <v>39.85842357419867</v>
+        <v>39.92364689539923</v>
       </c>
       <c r="I29">
-        <v>47.73264011118838</v>
+        <v>48.37666088248438</v>
       </c>
       <c r="J29">
-        <v>78.66537514615094</v>
+        <v>80.509256505378403</v>
       </c>
       <c r="K29">
-        <v>76.43416974652314</v>
+        <v>74.974379063843713</v>
       </c>
       <c r="L29">
-        <v>41.15646742090104</v>
+        <v>40.611205649059492</v>
       </c>
       <c r="M29">
-        <v>49.11611797234139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>48.85497865685435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B30">
-        <v>63.56884606134387</v>
+        <v>86.317671964077817</v>
       </c>
       <c r="C30">
-        <v>62.11973336545889</v>
+        <v>66.741180394983971</v>
       </c>
       <c r="D30">
-        <v>36.33394916745774</v>
+        <v>34.182104682497119</v>
       </c>
       <c r="E30">
-        <v>42.12543399427167</v>
+        <v>44.084231207678037</v>
       </c>
       <c r="F30">
-        <v>72.95110293460537</v>
+        <v>90.69882274988143</v>
       </c>
       <c r="G30">
-        <v>91.47560554102353</v>
+        <v>73.14333264496581</v>
       </c>
       <c r="H30">
-        <v>39.92364689539923</v>
+        <v>39.589977639389382</v>
       </c>
       <c r="I30">
-        <v>48.37666088248438</v>
+        <v>49.412389496648863</v>
       </c>
       <c r="J30">
-        <v>80.5092565053784</v>
+        <v>82.068055805126676</v>
       </c>
       <c r="K30">
-        <v>74.97437906384371</v>
+        <v>73.245877626314808</v>
       </c>
       <c r="L30">
-        <v>40.61120564905949</v>
+        <v>40.989519214057601</v>
       </c>
       <c r="M30">
-        <v>48.85497865685435</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>49.257014995710207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B31">
-        <v>86.31767196407782</v>
+        <v>76.12742263499203</v>
       </c>
       <c r="C31">
-        <v>66.74118039498397</v>
+        <v>62.379040230674867</v>
       </c>
       <c r="D31">
-        <v>34.18210468249712</v>
+        <v>37.702054227714463</v>
       </c>
       <c r="E31">
-        <v>44.08423120767804</v>
+        <v>45.048136437545622</v>
       </c>
       <c r="F31">
-        <v>90.69882274988143</v>
+        <v>79.976334286396821</v>
       </c>
       <c r="G31">
-        <v>73.14333264496581</v>
+        <v>72.399886777288586</v>
       </c>
       <c r="H31">
-        <v>39.58997763938938</v>
+        <v>39.913564873237668</v>
       </c>
       <c r="I31">
-        <v>49.41238949664886</v>
+        <v>48.049064792663323</v>
       </c>
       <c r="J31">
-        <v>82.06805580512668</v>
+        <v>84.390029851722232</v>
       </c>
       <c r="K31">
-        <v>73.24587762631481</v>
+        <v>72.619429618929573</v>
       </c>
       <c r="L31">
-        <v>40.9895192140576</v>
+        <v>40.207678002890717</v>
       </c>
       <c r="M31">
-        <v>49.25701499571021</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>48.938994421028347</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B32">
-        <v>76.12742263499203</v>
+        <v>84.031398540879849</v>
       </c>
       <c r="C32">
-        <v>62.37904023067487</v>
+        <v>75.714274570390558</v>
       </c>
       <c r="D32">
-        <v>37.70205422771446</v>
+        <v>39.293227928235737</v>
       </c>
       <c r="E32">
-        <v>45.04813643754562</v>
+        <v>48.388272655386018</v>
       </c>
       <c r="F32">
-        <v>79.97633428639682</v>
+        <v>83.611415936900627</v>
       </c>
       <c r="G32">
-        <v>72.39988677728859</v>
+        <v>73.092220256938703</v>
       </c>
       <c r="H32">
-        <v>39.91356487323767</v>
+        <v>39.960133092151253</v>
       </c>
       <c r="I32">
-        <v>48.04906479266332</v>
+        <v>48.664742426883357</v>
       </c>
       <c r="J32">
-        <v>84.39002985172223</v>
+        <v>81.995995022042493</v>
       </c>
       <c r="K32">
-        <v>72.61942961892957</v>
+        <v>71.289595447086356</v>
       </c>
       <c r="L32">
-        <v>40.20767800289072</v>
+        <v>39.63945162436756</v>
       </c>
       <c r="M32">
-        <v>48.93899442102835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>48.050682290897051</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B33">
-        <v>84.03139854087985</v>
+        <v>76.130657852959601</v>
       </c>
       <c r="C33">
-        <v>75.71427457039056</v>
+        <v>68.422651529393164</v>
       </c>
       <c r="D33">
-        <v>39.29322792823574</v>
+        <v>35.211115568165468</v>
       </c>
       <c r="E33">
-        <v>48.38827265538602</v>
+        <v>43.52274725575262</v>
       </c>
       <c r="F33">
-        <v>83.61141593690063</v>
+        <v>78.478458682936832</v>
       </c>
       <c r="G33">
-        <v>73.0922202569387</v>
+        <v>76.096320236585228</v>
       </c>
       <c r="H33">
-        <v>39.96013309215125</v>
+        <v>37.60650485628608</v>
       </c>
       <c r="I33">
-        <v>48.66474242688336</v>
+        <v>46.283279557635737</v>
       </c>
       <c r="J33">
-        <v>81.99599502204249</v>
+        <v>81.512498277563623</v>
       </c>
       <c r="K33">
-        <v>71.28959544708636</v>
+        <v>74.4275677418171</v>
       </c>
       <c r="L33">
-        <v>39.63945162436756</v>
+        <v>38.040310988117568</v>
       </c>
       <c r="M33">
-        <v>48.05068229089705</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>46.948258724899013</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B34">
-        <v>76.1306578529596</v>
+        <v>79.938097834841372</v>
       </c>
       <c r="C34">
-        <v>68.42265152939316</v>
+        <v>55.779064075588309</v>
       </c>
       <c r="D34">
-        <v>35.21111556816547</v>
+        <v>30.267319962392829</v>
       </c>
       <c r="E34">
-        <v>43.52274725575262</v>
+        <v>39.313024204421552</v>
       </c>
       <c r="F34">
-        <v>78.47845868293683</v>
+        <v>82.498519096926259</v>
       </c>
       <c r="G34">
-        <v>76.09632023658523</v>
+        <v>72.80600243291326</v>
       </c>
       <c r="H34">
-        <v>37.60650485628608</v>
+        <v>35.875839264499838</v>
       </c>
       <c r="I34">
-        <v>46.28327955763574</v>
+        <v>45.281735465597457</v>
       </c>
       <c r="J34">
-        <v>81.51249827756362</v>
+        <v>82.9980102706769</v>
       </c>
       <c r="K34">
-        <v>74.4275677418171</v>
+        <v>79.317731132396844</v>
       </c>
       <c r="L34">
-        <v>38.04031098811757</v>
+        <v>37.012952343745347</v>
       </c>
       <c r="M34">
-        <v>46.94825872489901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
-      <c r="A35" s="1">
-        <v>2020</v>
+        <v>46.704693044199097</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>79.93809783484137</v>
+        <v>75.900090415374137</v>
       </c>
       <c r="C35">
-        <v>55.77906407558831</v>
+        <v>69.870433267781223</v>
       </c>
       <c r="D35">
-        <v>30.26731996239283</v>
+        <v>38.661039474613247</v>
       </c>
       <c r="E35">
-        <v>39.31302420442155</v>
+        <v>46.294525294630802</v>
       </c>
       <c r="F35">
-        <v>82.49851909692626</v>
+        <v>75.900090415374137</v>
       </c>
       <c r="G35">
-        <v>72.80600243291326</v>
+        <v>69.870433267781223</v>
       </c>
       <c r="H35">
-        <v>35.87583926449984</v>
+        <v>38.661039474613247</v>
       </c>
       <c r="I35">
-        <v>45.28173546559746</v>
+        <v>46.294525294630802</v>
       </c>
       <c r="J35">
-        <v>82.9980102706769</v>
+        <v>75.900090415374137</v>
       </c>
       <c r="K35">
-        <v>79.31773113239684</v>
+        <v>69.870433267781223</v>
       </c>
       <c r="L35">
-        <v>37.01295234374535</v>
+        <v>38.661039474613247</v>
       </c>
       <c r="M35">
-        <v>46.7046930441991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36">
-        <v>75.90009041537414</v>
-      </c>
-      <c r="C36">
-        <v>69.87043326778122</v>
-      </c>
-      <c r="D36">
-        <v>38.66103947461325</v>
-      </c>
-      <c r="E36">
-        <v>46.2945252946308</v>
-      </c>
-      <c r="F36">
-        <v>75.90009041537414</v>
-      </c>
-      <c r="G36">
-        <v>69.87043326778122</v>
-      </c>
-      <c r="H36">
-        <v>38.66103947461325</v>
-      </c>
-      <c r="I36">
-        <v>46.2945252946308</v>
-      </c>
-      <c r="J36">
-        <v>75.90009041537414</v>
-      </c>
-      <c r="K36">
-        <v>69.87043326778122</v>
-      </c>
-      <c r="L36">
-        <v>38.66103947461325</v>
-      </c>
-      <c r="M36">
-        <v>46.2945252946308</v>
+        <v>46.294525294630802</v>
       </c>
     </row>
   </sheetData>

--- a/gis/output/all_eco_LessThanGood.xlsx
+++ b/gis/output/all_eco_LessThanGood.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8903B43-618B-45F3-8838-EDB9BDDE9F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812CD04F-1E65-454D-94B7-C3C048B9A2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -493,7 +493,7 @@
         <v>84.721614820575866</v>
       </c>
       <c r="D3">
-        <v>61.349533416317101</v>
+        <v>61.349533416317087</v>
       </c>
       <c r="E3">
         <v>67.429226163433867</v>
@@ -572,7 +572,7 @@
         <v>96.739278320575423</v>
       </c>
       <c r="C5">
-        <v>84.963787631025156</v>
+        <v>84.96378763102517</v>
       </c>
       <c r="D5">
         <v>58.990231260181083</v>
@@ -581,7 +581,7 @@
         <v>66.329034183522253</v>
       </c>
       <c r="F5">
-        <v>95.781419472946268</v>
+        <v>95.781419472946283</v>
       </c>
       <c r="G5">
         <v>96.463506680566582</v>
@@ -622,7 +622,7 @@
         <v>68.149993701727411</v>
       </c>
       <c r="F6">
-        <v>95.640290071142033</v>
+        <v>95.640290071142019</v>
       </c>
       <c r="G6">
         <v>97.35093363241154</v>
@@ -663,7 +663,7 @@
         <v>66.896798870717674</v>
       </c>
       <c r="F7">
-        <v>93.614590013809234</v>
+        <v>93.61459001380922</v>
       </c>
       <c r="G7">
         <v>95.129601486450127</v>
@@ -736,7 +736,7 @@
         <v>92.801362359739571</v>
       </c>
       <c r="C9">
-        <v>85.777695128772436</v>
+        <v>85.777695128772422</v>
       </c>
       <c r="D9">
         <v>58.681022875551712</v>
@@ -774,7 +774,7 @@
         <v>1996</v>
       </c>
       <c r="B10">
-        <v>89.44889783791885</v>
+        <v>89.448897837918864</v>
       </c>
       <c r="C10">
         <v>80.593130693107724</v>
@@ -798,7 +798,7 @@
         <v>79.884008488664037</v>
       </c>
       <c r="J10">
-        <v>92.787851586473181</v>
+        <v>92.787851586473167</v>
       </c>
       <c r="K10">
         <v>97.43298304900128</v>
@@ -818,7 +818,7 @@
         <v>88.576446031632713</v>
       </c>
       <c r="C11">
-        <v>85.507750065935781</v>
+        <v>85.507750065935809</v>
       </c>
       <c r="D11">
         <v>59.135340081133997</v>
@@ -921,7 +921,7 @@
         <v>79.29586694213701</v>
       </c>
       <c r="J13">
-        <v>88.919692232119772</v>
+        <v>88.919692232119786</v>
       </c>
       <c r="K13">
         <v>94.892767196826952</v>
@@ -950,7 +950,7 @@
         <v>63.362206470137131</v>
       </c>
       <c r="F14">
-        <v>89.984856708760802</v>
+        <v>89.984856708760788</v>
       </c>
       <c r="G14">
         <v>87.970240326953444</v>
@@ -979,10 +979,10 @@
         <v>2001</v>
       </c>
       <c r="B15">
-        <v>87.342575670737943</v>
+        <v>87.342575670737929</v>
       </c>
       <c r="C15">
-        <v>82.154115339325898</v>
+        <v>82.154115339325884</v>
       </c>
       <c r="D15">
         <v>53.209359081013773</v>
@@ -991,7 +991,7 @@
         <v>60.230040818812228</v>
       </c>
       <c r="F15">
-        <v>88.515942926224255</v>
+        <v>88.515942926224284</v>
       </c>
       <c r="G15">
         <v>93.612598506163067</v>
@@ -1009,10 +1009,10 @@
         <v>96.054395363668519</v>
       </c>
       <c r="L15">
-        <v>68.126001802892333</v>
+        <v>68.126001802892318</v>
       </c>
       <c r="M15">
-        <v>73.35038226330623</v>
+        <v>73.350382263306216</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>2002</v>
       </c>
       <c r="B16">
-        <v>88.581619189183996</v>
+        <v>88.581619189183982</v>
       </c>
       <c r="C16">
         <v>77.991055434469231</v>
@@ -1029,7 +1029,7 @@
         <v>52.954136927272202</v>
       </c>
       <c r="E16">
-        <v>59.917362817715969</v>
+        <v>59.917362817715961</v>
       </c>
       <c r="F16">
         <v>87.180315157655855</v>
@@ -1050,7 +1050,7 @@
         <v>95.479823549721786</v>
       </c>
       <c r="L16">
-        <v>66.482414225482103</v>
+        <v>66.482414225482088</v>
       </c>
       <c r="M16">
         <v>71.928843457101692</v>
@@ -1120,10 +1120,10 @@
         <v>94.324952572540241</v>
       </c>
       <c r="H18">
-        <v>66.110335683585589</v>
+        <v>66.110335683585575</v>
       </c>
       <c r="I18">
-        <v>71.72814980414168</v>
+        <v>71.728149804141665</v>
       </c>
       <c r="J18">
         <v>91.06565557687918</v>
@@ -1225,13 +1225,13 @@
         <v>2007</v>
       </c>
       <c r="B21">
-        <v>90.081967472232705</v>
+        <v>90.081967472232691</v>
       </c>
       <c r="C21">
         <v>66.545827201580963</v>
       </c>
       <c r="D21">
-        <v>49.470913188806882</v>
+        <v>49.470913188806868</v>
       </c>
       <c r="E21">
         <v>56.600001193132648</v>
@@ -1252,7 +1252,7 @@
         <v>91.376636964279854</v>
       </c>
       <c r="K21">
-        <v>94.92539114050598</v>
+        <v>94.925391140505994</v>
       </c>
       <c r="L21">
         <v>51.972395792422951</v>
@@ -1272,10 +1272,10 @@
         <v>67.125974512002259</v>
       </c>
       <c r="D22">
-        <v>44.991226076624997</v>
+        <v>44.99122607662499</v>
       </c>
       <c r="E22">
-        <v>52.649748471122088</v>
+        <v>52.649748471122081</v>
       </c>
       <c r="F22">
         <v>86.929661057367099</v>
@@ -1296,10 +1296,10 @@
         <v>96.376428347566588</v>
       </c>
       <c r="L22">
-        <v>51.01217689392967</v>
+        <v>51.012176893929663</v>
       </c>
       <c r="M22">
-        <v>60.061988773550482</v>
+        <v>60.061988773550468</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1310,7 +1310,7 @@
         <v>75.538780450611739</v>
       </c>
       <c r="C23">
-        <v>67.921536636289375</v>
+        <v>67.92153663628936</v>
       </c>
       <c r="D23">
         <v>39.951852587547762</v>
@@ -1331,7 +1331,7 @@
         <v>57.276294837825077</v>
       </c>
       <c r="J23">
-        <v>89.922849662464046</v>
+        <v>89.922849662464031</v>
       </c>
       <c r="K23">
         <v>91.630050877734448</v>
@@ -1366,13 +1366,13 @@
         <v>77.34343368000799</v>
       </c>
       <c r="H24">
-        <v>49.635035697414857</v>
+        <v>49.635035697414871</v>
       </c>
       <c r="I24">
-        <v>57.188197837246307</v>
+        <v>57.188197837246321</v>
       </c>
       <c r="J24">
-        <v>85.702263674351912</v>
+        <v>85.702263674351897</v>
       </c>
       <c r="K24">
         <v>85.085969336730543</v>
@@ -1381,7 +1381,7 @@
         <v>49.477963019996892</v>
       </c>
       <c r="M24">
-        <v>57.273465653472513</v>
+        <v>57.273465653472492</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>76.36914018046798</v>
       </c>
       <c r="C27">
-        <v>71.83245400314307</v>
+        <v>71.832454003143042</v>
       </c>
       <c r="D27">
         <v>43.288438768366952</v>
@@ -1527,13 +1527,13 @@
         <v>77.638344701828004</v>
       </c>
       <c r="G28">
-        <v>73.363254751241143</v>
+        <v>73.363254751241172</v>
       </c>
       <c r="H28">
         <v>39.858423574198667</v>
       </c>
       <c r="I28">
-        <v>47.732640111188381</v>
+        <v>47.732640111188388</v>
       </c>
       <c r="J28">
         <v>78.665375146150936</v>
@@ -1580,13 +1580,13 @@
         <v>80.509256505378403</v>
       </c>
       <c r="K29">
-        <v>74.974379063843713</v>
+        <v>74.974379063843728</v>
       </c>
       <c r="L29">
         <v>40.611205649059492</v>
       </c>
       <c r="M29">
-        <v>48.85497865685435</v>
+        <v>48.854978656854342</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -1594,7 +1594,7 @@
         <v>2016</v>
       </c>
       <c r="B30">
-        <v>86.317671964077817</v>
+        <v>86.317671964077832</v>
       </c>
       <c r="C30">
         <v>66.741180394983971</v>
@@ -1621,13 +1621,13 @@
         <v>82.068055805126676</v>
       </c>
       <c r="K30">
-        <v>73.245877626314808</v>
+        <v>73.245877626314837</v>
       </c>
       <c r="L30">
         <v>40.989519214057601</v>
       </c>
       <c r="M30">
-        <v>49.257014995710207</v>
+        <v>49.257014995710222</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1653,7 +1653,7 @@
         <v>72.399886777288586</v>
       </c>
       <c r="H31">
-        <v>39.913564873237668</v>
+        <v>39.913564873237682</v>
       </c>
       <c r="I31">
         <v>48.049064792663323</v>
@@ -1747,7 +1747,7 @@
         <v>74.4275677418171</v>
       </c>
       <c r="L33">
-        <v>38.040310988117568</v>
+        <v>38.040310988117561</v>
       </c>
       <c r="M33">
         <v>46.948258724899013</v>
@@ -1761,7 +1761,7 @@
         <v>79.938097834841372</v>
       </c>
       <c r="C34">
-        <v>55.779064075588309</v>
+        <v>55.779064075588323</v>
       </c>
       <c r="D34">
         <v>30.267319962392829</v>
@@ -1782,7 +1782,7 @@
         <v>45.281735465597457</v>
       </c>
       <c r="J34">
-        <v>82.9980102706769</v>
+        <v>82.998010270676915</v>
       </c>
       <c r="K34">
         <v>79.317731132396844</v>
